--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD8724B-1D1C-46E9-96AD-377EB9069E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3A1907-7D0B-4A63-BDDC-A04603765F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>7mmo_chainsHL_renumberedLplus1000 _fixed.pdb</t>
+  </si>
+  <si>
+    <t>.323.4</t>
   </si>
 </sst>
 </file>
@@ -242,12 +245,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" textRotation="45"/>
     </xf>
@@ -260,20 +263,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,7 +589,10 @@
   <dimension ref="A1:Z10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,18 +729,66 @@
         <f>_xlfn.CONCAT(SUBSTITUTE(D2,".","_"),"__",A2)</f>
         <v>BJ_1__LY-CoV1404</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K2" s="1">
+        <v>-115.4</v>
+      </c>
+      <c r="L2" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="M2" s="1">
+        <v>11</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-94.7</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>-167.3</v>
+      </c>
+      <c r="S2" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-33</v>
+      </c>
+      <c r="U2" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="V2" s="1">
+        <v>457.8</v>
+      </c>
+      <c r="W2" s="1">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="X2" s="1">
+        <v>2612</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>51.2</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>-2.1</v>
+      </c>
     </row>
     <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -762,16 +810,64 @@
         <f>_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
         <v>BJ_1__AZD1061</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="10"/>
+      <c r="I3" s="9"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K3" s="1">
+        <v>-86.3</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="M3" s="1">
+        <v>29</v>
+      </c>
+      <c r="N3" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-66.599999999999994</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="R3" s="1">
+        <v>-321.5</v>
+      </c>
+      <c r="S3" s="1">
+        <v>31.4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="U3" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="V3" s="1">
+        <v>538.29999999999995</v>
+      </c>
+      <c r="W3" s="1">
+        <v>55.5</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2445.9</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>77.7</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>-1.7</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -793,12 +889,60 @@
         <f t="shared" ref="G4:G10" si="0">_xlfn.CONCAT(SUBSTITUTE(D4,".","_"),"__",A4)</f>
         <v>BJ_1__AZD8895</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="10"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>-111.8</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>9</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="R4" s="1">
+        <v>-259.5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>-8.5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="W4" s="1">
+        <v>46</v>
+      </c>
+      <c r="X4" s="1">
+        <v>2536.5</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>195.9</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>-2.4</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -824,16 +968,64 @@
         <f t="shared" si="0"/>
         <v>BM_1_1_1__LY-CoV1404</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="10"/>
+      <c r="I5" s="9"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K5" s="1">
+        <v>-103</v>
+      </c>
+      <c r="L5" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>38</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-75.5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="R5" s="1">
+        <v>-275.5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-9.9</v>
+      </c>
+      <c r="U5" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="V5" s="1">
+        <v>375.3</v>
+      </c>
+      <c r="W5" s="1">
+        <v>34.5</v>
+      </c>
+      <c r="X5" s="1">
+        <v>2110.8000000000002</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>36</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>-1.6</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -855,16 +1047,64 @@
         <f t="shared" si="0"/>
         <v>BM_1_1_1__AZD1061</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="10"/>
+      <c r="I6" s="9"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K6" s="1">
+        <v>-102.8</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>119</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>7</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="S6" s="1">
+        <v>45</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-6.8</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>487.2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>82.7</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2555.6999999999998</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>-2.1</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -886,12 +1126,60 @@
         <f t="shared" si="0"/>
         <v>BM_1_1_1__AZD8895</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="10"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-100.2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>21</v>
+      </c>
+      <c r="N7" s="1">
+        <v>7.6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-283.39999999999998</v>
+      </c>
+      <c r="S7" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="U7" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>231.9</v>
+      </c>
+      <c r="W7" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2413.3000000000002</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>56</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
@@ -917,12 +1205,60 @@
         <f t="shared" si="0"/>
         <v>XBB_1_5__LY-CoV1404</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="10"/>
+      <c r="I8" s="9"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>-112.2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="M8" s="1">
+        <v>96</v>
+      </c>
+      <c r="N8" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-60</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>-396.2</v>
+      </c>
+      <c r="S8" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="V8" s="1">
+        <v>255</v>
+      </c>
+      <c r="W8" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2451.1999999999998</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>164.8</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
@@ -948,16 +1284,64 @@
         <f t="shared" si="0"/>
         <v>XBB_1_5__AZD1061</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="9"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K9" s="1">
+        <v>-101.4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M9" s="1">
+        <v>35</v>
+      </c>
+      <c r="N9" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="O9" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-82.6</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="R9" s="1">
+        <v>-246.6</v>
+      </c>
+      <c r="S9" s="1">
+        <v>57</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-7.9</v>
+      </c>
+      <c r="U9" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="V9" s="1">
+        <v>384.3</v>
+      </c>
+      <c r="W9" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2464.5</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -979,12 +1363,60 @@
         <f t="shared" si="0"/>
         <v>XBB_1_5__AZD8895</v>
       </c>
-      <c r="H10" s="11" t="s">
+      <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="9"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>-99.6</v>
+      </c>
+      <c r="L10" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="M10" s="1">
+        <v>62</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-71.8</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="R10" s="1">
+        <v>-290.3</v>
+      </c>
+      <c r="S10" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="U10" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="V10" s="1">
+        <v>217.7</v>
+      </c>
+      <c r="W10" s="1">
+        <v>26</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2319.5</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>115.4</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>-1.6</v>
       </c>
     </row>
   </sheetData>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3A1907-7D0B-4A63-BDDC-A04603765F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A3415F-336F-4F68-B8CF-92CA015E30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -170,7 +170,19 @@
     <t>7mmo_chainsHL_renumberedLplus1000 _fixed.pdb</t>
   </si>
   <si>
-    <t>.323.4</t>
+    <t>Cluster 1</t>
+  </si>
+  <si>
+    <t>Cluster</t>
+  </si>
+  <si>
+    <t>Cluster 5</t>
+  </si>
+  <si>
+    <t>Cluster 7</t>
+  </si>
+  <si>
+    <t>Cluster 2</t>
   </si>
 </sst>
 </file>
@@ -245,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -271,6 +283,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,13 +601,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:Z10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,26 +622,27 @@
     <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
     <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -657,56 +673,59 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="R1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="V1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="X1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="Y1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Z1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="AA1" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -738,56 +757,59 @@
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="1">
         <v>-115.4</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M2" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>11</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O2" s="1">
         <v>0.5</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P2" s="1">
         <v>0.3</v>
       </c>
-      <c r="P2" s="1">
+      <c r="Q2" s="1">
         <v>-94.7</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="R2" s="1">
         <v>3.6</v>
       </c>
-      <c r="R2" s="1">
+      <c r="S2" s="1">
         <v>-167.3</v>
       </c>
-      <c r="S2" s="1">
+      <c r="T2" s="1">
         <v>14.6</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>-33</v>
       </c>
-      <c r="U2" s="1">
+      <c r="V2" s="1">
         <v>2.4</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>457.8</v>
       </c>
-      <c r="W2" s="1">
+      <c r="X2" s="1">
         <v>64.900000000000006</v>
       </c>
-      <c r="X2" s="1">
+      <c r="Y2" s="1">
         <v>2612</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="Z2" s="1">
         <v>51.2</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AA2" s="1">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -817,56 +839,59 @@
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="1">
         <v>-86.3</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M3" s="1">
         <v>1.4</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>29</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>17.7</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P3" s="1">
         <v>0.3</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <v>-66.599999999999994</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="R3" s="1">
         <v>5.5</v>
       </c>
-      <c r="R3" s="1">
+      <c r="S3" s="1">
         <v>-321.5</v>
       </c>
-      <c r="S3" s="1">
+      <c r="T3" s="1">
         <v>31.4</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>-9.1999999999999993</v>
       </c>
-      <c r="U3" s="1">
+      <c r="V3" s="1">
         <v>5.9</v>
       </c>
-      <c r="V3" s="1">
+      <c r="W3" s="1">
         <v>538.29999999999995</v>
       </c>
-      <c r="W3" s="1">
+      <c r="X3" s="1">
         <v>55.5</v>
       </c>
-      <c r="X3" s="1">
+      <c r="Y3" s="1">
         <v>2445.9</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="Z3" s="1">
         <v>77.7</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AA3" s="1">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -896,56 +921,59 @@
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="1">
         <v>-111.8</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M4" s="1">
         <v>9.4</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>9</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <v>0.6</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P4" s="1">
         <v>0.4</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <v>-80.900000000000006</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="R4" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="R4" s="1">
+      <c r="S4" s="1">
         <v>-259.5</v>
       </c>
-      <c r="S4" s="1">
+      <c r="T4" s="1">
         <v>15.6</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>-8.5</v>
       </c>
-      <c r="U4" s="1">
+      <c r="V4" s="1">
         <v>1.4</v>
       </c>
-      <c r="V4" s="1">
+      <c r="W4" s="1">
         <v>294.39999999999998</v>
       </c>
-      <c r="W4" s="1">
+      <c r="X4" s="1">
         <v>46</v>
       </c>
-      <c r="X4" s="1">
+      <c r="Y4" s="1">
         <v>2536.5</v>
       </c>
-      <c r="Y4" s="1">
+      <c r="Z4" s="1">
         <v>195.9</v>
       </c>
-      <c r="Z4" s="1">
+      <c r="AA4" s="1">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -975,56 +1003,59 @@
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="1">
         <v>-103</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <v>6.1</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>38</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <v>0.4</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P5" s="1">
         <v>0.2</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <v>-75.5</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="R5" s="1">
         <v>3.7</v>
       </c>
-      <c r="R5" s="1">
+      <c r="S5" s="1">
         <v>-275.5</v>
       </c>
-      <c r="S5" s="1">
+      <c r="T5" s="1">
         <v>24.5</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>-9.9</v>
       </c>
-      <c r="U5" s="1">
+      <c r="V5" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="V5" s="1">
+      <c r="W5" s="1">
         <v>375.3</v>
       </c>
-      <c r="W5" s="1">
+      <c r="X5" s="1">
         <v>34.5</v>
       </c>
-      <c r="X5" s="1">
+      <c r="Y5" s="1">
         <v>2110.8000000000002</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="Z5" s="1">
         <v>36</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AA5" s="1">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -1054,56 +1085,59 @@
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1">
         <v>-102.8</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M6" s="1">
         <v>9.4</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>119</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O6" s="1">
         <v>0.6</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P6" s="1">
         <v>0.4</v>
       </c>
-      <c r="P6" s="1">
+      <c r="Q6" s="1">
         <v>-80.099999999999994</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="R6" s="1">
         <v>7</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="S6" s="1">
+        <v>-323.39999999999998</v>
+      </c>
+      <c r="T6" s="1">
         <v>45</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>-6.8</v>
       </c>
-      <c r="U6" s="1">
+      <c r="V6" s="1">
         <v>1</v>
       </c>
-      <c r="V6" s="1">
+      <c r="W6" s="1">
         <v>487.2</v>
       </c>
-      <c r="W6" s="1">
+      <c r="X6" s="1">
         <v>82.7</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>2555.6999999999998</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AA6" s="1">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -1133,56 +1167,59 @@
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="1">
         <v>-100.2</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M7" s="1">
         <v>3.6</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>21</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O7" s="1">
         <v>7.6</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P7" s="1">
         <v>0.4</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>-76.400000000000006</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R7" s="1">
         <v>1.8</v>
       </c>
-      <c r="R7" s="1">
+      <c r="S7" s="1">
         <v>-283.39999999999998</v>
       </c>
-      <c r="S7" s="1">
+      <c r="T7" s="1">
         <v>37.6</v>
       </c>
-      <c r="T7" s="1">
+      <c r="U7" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="U7" s="1">
+      <c r="V7" s="1">
         <v>5.2</v>
       </c>
-      <c r="V7" s="1">
+      <c r="W7" s="1">
         <v>231.9</v>
       </c>
-      <c r="W7" s="1">
+      <c r="X7" s="1">
         <v>31.5</v>
       </c>
-      <c r="X7" s="1">
+      <c r="Y7" s="1">
         <v>2413.3000000000002</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Z7" s="1">
         <v>56</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AA7" s="1">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1212,56 +1249,59 @@
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" s="1">
         <v>-112.2</v>
       </c>
-      <c r="L8" s="1">
+      <c r="M8" s="1">
         <v>2.8</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>96</v>
       </c>
-      <c r="N8" s="1">
+      <c r="O8" s="1">
         <v>13.1</v>
       </c>
-      <c r="O8" s="1">
+      <c r="P8" s="1">
         <v>0.1</v>
       </c>
-      <c r="P8" s="1">
+      <c r="Q8" s="1">
         <v>-60</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="R8" s="1">
         <v>6.5</v>
       </c>
-      <c r="R8" s="1">
+      <c r="S8" s="1">
         <v>-396.2</v>
       </c>
-      <c r="S8" s="1">
+      <c r="T8" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>1.5</v>
       </c>
-      <c r="U8" s="1">
+      <c r="V8" s="1">
         <v>1.9</v>
       </c>
-      <c r="V8" s="1">
+      <c r="W8" s="1">
         <v>255</v>
       </c>
-      <c r="W8" s="1">
+      <c r="X8" s="1">
         <v>52.3</v>
       </c>
-      <c r="X8" s="1">
+      <c r="Y8" s="1">
         <v>2451.1999999999998</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="Z8" s="1">
         <v>164.8</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AA8" s="1">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1291,56 +1331,59 @@
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L9" s="1">
         <v>-101.4</v>
       </c>
-      <c r="L9" s="1">
+      <c r="M9" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>35</v>
       </c>
-      <c r="N9" s="1">
+      <c r="O9" s="1">
         <v>5.8</v>
       </c>
-      <c r="O9" s="1">
+      <c r="P9" s="1">
         <v>1.2</v>
       </c>
-      <c r="P9" s="1">
+      <c r="Q9" s="1">
         <v>-82.6</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>3.8</v>
       </c>
-      <c r="R9" s="1">
+      <c r="S9" s="1">
         <v>-246.6</v>
       </c>
-      <c r="S9" s="1">
+      <c r="T9" s="1">
         <v>57</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>-7.9</v>
       </c>
-      <c r="U9" s="1">
+      <c r="V9" s="1">
         <v>5.7</v>
       </c>
-      <c r="V9" s="1">
+      <c r="W9" s="1">
         <v>384.3</v>
       </c>
-      <c r="W9" s="1">
+      <c r="X9" s="1">
         <v>79.400000000000006</v>
       </c>
-      <c r="X9" s="1">
+      <c r="Y9" s="1">
         <v>2464.5</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="Z9" s="1">
         <v>87.4</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AA9" s="1">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1370,52 +1413,55 @@
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1">
         <v>-99.6</v>
       </c>
-      <c r="L10" s="1">
+      <c r="M10" s="1">
         <v>4.5999999999999996</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>62</v>
       </c>
-      <c r="N10" s="1">
+      <c r="O10" s="1">
         <v>1</v>
       </c>
-      <c r="O10" s="1">
+      <c r="P10" s="1">
         <v>1.2</v>
       </c>
-      <c r="P10" s="1">
+      <c r="Q10" s="1">
         <v>-71.8</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>12.7</v>
       </c>
-      <c r="R10" s="1">
+      <c r="S10" s="1">
         <v>-290.3</v>
       </c>
-      <c r="S10" s="1">
+      <c r="T10" s="1">
         <v>26.3</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>8.5</v>
       </c>
-      <c r="U10" s="1">
+      <c r="V10" s="1">
         <v>5.9</v>
       </c>
-      <c r="V10" s="1">
+      <c r="W10" s="1">
         <v>217.7</v>
       </c>
-      <c r="W10" s="1">
+      <c r="X10" s="1">
         <v>26</v>
       </c>
-      <c r="X10" s="1">
+      <c r="Y10" s="1">
         <v>2319.5</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="Z10" s="1">
         <v>115.4</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AA10" s="1">
         <v>-1.6</v>
       </c>
     </row>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A3415F-336F-4F68-B8CF-92CA015E30AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58665C58-F13C-D84B-A15E-B085B7D3EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>Cluster 2</t>
+  </si>
+  <si>
+    <t>XBB.1.5_DJM</t>
+  </si>
+  <si>
+    <t>XBB_1_5_DJM_ff8e4_relaxed_rank_1_model_1_renumbered.pdb</t>
   </si>
 </sst>
 </file>
@@ -281,11 +287,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -601,48 +607,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA10"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N1" sqref="N1"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,7 +679,7 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
         <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
@@ -725,7 +731,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -751,7 +757,7 @@
       <c r="H2" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -809,7 +815,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -835,7 +841,7 @@
       <c r="H3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="9"/>
+      <c r="I3" s="10"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
@@ -891,7 +897,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -911,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G10" si="0">_xlfn.CONCAT(SUBSTITUTE(D4,".","_"),"__",A4)</f>
+        <f t="shared" ref="G4:G13" si="0">_xlfn.CONCAT(SUBSTITUTE(D4,".","_"),"__",A4)</f>
         <v>BJ_1__AZD8895</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="9"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -973,7 +979,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>34</v>
       </c>
@@ -999,7 +1005,7 @@
       <c r="H5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>35</v>
       </c>
@@ -1081,7 +1087,7 @@
       <c r="H6" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="9"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1137,7 +1143,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>36</v>
       </c>
@@ -1163,7 +1169,7 @@
       <c r="H7" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I7" s="9"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1219,7 +1225,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>34</v>
       </c>
@@ -1245,7 +1251,7 @@
       <c r="H8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="9"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
@@ -1301,7 +1307,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1327,7 +1333,7 @@
       <c r="H9" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I9" s="9"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1383,7 +1389,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1409,7 +1415,7 @@
       <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="9"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
@@ -1463,11 +1469,104 @@
       </c>
       <c r="AA10" s="1">
         <v>-1.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>XBB_1_5_DJM__LY-CoV1404</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>XBB_1_5_DJM__AZD1061</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>XBB_1_5_DJM__AZD8895</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="10"/>
+      <c r="J13" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I10"/>
+    <mergeCell ref="I2:I13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58665C58-F13C-D84B-A15E-B085B7D3EB17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043AD52-8F16-4E60-A60A-FE01738FABB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20100" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -185,10 +185,55 @@
     <t>Cluster 2</t>
   </si>
   <si>
-    <t>XBB.1.5_DJM</t>
-  </si>
-  <si>
     <t>XBB_1_5_DJM_ff8e4_relaxed_rank_1_model_1_renumbered.pdb</t>
+  </si>
+  <si>
+    <t>XBB_1_5__LY-CoV1404</t>
+  </si>
+  <si>
+    <t>XBB_1_5__AZD1061</t>
+  </si>
+  <si>
+    <t>XBB_1_5__AZD8895</t>
+  </si>
+  <si>
+    <t>XBB.1.5 (Hodcroft)</t>
+  </si>
+  <si>
+    <t>XBB_1_5_DJM__LY-CoV1404</t>
+  </si>
+  <si>
+    <t>XBB_1_5_DJM__AZD1061</t>
+  </si>
+  <si>
+    <t>XBB_1_5_DJM__AZD8895</t>
+  </si>
+  <si>
+    <t>58G6</t>
+  </si>
+  <si>
+    <t>CV38-142</t>
+  </si>
+  <si>
+    <t>C110</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,53,54,55,56,74,75,76,77,1026,1027,1028,1029,1030,1031,1032,1033,1066,1067,1068,1069,1070,1092,1093,1094,1095,1096,1097</t>
+  </si>
+  <si>
+    <t>7lm9_chainsHL_CV38-142_renumberedplus1000.pdb</t>
+  </si>
+  <si>
+    <t>7k8p_chainsHL_C110_renumberedplus1000.pdb</t>
+  </si>
+  <si>
+    <t>7e3l_chainsHL_58G6 _renumberedplus1000_fixed.pdb</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,55,73,74,75,96,97,98,99,100,1026,1027,1028,1029,1030,1031,1050,1051,1066,1067,1068,1069,1091,1092,1093,1094,1095,1096</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,5,56,73,74,75,76,96,97,98,99,100,1026,1027,1028,1029,1030,1031,1032,1050,1051,1052,1068,1069,1091,1092,1093,1094,1095,1096</t>
   </si>
 </sst>
 </file>
@@ -225,7 +270,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +295,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -263,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -292,6 +355,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -607,48 +679,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA13"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="K5" sqref="K5:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,7 +803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -815,7 +887,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -897,7 +969,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -917,7 +989,7 @@
         <v>33</v>
       </c>
       <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G13" si="0">_xlfn.CONCAT(SUBSTITUTE(D4,".","_"),"__",A4)</f>
+        <f t="shared" ref="G4:G10" si="0">_xlfn.CONCAT(SUBSTITUTE(D4,".","_"),"__",A4)</f>
         <v>BJ_1__AZD8895</v>
       </c>
       <c r="H4" s="8" t="s">
@@ -979,254 +1051,101 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>34</v>
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BM_1_1_1__LY-CoV1404</v>
+        <v>BJ_1__58G6</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="I5" s="10"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="1">
-        <v>-103</v>
-      </c>
-      <c r="M5" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="N5" s="1">
-        <v>38</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P5" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>-75.5</v>
-      </c>
-      <c r="R5" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="S5" s="1">
-        <v>-275.5</v>
-      </c>
-      <c r="T5" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="U5" s="1">
-        <v>-9.9</v>
-      </c>
-      <c r="V5" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W5" s="1">
-        <v>375.3</v>
-      </c>
-      <c r="X5" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="Y5" s="1">
-        <v>2110.8000000000002</v>
-      </c>
-      <c r="Z5" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>-1.6</v>
-      </c>
     </row>
-    <row r="6" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>35</v>
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BM_1_1_1__AZD1061</v>
+        <v>BJ_1__CV38-142</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="1">
-        <v>-102.8</v>
-      </c>
-      <c r="M6" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="N6" s="1">
-        <v>119</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>-80.099999999999994</v>
-      </c>
-      <c r="R6" s="1">
-        <v>7</v>
-      </c>
-      <c r="S6" s="1">
-        <v>-323.39999999999998</v>
-      </c>
-      <c r="T6" s="1">
-        <v>45</v>
-      </c>
-      <c r="U6" s="1">
-        <v>-6.8</v>
-      </c>
-      <c r="V6" s="1">
-        <v>1</v>
-      </c>
-      <c r="W6" s="1">
-        <v>487.2</v>
-      </c>
-      <c r="X6" s="1">
-        <v>82.7</v>
-      </c>
-      <c r="Y6" s="1">
-        <v>2555.6999999999998</v>
-      </c>
-      <c r="Z6" s="1">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="AA6" s="1">
-        <v>-2.1</v>
-      </c>
     </row>
-    <row r="7" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>36</v>
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>BM_1_1_1__AZD8895</v>
+        <v>BJ_1__C110</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="I7" s="10"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L7" s="1">
-        <v>-100.2</v>
-      </c>
-      <c r="M7" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="N7" s="1">
-        <v>21</v>
-      </c>
-      <c r="O7" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="P7" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>-76.400000000000006</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="S7" s="1">
-        <v>-283.39999999999998</v>
-      </c>
-      <c r="T7" s="1">
-        <v>37.6</v>
-      </c>
-      <c r="U7" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="V7" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="W7" s="1">
-        <v>231.9</v>
-      </c>
-      <c r="X7" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>2413.3000000000002</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>56</v>
-      </c>
-      <c r="AA7" s="1">
-        <v>-1.9</v>
-      </c>
     </row>
-    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1236,17 +1155,17 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>XBB_1_5__LY-CoV1404</v>
+        <v>BM_1_1_1__LY-CoV1404</v>
       </c>
       <c r="H8" s="8" t="s">
         <v>40</v>
@@ -1259,55 +1178,55 @@
         <v>44</v>
       </c>
       <c r="L8" s="1">
-        <v>-112.2</v>
+        <v>-103</v>
       </c>
       <c r="M8" s="1">
-        <v>2.8</v>
+        <v>6.1</v>
       </c>
       <c r="N8" s="1">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="O8" s="1">
-        <v>13.1</v>
+        <v>0.4</v>
       </c>
       <c r="P8" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q8" s="1">
-        <v>-60</v>
+        <v>-75.5</v>
       </c>
       <c r="R8" s="1">
-        <v>6.5</v>
+        <v>3.7</v>
       </c>
       <c r="S8" s="1">
-        <v>-396.2</v>
+        <v>-275.5</v>
       </c>
       <c r="T8" s="1">
-        <v>17.899999999999999</v>
+        <v>24.5</v>
       </c>
       <c r="U8" s="1">
-        <v>1.5</v>
+        <v>-9.9</v>
       </c>
       <c r="V8" s="1">
-        <v>1.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W8" s="1">
-        <v>255</v>
+        <v>375.3</v>
       </c>
       <c r="X8" s="1">
-        <v>52.3</v>
+        <v>34.5</v>
       </c>
       <c r="Y8" s="1">
-        <v>2451.1999999999998</v>
+        <v>2110.8000000000002</v>
       </c>
       <c r="Z8" s="1">
-        <v>164.8</v>
+        <v>36</v>
       </c>
       <c r="AA8" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-1.6</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1318,17 +1237,17 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>XBB_1_5__AZD1061</v>
+        <v>BM_1_1_1__AZD1061</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>39</v>
@@ -1338,58 +1257,58 @@
         <v>1</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L9" s="1">
-        <v>-101.4</v>
+        <v>-102.8</v>
       </c>
       <c r="M9" s="1">
-        <v>2.2999999999999998</v>
+        <v>9.4</v>
       </c>
       <c r="N9" s="1">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="O9" s="1">
-        <v>5.8</v>
+        <v>0.6</v>
       </c>
       <c r="P9" s="1">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q9" s="1">
-        <v>-82.6</v>
+        <v>-80.099999999999994</v>
       </c>
       <c r="R9" s="1">
-        <v>3.8</v>
+        <v>7</v>
       </c>
       <c r="S9" s="1">
-        <v>-246.6</v>
+        <v>-323.39999999999998</v>
       </c>
       <c r="T9" s="1">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="U9" s="1">
-        <v>-7.9</v>
+        <v>-6.8</v>
       </c>
       <c r="V9" s="1">
-        <v>5.7</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
-        <v>384.3</v>
+        <v>487.2</v>
       </c>
       <c r="X9" s="1">
-        <v>79.400000000000006</v>
+        <v>82.7</v>
       </c>
       <c r="Y9" s="1">
-        <v>2464.5</v>
+        <v>2555.6999999999998</v>
       </c>
       <c r="Z9" s="1">
-        <v>87.4</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA9" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-2.1</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1400,17 +1319,17 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>XBB_1_5__AZD8895</v>
+        <v>BM_1_1_1__AZD8895</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>38</v>
@@ -1420,58 +1339,58 @@
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L10" s="1">
-        <v>-99.6</v>
+        <v>-100.2</v>
       </c>
       <c r="M10" s="1">
-        <v>4.5999999999999996</v>
+        <v>3.6</v>
       </c>
       <c r="N10" s="1">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="O10" s="1">
-        <v>1</v>
+        <v>7.6</v>
       </c>
       <c r="P10" s="1">
-        <v>1.2</v>
+        <v>0.4</v>
       </c>
       <c r="Q10" s="1">
-        <v>-71.8</v>
+        <v>-76.400000000000006</v>
       </c>
       <c r="R10" s="1">
-        <v>12.7</v>
+        <v>1.8</v>
       </c>
       <c r="S10" s="1">
-        <v>-290.3</v>
+        <v>-283.39999999999998</v>
       </c>
       <c r="T10" s="1">
-        <v>26.3</v>
+        <v>37.6</v>
       </c>
       <c r="U10" s="1">
-        <v>8.5</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="V10" s="1">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="W10" s="1">
-        <v>217.7</v>
+        <v>231.9</v>
       </c>
       <c r="X10" s="1">
-        <v>26</v>
+        <v>31.5</v>
       </c>
       <c r="Y10" s="1">
-        <v>2319.5</v>
+        <v>2413.3000000000002</v>
       </c>
       <c r="Z10" s="1">
-        <v>115.4</v>
+        <v>56</v>
       </c>
       <c r="AA10" s="1">
-        <v>-1.6</v>
+        <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>34</v>
       </c>
@@ -1482,17 +1401,16 @@
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>XBB_1_5_DJM__LY-CoV1404</v>
+      <c r="G11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>40</v>
@@ -1501,8 +1419,59 @@
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-112.2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="N11" s="1">
+        <v>96</v>
+      </c>
+      <c r="O11" s="1">
+        <v>13.1</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-60</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-396.2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="U11" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W11" s="1">
+        <v>255</v>
+      </c>
+      <c r="X11" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2451.1999999999998</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>164.8</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1513,17 +1482,16 @@
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>XBB_1_5_DJM__AZD1061</v>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>39</v>
@@ -1532,8 +1500,59 @@
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-101.4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N12" s="1">
+        <v>35</v>
+      </c>
+      <c r="O12" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-82.6</v>
+      </c>
+      <c r="R12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-246.6</v>
+      </c>
+      <c r="T12" s="1">
+        <v>57</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-7.9</v>
+      </c>
+      <c r="V12" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="W12" s="1">
+        <v>384.3</v>
+      </c>
+      <c r="X12" s="1">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2464.5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>87.4</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
-    <row r="13" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
@@ -1544,17 +1563,16 @@
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>XBB_1_5_DJM__AZD8895</v>
+      <c r="G13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="H13" s="8" t="s">
         <v>38</v>
@@ -1563,10 +1581,304 @@
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-99.6</v>
+      </c>
+      <c r="M13" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N13" s="1">
+        <v>62</v>
+      </c>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-71.8</v>
+      </c>
+      <c r="R13" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-290.3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="U13" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="W13" s="1">
+        <v>217.7</v>
+      </c>
+      <c r="X13" s="1">
+        <v>26</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2319.5</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>115.4</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-120.2</v>
+      </c>
+      <c r="M14" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>144</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-90.9</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-262.7</v>
+      </c>
+      <c r="T14" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-11.9</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>351.1</v>
+      </c>
+      <c r="X14" s="1">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2616.4</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>72.8</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-122.2</v>
+      </c>
+      <c r="M15" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>48</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-96.2</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-291.8</v>
+      </c>
+      <c r="T15" s="1">
+        <v>31.3</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W15" s="1">
+        <v>458.2</v>
+      </c>
+      <c r="X15" s="1">
+        <v>54.2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2775.4</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>74</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-89.3</v>
+      </c>
+      <c r="M16" s="1">
+        <v>11.7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>23</v>
+      </c>
+      <c r="O16" s="1">
+        <v>18</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-236.9</v>
+      </c>
+      <c r="T16" s="1">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-5.8</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W16" s="1">
+        <v>324.5</v>
+      </c>
+      <c r="X16" s="1">
+        <v>96.7</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2213</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>117.2</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>-1.5</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I13"/>
+    <mergeCell ref="I2:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6043AD52-8F16-4E60-A60A-FE01738FABB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFB665-DA63-4B4F-BD80-6EA4C1E475B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="Old" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="76">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -234,13 +235,43 @@
   </si>
   <si>
     <t>26,27,28,29,30,31,32,33,52,53,54,5,56,73,74,75,76,96,97,98,99,100,1026,1027,1028,1029,1030,1031,1032,1050,1051,1052,1068,1069,1091,1092,1093,1094,1095,1096</t>
+  </si>
+  <si>
+    <t>Cluster 9</t>
+  </si>
+  <si>
+    <t>Cluster 3</t>
+  </si>
+  <si>
+    <t>XBB.1.5 (DJM Old)</t>
+  </si>
+  <si>
+    <t>XBB15_af284_relaxed_rank_1_model_1_renumbered.pdb</t>
+  </si>
+  <si>
+    <t>B.1.1.529</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,34,55,56,75,76,77,103,1025,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1062,1063,1064,1071,1072,1095,1096,1097,1098</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,58,59,76,77,78,104,105,106,107,108,109,110,111,112,113,114,115,116,117,118,1026,1027,1028,1029,1030,1031,1032,1033,1034,1035,1036,1037,1038,1072,1073,1074,1075,1097,1098,1099,1100,1101,1102</t>
+  </si>
+  <si>
+    <t>7t9j_chainC_RBD.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +295,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -326,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -353,9 +392,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -363,6 +399,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -679,13 +742,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA16"/>
+  <dimension ref="A1:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5:K7"/>
+      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -803,7 +866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -813,78 +876,78 @@
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="1" t="str">
+      <c r="D2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="21" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(D2,".","_"),"__",A2)</f>
-        <v>BJ_1__LY-CoV1404</v>
+        <v>B_1_1_529__LY-CoV1404</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-115.4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N2" s="1">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>-94.7</v>
-      </c>
-      <c r="R2" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="S2" s="1">
-        <v>-167.3</v>
-      </c>
-      <c r="T2" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-33</v>
-      </c>
-      <c r="V2" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="W2" s="1">
-        <v>457.8</v>
-      </c>
-      <c r="X2" s="1">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="Y2" s="1">
-        <v>2612</v>
-      </c>
-      <c r="Z2" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>-2.1</v>
+      <c r="J2" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="21">
+        <v>-124</v>
+      </c>
+      <c r="M2" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N2" s="21">
+        <v>60</v>
+      </c>
+      <c r="O2" s="21">
+        <v>2</v>
+      </c>
+      <c r="P2" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>-78.599999999999994</v>
+      </c>
+      <c r="R2" s="21">
+        <v>10.8</v>
+      </c>
+      <c r="S2" s="21">
+        <v>-262.10000000000002</v>
+      </c>
+      <c r="T2" s="21">
+        <v>24.3</v>
+      </c>
+      <c r="U2" s="21">
+        <v>-30.5</v>
+      </c>
+      <c r="V2" s="21">
+        <v>7.1</v>
+      </c>
+      <c r="W2" s="21">
+        <v>376.1</v>
+      </c>
+      <c r="X2" s="21">
+        <v>104.3</v>
+      </c>
+      <c r="Y2" s="21">
+        <v>2457.1999999999998</v>
+      </c>
+      <c r="Z2" s="21">
+        <v>111.6</v>
+      </c>
+      <c r="AA2" s="21">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -897,76 +960,76 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
-        <v>BJ_1__AZD1061</v>
+      <c r="D3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" s="21" t="str">
+        <f t="shared" ref="G3:G7" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
+        <v>B_1_1_529__AZD1061</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="1" t="b">
+        <v>73</v>
+      </c>
+      <c r="I3" s="13"/>
+      <c r="J3" s="21" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="L3" s="1">
-        <v>-86.3</v>
+        <v>-123.3</v>
       </c>
       <c r="M3" s="1">
-        <v>1.4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="1">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O3" s="1">
         <v>17.7</v>
       </c>
       <c r="P3" s="1">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="Q3" s="1">
-        <v>-66.599999999999994</v>
+        <v>-92.8</v>
       </c>
       <c r="R3" s="1">
-        <v>5.5</v>
+        <v>6.6</v>
       </c>
       <c r="S3" s="1">
-        <v>-321.5</v>
+        <v>-271.7</v>
       </c>
       <c r="T3" s="1">
-        <v>31.4</v>
+        <v>23.7</v>
       </c>
       <c r="U3" s="1">
-        <v>-9.1999999999999993</v>
+        <v>-13.1</v>
       </c>
       <c r="V3" s="1">
-        <v>5.9</v>
+        <v>3.6</v>
       </c>
       <c r="W3" s="1">
-        <v>538.29999999999995</v>
+        <v>369.5</v>
       </c>
       <c r="X3" s="1">
-        <v>55.5</v>
+        <v>87</v>
       </c>
       <c r="Y3" s="1">
-        <v>2445.9</v>
+        <v>2684.2</v>
       </c>
       <c r="Z3" s="1">
-        <v>77.7</v>
+        <v>88.1</v>
       </c>
       <c r="AA3" s="1">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -979,80 +1042,80 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="1" t="str">
-        <f t="shared" ref="G4:G10" si="0">_xlfn.CONCAT(SUBSTITUTE(D4,".","_"),"__",A4)</f>
-        <v>BJ_1__AZD8895</v>
+      <c r="D4" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>B_1_1_529__AZD8895</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="10"/>
-      <c r="J4" s="1" t="b">
+      <c r="I4" s="13"/>
+      <c r="J4" s="21" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="L4" s="1">
-        <v>-111.8</v>
+        <v>-93.5</v>
       </c>
       <c r="M4" s="1">
-        <v>9.4</v>
+        <v>4.3</v>
       </c>
       <c r="N4" s="1">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O4" s="1">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="P4" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q4" s="1">
-        <v>-80.900000000000006</v>
+        <v>-71.5</v>
       </c>
       <c r="R4" s="1">
-        <v>4.4000000000000004</v>
+        <v>6.6</v>
       </c>
       <c r="S4" s="1">
-        <v>-259.5</v>
+        <v>-230</v>
       </c>
       <c r="T4" s="1">
-        <v>15.6</v>
+        <v>29.9</v>
       </c>
       <c r="U4" s="1">
-        <v>-8.5</v>
+        <v>-4.5</v>
       </c>
       <c r="V4" s="1">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="W4" s="1">
-        <v>294.39999999999998</v>
+        <v>285.7</v>
       </c>
       <c r="X4" s="1">
-        <v>46</v>
+        <v>28.6</v>
       </c>
       <c r="Y4" s="1">
-        <v>2536.5</v>
+        <v>2259.5</v>
       </c>
       <c r="Z4" s="1">
-        <v>195.9</v>
+        <v>49.1</v>
       </c>
       <c r="AA4" s="1">
-        <v>-2.4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1061,29 +1124,80 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="1" t="str">
+      <c r="D5" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G5" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>BJ_1__58G6</v>
+        <v>B_1_1_529__58G6</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="1" t="b">
-        <v>1</v>
+      <c r="I5" s="13"/>
+      <c r="J5" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-114.4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>12</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>-71.400000000000006</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-317.8</v>
+      </c>
+      <c r="T5" s="1">
+        <v>30.4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>-21</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="W5" s="1">
+        <v>416.3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>2305.9</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -1092,29 +1206,80 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="1" t="str">
+      <c r="D6" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>BJ_1__CV38-142</v>
+        <v>B_1_1_529__CV38-142</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="10"/>
-      <c r="J6" s="1" t="b">
-        <v>1</v>
+      <c r="I6" s="13"/>
+      <c r="J6" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="1">
+        <v>-122.3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>8</v>
+      </c>
+      <c r="N6" s="1">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>-84.2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-257.7</v>
+      </c>
+      <c r="T6" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="U6" s="1">
+        <v>-3.6</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W6" s="1">
+        <v>170.1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>61.7</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>2451.9</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -1123,28 +1288,79 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="1" t="str">
+      <c r="D7" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" s="21" t="str">
         <f t="shared" si="0"/>
-        <v>BJ_1__C110</v>
+        <v>B_1_1_529__C110</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="1" t="b">
-        <v>1</v>
+      <c r="I7" s="13"/>
+      <c r="J7" s="21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-123.1</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>153</v>
+      </c>
+      <c r="O7" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-67.099999999999994</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-397.4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>27.5</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="W7" s="1">
+        <v>262.3</v>
+      </c>
+      <c r="X7" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2251.3000000000002</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>63.5</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>-1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1155,75 +1371,75 @@
         <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BM_1_1_1__LY-CoV1404</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D8,".","_"),"__",A8)</f>
+        <v>BJ_1__LY-CoV1404</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="I8" s="13"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L8" s="1">
-        <v>-103</v>
+        <v>-115.4</v>
       </c>
       <c r="M8" s="1">
-        <v>6.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N8" s="1">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="O8" s="1">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P8" s="1">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="Q8" s="1">
-        <v>-75.5</v>
+        <v>-94.7</v>
       </c>
       <c r="R8" s="1">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="S8" s="1">
-        <v>-275.5</v>
+        <v>-167.3</v>
       </c>
       <c r="T8" s="1">
-        <v>24.5</v>
+        <v>14.6</v>
       </c>
       <c r="U8" s="1">
-        <v>-9.9</v>
+        <v>-33</v>
       </c>
       <c r="V8" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.4</v>
       </c>
       <c r="W8" s="1">
-        <v>375.3</v>
+        <v>457.8</v>
       </c>
       <c r="X8" s="1">
-        <v>34.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Y8" s="1">
-        <v>2110.8000000000002</v>
+        <v>2612</v>
       </c>
       <c r="Z8" s="1">
-        <v>36</v>
+        <v>51.2</v>
       </c>
       <c r="AA8" s="1">
-        <v>-1.6</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -1237,22 +1453,22 @@
         <v>32</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BM_1_1_1__AZD1061</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D9,".","_"),"__",A9)</f>
+        <v>BJ_1__AZD1061</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="I9" s="13"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1260,52 +1476,52 @@
         <v>44</v>
       </c>
       <c r="L9" s="1">
-        <v>-102.8</v>
+        <v>-86.3</v>
       </c>
       <c r="M9" s="1">
-        <v>9.4</v>
+        <v>1.4</v>
       </c>
       <c r="N9" s="1">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="O9" s="1">
-        <v>0.6</v>
+        <v>17.7</v>
       </c>
       <c r="P9" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q9" s="1">
-        <v>-80.099999999999994</v>
+        <v>-66.599999999999994</v>
       </c>
       <c r="R9" s="1">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="S9" s="1">
-        <v>-323.39999999999998</v>
+        <v>-321.5</v>
       </c>
       <c r="T9" s="1">
-        <v>45</v>
+        <v>31.4</v>
       </c>
       <c r="U9" s="1">
-        <v>-6.8</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="V9" s="1">
-        <v>1</v>
+        <v>5.9</v>
       </c>
       <c r="W9" s="1">
-        <v>487.2</v>
+        <v>538.29999999999995</v>
       </c>
       <c r="X9" s="1">
-        <v>82.7</v>
+        <v>55.5</v>
       </c>
       <c r="Y9" s="1">
-        <v>2555.6999999999998</v>
+        <v>2445.9</v>
       </c>
       <c r="Z9" s="1">
-        <v>39.200000000000003</v>
+        <v>77.7</v>
       </c>
       <c r="AA9" s="1">
-        <v>-2.1</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -1319,322 +1535,325 @@
         <v>32</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>BM_1_1_1__AZD8895</v>
+        <f t="shared" ref="G10:G25" si="1">_xlfn.CONCAT(SUBSTITUTE(D10,".","_"),"__",A10)</f>
+        <v>BJ_1__AZD8895</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="10"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L10" s="1">
-        <v>-100.2</v>
+        <v>-111.8</v>
       </c>
       <c r="M10" s="1">
-        <v>3.6</v>
+        <v>9.4</v>
       </c>
       <c r="N10" s="1">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="O10" s="1">
-        <v>7.6</v>
+        <v>0.6</v>
       </c>
       <c r="P10" s="1">
         <v>0.4</v>
       </c>
       <c r="Q10" s="1">
-        <v>-76.400000000000006</v>
+        <v>-80.900000000000006</v>
       </c>
       <c r="R10" s="1">
-        <v>1.8</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S10" s="1">
-        <v>-283.39999999999998</v>
+        <v>-259.5</v>
       </c>
       <c r="T10" s="1">
-        <v>37.6</v>
+        <v>15.6</v>
       </c>
       <c r="U10" s="1">
-        <v>9.6999999999999993</v>
+        <v>-8.5</v>
       </c>
       <c r="V10" s="1">
-        <v>5.2</v>
+        <v>1.4</v>
       </c>
       <c r="W10" s="1">
-        <v>231.9</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="X10" s="1">
-        <v>31.5</v>
+        <v>46</v>
       </c>
       <c r="Y10" s="1">
-        <v>2413.3000000000002</v>
+        <v>2536.5</v>
       </c>
       <c r="Z10" s="1">
-        <v>56</v>
+        <v>195.9</v>
       </c>
       <c r="AA10" s="1">
-        <v>-1.9</v>
+        <v>-2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>34</v>
+    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>50</v>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__58G6</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="10"/>
+        <v>60</v>
+      </c>
+      <c r="I11" s="13"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="L11" s="1">
-        <v>-112.2</v>
+        <v>-121.8</v>
       </c>
       <c r="M11" s="1">
-        <v>2.8</v>
+        <v>7.6</v>
       </c>
       <c r="N11" s="1">
-        <v>96</v>
+        <v>16</v>
       </c>
       <c r="O11" s="1">
-        <v>13.1</v>
+        <v>0.4</v>
       </c>
       <c r="P11" s="1">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="Q11" s="1">
-        <v>-60</v>
+        <v>-91.1</v>
       </c>
       <c r="R11" s="1">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="S11" s="1">
-        <v>-396.2</v>
+        <v>-213.7</v>
       </c>
       <c r="T11" s="1">
-        <v>17.899999999999999</v>
+        <v>10.1</v>
       </c>
       <c r="U11" s="1">
-        <v>1.5</v>
+        <v>-18.5</v>
       </c>
       <c r="V11" s="1">
-        <v>1.9</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W11" s="1">
-        <v>255</v>
+        <v>305.7</v>
       </c>
       <c r="X11" s="1">
-        <v>52.3</v>
+        <v>24.3</v>
       </c>
       <c r="Y11" s="1">
-        <v>2451.1999999999998</v>
+        <v>2412.4</v>
       </c>
       <c r="Z11" s="1">
-        <v>164.8</v>
+        <v>92.2</v>
       </c>
       <c r="AA11" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>35</v>
+    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>51</v>
+      <c r="G12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__CV38-142</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" s="10"/>
+        <v>64</v>
+      </c>
+      <c r="I12" s="13"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="L12" s="1">
-        <v>-101.4</v>
+        <v>-114.1</v>
       </c>
       <c r="M12" s="1">
-        <v>2.2999999999999998</v>
+        <v>8</v>
       </c>
       <c r="N12" s="1">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="O12" s="1">
-        <v>5.8</v>
+        <v>1.7</v>
       </c>
       <c r="P12" s="1">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="Q12" s="1">
-        <v>-82.6</v>
+        <v>-90.2</v>
       </c>
       <c r="R12" s="1">
-        <v>3.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S12" s="1">
-        <v>-246.6</v>
+        <v>-211</v>
       </c>
       <c r="T12" s="1">
-        <v>57</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="U12" s="1">
-        <v>-7.9</v>
+        <v>-10.4</v>
       </c>
       <c r="V12" s="1">
-        <v>5.7</v>
+        <v>8.1</v>
       </c>
       <c r="W12" s="1">
-        <v>384.3</v>
+        <v>307</v>
       </c>
       <c r="X12" s="1">
-        <v>79.400000000000006</v>
+        <v>77.5</v>
       </c>
       <c r="Y12" s="1">
-        <v>2464.5</v>
+        <v>2506.8000000000002</v>
       </c>
       <c r="Z12" s="1">
-        <v>87.4</v>
+        <v>86.6</v>
       </c>
       <c r="AA12" s="1">
-        <v>-1.1000000000000001</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>36</v>
+      <c r="A13" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>52</v>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__C110</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="10"/>
+        <v>65</v>
+      </c>
+      <c r="I13" s="13"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1">
-        <v>-99.6</v>
+        <v>-114.8</v>
       </c>
       <c r="M13" s="1">
-        <v>4.5999999999999996</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N13" s="1">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>15.1</v>
       </c>
       <c r="P13" s="1">
-        <v>1.2</v>
+        <v>0.1</v>
       </c>
       <c r="Q13" s="1">
-        <v>-71.8</v>
+        <v>-60.9</v>
       </c>
       <c r="R13" s="1">
-        <v>12.7</v>
+        <v>4.8</v>
       </c>
       <c r="S13" s="1">
-        <v>-290.3</v>
+        <v>-355.6</v>
       </c>
       <c r="T13" s="1">
-        <v>26.3</v>
+        <v>21.7</v>
       </c>
       <c r="U13" s="1">
-        <v>8.5</v>
+        <v>-15</v>
       </c>
       <c r="V13" s="1">
-        <v>5.9</v>
+        <v>2.7</v>
       </c>
       <c r="W13" s="1">
-        <v>217.7</v>
+        <v>322</v>
       </c>
       <c r="X13" s="1">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="Y13" s="1">
-        <v>2319.5</v>
+        <v>2307.3000000000002</v>
       </c>
       <c r="Z13" s="1">
-        <v>115.4</v>
+        <v>63.1</v>
       </c>
       <c r="AA13" s="1">
-        <v>-1.6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1644,21 +1863,22 @@
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>54</v>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__LY-CoV1404</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="10"/>
+        <v>72</v>
+      </c>
+      <c r="I14" s="13"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
@@ -1666,52 +1886,52 @@
         <v>44</v>
       </c>
       <c r="L14" s="1">
-        <v>-120.2</v>
+        <v>-103</v>
       </c>
       <c r="M14" s="1">
-        <v>2.1</v>
+        <v>6.1</v>
       </c>
       <c r="N14" s="1">
-        <v>144</v>
+        <v>38</v>
       </c>
       <c r="O14" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P14" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q14" s="1">
-        <v>-90.9</v>
+        <v>-75.5</v>
       </c>
       <c r="R14" s="1">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="S14" s="1">
-        <v>-262.7</v>
+        <v>-275.5</v>
       </c>
       <c r="T14" s="1">
-        <v>9.9</v>
+        <v>24.5</v>
       </c>
       <c r="U14" s="1">
-        <v>-11.9</v>
+        <v>-9.9</v>
       </c>
       <c r="V14" s="1">
-        <v>5.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>351.1</v>
+        <v>375.3</v>
       </c>
       <c r="X14" s="1">
-        <v>66.400000000000006</v>
+        <v>34.5</v>
       </c>
       <c r="Y14" s="1">
-        <v>2616.4</v>
+        <v>2110.8000000000002</v>
       </c>
       <c r="Z14" s="1">
-        <v>72.8</v>
+        <v>36</v>
       </c>
       <c r="AA14" s="1">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -1725,21 +1945,22 @@
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>55</v>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__AZD1061</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="10"/>
+        <v>73</v>
+      </c>
+      <c r="I15" s="13"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
@@ -1747,52 +1968,52 @@
         <v>44</v>
       </c>
       <c r="L15" s="1">
-        <v>-122.2</v>
+        <v>-102.8</v>
       </c>
       <c r="M15" s="1">
-        <v>6.6</v>
+        <v>9.4</v>
       </c>
       <c r="N15" s="1">
-        <v>48</v>
+        <v>119</v>
       </c>
       <c r="O15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P15" s="1">
         <v>0.4</v>
       </c>
-      <c r="P15" s="1">
-        <v>0.2</v>
-      </c>
       <c r="Q15" s="1">
-        <v>-96.2</v>
+        <v>-80.099999999999994</v>
       </c>
       <c r="R15" s="1">
-        <v>4.3</v>
+        <v>7</v>
       </c>
       <c r="S15" s="1">
-        <v>-291.8</v>
+        <v>-323.39999999999998</v>
       </c>
       <c r="T15" s="1">
-        <v>31.3</v>
+        <v>45</v>
       </c>
       <c r="U15" s="1">
-        <v>-13.5</v>
+        <v>-6.8</v>
       </c>
       <c r="V15" s="1">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="W15" s="1">
-        <v>458.2</v>
+        <v>487.2</v>
       </c>
       <c r="X15" s="1">
-        <v>54.2</v>
+        <v>82.7</v>
       </c>
       <c r="Y15" s="1">
-        <v>2775.4</v>
+        <v>2555.6999999999998</v>
       </c>
       <c r="Z15" s="1">
-        <v>74</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA15" s="1">
-        <v>-1.9</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -1806,21 +2027,22 @@
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>56</v>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__AZD8895</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="10"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
@@ -1828,59 +2050,1376 @@
         <v>48</v>
       </c>
       <c r="L16" s="1">
-        <v>-89.3</v>
+        <v>-100.2</v>
       </c>
       <c r="M16" s="1">
-        <v>11.7</v>
+        <v>3.6</v>
       </c>
       <c r="N16" s="1">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O16" s="1">
-        <v>18</v>
+        <v>7.6</v>
       </c>
       <c r="P16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-283.39999999999998</v>
+      </c>
+      <c r="T16" s="1">
+        <v>37.6</v>
+      </c>
+      <c r="U16" s="1">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V16" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="W16" s="1">
+        <v>231.9</v>
+      </c>
+      <c r="X16" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2413.3000000000002</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__58G6</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-90.4</v>
+      </c>
+      <c r="M17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>27</v>
+      </c>
+      <c r="O17" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-62.4</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-313.3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>10</v>
+      </c>
+      <c r="V17" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W17" s="1">
+        <v>247</v>
+      </c>
+      <c r="X17" s="1">
+        <v>69</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>2199.5</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__CV38-142</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I18" s="13"/>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-96.6</v>
+      </c>
+      <c r="M18" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="N18" s="1">
+        <v>16</v>
+      </c>
+      <c r="O18" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="R18" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-324.8</v>
+      </c>
+      <c r="T18" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="U18" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="V18" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="W18" s="1">
+        <v>225.3</v>
+      </c>
+      <c r="X18" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>2233.6999999999998</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>110.5</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__C110</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="13"/>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-118.8</v>
+      </c>
+      <c r="M19" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N19" s="1">
+        <v>41</v>
+      </c>
+      <c r="O19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-62.7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-433.4</v>
+      </c>
+      <c r="T19" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="U19" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="V19" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="W19" s="1">
+        <v>215.2</v>
+      </c>
+      <c r="X19" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2086</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__LY-CoV1404</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I20" s="13"/>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-109.1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>16</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-74</v>
+      </c>
+      <c r="R20" s="1">
+        <v>3</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-291.8</v>
+      </c>
+      <c r="T20" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="U20" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="V20" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>276.89999999999998</v>
+      </c>
+      <c r="X20" s="1">
+        <v>49</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2454.9</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__AZD1061</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I21" s="13"/>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-100.2</v>
+      </c>
+      <c r="M21" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N21" s="1">
+        <v>39</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-83.5</v>
+      </c>
+      <c r="R21" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-300.60000000000002</v>
+      </c>
+      <c r="T21" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="V21" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W21" s="1">
+        <v>441.6</v>
+      </c>
+      <c r="X21" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>2495.8000000000002</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__AZD8895</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-123.8</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="N22" s="1">
+        <v>94</v>
+      </c>
+      <c r="O22" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q16" s="1">
-        <v>-68.599999999999994</v>
-      </c>
-      <c r="R16" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="S16" s="1">
-        <v>-236.9</v>
-      </c>
-      <c r="T16" s="1">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="U16" s="1">
-        <v>-5.8</v>
-      </c>
-      <c r="V16" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="W16" s="1">
-        <v>324.5</v>
-      </c>
-      <c r="X16" s="1">
-        <v>96.7</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>2213</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>117.2</v>
-      </c>
-      <c r="AA16" s="1">
+      <c r="P22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-90.7</v>
+      </c>
+      <c r="R22" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-256.3</v>
+      </c>
+      <c r="T22" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="U22" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W22" s="1">
+        <v>237</v>
+      </c>
+      <c r="X22" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>2470.8000000000002</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__58G6</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="13"/>
+      <c r="J23" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-98</v>
+      </c>
+      <c r="M23" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="N23" s="1">
+        <v>27</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-84.5</v>
+      </c>
+      <c r="R23" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-197.2</v>
+      </c>
+      <c r="T23" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-6.2</v>
+      </c>
+      <c r="V23" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W23" s="1">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="X23" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2400</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__CV38-142</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="13"/>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-106</v>
+      </c>
+      <c r="M24" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="N24" s="1">
+        <v>22</v>
+      </c>
+      <c r="O24" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="P24" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-79.3</v>
+      </c>
+      <c r="R24" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="S24" s="1">
+        <v>-225.4</v>
+      </c>
+      <c r="T24" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="U24" s="1">
+        <v>-6.3</v>
+      </c>
+      <c r="V24" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="W24" s="1">
+        <v>247.8</v>
+      </c>
+      <c r="X24" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2260.6999999999998</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="AA24" s="1">
         <v>-1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__C110</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-123.6</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="N25" s="1">
+        <v>142</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-84.3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-255.4</v>
+      </c>
+      <c r="T25" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-12.1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="W25" s="1">
+        <v>238.1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>29.1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2213.5</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-0.8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I16"/>
+    <mergeCell ref="I2:I25"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ED4777-D778-4DC9-8BB0-51DE5855A319}">
+  <dimension ref="A1:AA7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:AA7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="345" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" s="15">
+        <v>-112.2</v>
+      </c>
+      <c r="M2" s="15">
+        <v>2.8</v>
+      </c>
+      <c r="N2" s="15">
+        <v>96</v>
+      </c>
+      <c r="O2" s="15">
+        <v>13.1</v>
+      </c>
+      <c r="P2" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>-60</v>
+      </c>
+      <c r="R2" s="15">
+        <v>6.5</v>
+      </c>
+      <c r="S2" s="15">
+        <v>-396.2</v>
+      </c>
+      <c r="T2" s="15">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="U2" s="15">
+        <v>1.5</v>
+      </c>
+      <c r="V2" s="15">
+        <v>1.9</v>
+      </c>
+      <c r="W2" s="15">
+        <v>255</v>
+      </c>
+      <c r="X2" s="15">
+        <v>52.3</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>2451.1999999999998</v>
+      </c>
+      <c r="Z2" s="15">
+        <v>164.8</v>
+      </c>
+      <c r="AA2" s="15">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="405" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L3" s="15">
+        <v>-101.4</v>
+      </c>
+      <c r="M3" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N3" s="15">
+        <v>35</v>
+      </c>
+      <c r="O3" s="15">
+        <v>5.8</v>
+      </c>
+      <c r="P3" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="Q3" s="15">
+        <v>-82.6</v>
+      </c>
+      <c r="R3" s="15">
+        <v>3.8</v>
+      </c>
+      <c r="S3" s="15">
+        <v>-246.6</v>
+      </c>
+      <c r="T3" s="15">
+        <v>57</v>
+      </c>
+      <c r="U3" s="15">
+        <v>-7.9</v>
+      </c>
+      <c r="V3" s="15">
+        <v>5.7</v>
+      </c>
+      <c r="W3" s="15">
+        <v>384.3</v>
+      </c>
+      <c r="X3" s="15">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>2464.5</v>
+      </c>
+      <c r="Z3" s="15">
+        <v>87.4</v>
+      </c>
+      <c r="AA3" s="15">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="15">
+        <v>-99.6</v>
+      </c>
+      <c r="M4" s="15">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="N4" s="15">
+        <v>62</v>
+      </c>
+      <c r="O4" s="15">
+        <v>1</v>
+      </c>
+      <c r="P4" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="Q4" s="15">
+        <v>-71.8</v>
+      </c>
+      <c r="R4" s="15">
+        <v>12.7</v>
+      </c>
+      <c r="S4" s="15">
+        <v>-290.3</v>
+      </c>
+      <c r="T4" s="15">
+        <v>26.3</v>
+      </c>
+      <c r="U4" s="15">
+        <v>8.5</v>
+      </c>
+      <c r="V4" s="15">
+        <v>5.9</v>
+      </c>
+      <c r="W4" s="15">
+        <v>217.7</v>
+      </c>
+      <c r="X4" s="15">
+        <v>26</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>2319.5</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>115.4</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="345" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="15">
+        <v>-120.2</v>
+      </c>
+      <c r="M5" s="15">
+        <v>2.1</v>
+      </c>
+      <c r="N5" s="15">
+        <v>144</v>
+      </c>
+      <c r="O5" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="P5" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="Q5" s="15">
+        <v>-90.9</v>
+      </c>
+      <c r="R5" s="15">
+        <v>4</v>
+      </c>
+      <c r="S5" s="15">
+        <v>-262.7</v>
+      </c>
+      <c r="T5" s="15">
+        <v>9.9</v>
+      </c>
+      <c r="U5" s="15">
+        <v>-11.9</v>
+      </c>
+      <c r="V5" s="15">
+        <v>5.3</v>
+      </c>
+      <c r="W5" s="15">
+        <v>351.1</v>
+      </c>
+      <c r="X5" s="15">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>2616.4</v>
+      </c>
+      <c r="Z5" s="15">
+        <v>72.8</v>
+      </c>
+      <c r="AA5" s="15">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="405" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="15">
+        <v>-122.2</v>
+      </c>
+      <c r="M6" s="15">
+        <v>6.6</v>
+      </c>
+      <c r="N6" s="15">
+        <v>48</v>
+      </c>
+      <c r="O6" s="15">
+        <v>0.4</v>
+      </c>
+      <c r="P6" s="15">
+        <v>0.2</v>
+      </c>
+      <c r="Q6" s="15">
+        <v>-96.2</v>
+      </c>
+      <c r="R6" s="15">
+        <v>4.3</v>
+      </c>
+      <c r="S6" s="15">
+        <v>-291.8</v>
+      </c>
+      <c r="T6" s="15">
+        <v>31.3</v>
+      </c>
+      <c r="U6" s="15">
+        <v>-13.5</v>
+      </c>
+      <c r="V6" s="15">
+        <v>0.6</v>
+      </c>
+      <c r="W6" s="15">
+        <v>458.2</v>
+      </c>
+      <c r="X6" s="15">
+        <v>54.2</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>2775.4</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>74</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="300" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="15">
+        <v>-89.3</v>
+      </c>
+      <c r="M7" s="15">
+        <v>11.7</v>
+      </c>
+      <c r="N7" s="15">
+        <v>23</v>
+      </c>
+      <c r="O7" s="15">
+        <v>18</v>
+      </c>
+      <c r="P7" s="15">
+        <v>0.3</v>
+      </c>
+      <c r="Q7" s="15">
+        <v>-68.599999999999994</v>
+      </c>
+      <c r="R7" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="S7" s="15">
+        <v>-236.9</v>
+      </c>
+      <c r="T7" s="15">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="U7" s="15">
+        <v>-5.8</v>
+      </c>
+      <c r="V7" s="15">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W7" s="15">
+        <v>324.5</v>
+      </c>
+      <c r="X7" s="15">
+        <v>96.7</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>2213</v>
+      </c>
+      <c r="Z7" s="15">
+        <v>117.2</v>
+      </c>
+      <c r="AA7" s="15">
+        <v>-1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DFB665-DA63-4B4F-BD80-6EA4C1E475B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C91A4-905A-E749-B8EF-C70BE841FCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19260" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -401,9 +401,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -419,14 +416,11 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -748,42 +742,42 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K26" sqref="K26"/>
+      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -866,7 +860,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -876,81 +870,81 @@
       <c r="C2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="21" t="s">
+      <c r="E2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="21" t="str">
+      <c r="G2" s="1" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(D2,".","_"),"__",A2)</f>
         <v>B_1_1_529__LY-CoV1404</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="J2" s="21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="21">
+      <c r="L2" s="1">
         <v>-124</v>
       </c>
-      <c r="M2" s="21">
+      <c r="M2" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N2" s="21">
+      <c r="N2" s="1">
         <v>60</v>
       </c>
-      <c r="O2" s="21">
+      <c r="O2" s="1">
         <v>2</v>
       </c>
-      <c r="P2" s="21">
-        <v>1</v>
-      </c>
-      <c r="Q2" s="21">
+      <c r="P2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1">
         <v>-78.599999999999994</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R2" s="1">
         <v>10.8</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S2" s="1">
         <v>-262.10000000000002</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="1">
         <v>24.3</v>
       </c>
-      <c r="U2" s="21">
+      <c r="U2" s="1">
         <v>-30.5</v>
       </c>
-      <c r="V2" s="21">
+      <c r="V2" s="1">
         <v>7.1</v>
       </c>
-      <c r="W2" s="21">
+      <c r="W2" s="1">
         <v>376.1</v>
       </c>
-      <c r="X2" s="21">
+      <c r="X2" s="1">
         <v>104.3</v>
       </c>
-      <c r="Y2" s="21">
+      <c r="Y2" s="1">
         <v>2457.1999999999998</v>
       </c>
-      <c r="Z2" s="21">
+      <c r="Z2" s="1">
         <v>111.6</v>
       </c>
-      <c r="AA2" s="21">
+      <c r="AA2" s="1">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -960,24 +954,24 @@
       <c r="C3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="21" t="str">
+      <c r="G3" s="1" t="str">
         <f t="shared" ref="G3:G7" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
         <v>B_1_1_529__AZD1061</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="21" t="b">
+      <c r="I3" s="19"/>
+      <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K3" s="1" t="s">
@@ -1032,7 +1026,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1042,24 +1036,24 @@
       <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="21" t="str">
+      <c r="G4" s="1" t="str">
         <f t="shared" si="0"/>
         <v>B_1_1_529__AZD8895</v>
       </c>
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="21" t="b">
+      <c r="I4" s="19"/>
+      <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K4" s="1" t="s">
@@ -1114,7 +1108,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1124,24 +1118,24 @@
       <c r="C5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="20" t="s">
+      <c r="F5" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G5" s="21" t="str">
+      <c r="G5" s="1" t="str">
         <f t="shared" si="0"/>
         <v>B_1_1_529__58G6</v>
       </c>
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="21" t="b">
+      <c r="I5" s="19"/>
+      <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -1196,7 +1190,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1206,24 +1200,24 @@
       <c r="C6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G6" s="21" t="str">
+      <c r="G6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>B_1_1_529__CV38-142</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="21" t="b">
+      <c r="I6" s="19"/>
+      <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K6" s="1" t="s">
@@ -1278,7 +1272,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1288,24 +1282,24 @@
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="F7" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="21" t="str">
+      <c r="G7" s="1" t="str">
         <f t="shared" si="0"/>
         <v>B_1_1_529__C110</v>
       </c>
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="21" t="b">
+      <c r="I7" s="19"/>
+      <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -1360,7 +1354,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>34</v>
       </c>
@@ -1386,7 +1380,7 @@
       <c r="H8" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="13"/>
+      <c r="I8" s="19"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
@@ -1442,7 +1436,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>35</v>
       </c>
@@ -1468,7 +1462,7 @@
       <c r="H9" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="19"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1524,7 +1518,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>36</v>
       </c>
@@ -1550,7 +1544,7 @@
       <c r="H10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I10" s="13"/>
+      <c r="I10" s="19"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
@@ -1606,7 +1600,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
         <v>57</v>
       </c>
@@ -1632,7 +1626,7 @@
       <c r="H11" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="13"/>
+      <c r="I11" s="19"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
@@ -1688,7 +1682,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1714,7 +1708,7 @@
       <c r="H12" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="13"/>
+      <c r="I12" s="19"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
@@ -1770,7 +1764,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>59</v>
       </c>
@@ -1796,7 +1790,7 @@
       <c r="H13" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I13" s="13"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
@@ -1852,7 +1846,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -1878,7 +1872,7 @@
       <c r="H14" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
@@ -1934,7 +1928,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>35</v>
       </c>
@@ -1960,7 +1954,7 @@
       <c r="H15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I15" s="13"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
@@ -2016,7 +2010,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>36</v>
       </c>
@@ -2042,7 +2036,7 @@
       <c r="H16" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I16" s="13"/>
+      <c r="I16" s="19"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
@@ -2098,7 +2092,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
@@ -2124,7 +2118,7 @@
       <c r="H17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I17" s="13"/>
+      <c r="I17" s="19"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
@@ -2180,7 +2174,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>58</v>
       </c>
@@ -2206,7 +2200,7 @@
       <c r="H18" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I18" s="13"/>
+      <c r="I18" s="19"/>
       <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
@@ -2262,7 +2256,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
         <v>59</v>
       </c>
@@ -2288,7 +2282,7 @@
       <c r="H19" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="19"/>
       <c r="J19" s="1" t="b">
         <v>1</v>
       </c>
@@ -2344,7 +2338,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
         <v>34</v>
       </c>
@@ -2370,7 +2364,7 @@
       <c r="H20" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I20" s="13"/>
+      <c r="I20" s="19"/>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
@@ -2426,7 +2420,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>35</v>
       </c>
@@ -2452,7 +2446,7 @@
       <c r="H21" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I21" s="13"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="1" t="b">
         <v>1</v>
       </c>
@@ -2508,7 +2502,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>36</v>
       </c>
@@ -2534,7 +2528,7 @@
       <c r="H22" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
@@ -2590,7 +2584,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="10" t="s">
         <v>57</v>
       </c>
@@ -2616,7 +2610,7 @@
       <c r="H23" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I23" s="13"/>
+      <c r="I23" s="19"/>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
@@ -2672,7 +2666,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
         <v>58</v>
       </c>
@@ -2698,7 +2692,7 @@
       <c r="H24" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="13"/>
+      <c r="I24" s="19"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
@@ -2754,7 +2748,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
         <v>59</v>
       </c>
@@ -2780,7 +2774,7 @@
       <c r="H25" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I25" s="13"/>
+      <c r="I25" s="19"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
@@ -2854,9 +2848,9 @@
       <selection activeCell="J2" sqref="J2:AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2939,483 +2933,483 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="345" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    <row r="2" spans="1:27" ht="395" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>-112.2</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>2.8</v>
       </c>
-      <c r="N2" s="15">
+      <c r="N2" s="14">
         <v>96</v>
       </c>
-      <c r="O2" s="15">
+      <c r="O2" s="14">
         <v>13.1</v>
       </c>
-      <c r="P2" s="15">
+      <c r="P2" s="14">
         <v>0.1</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="Q2" s="14">
         <v>-60</v>
       </c>
-      <c r="R2" s="15">
+      <c r="R2" s="14">
         <v>6.5</v>
       </c>
-      <c r="S2" s="15">
+      <c r="S2" s="14">
         <v>-396.2</v>
       </c>
-      <c r="T2" s="15">
+      <c r="T2" s="14">
         <v>17.899999999999999</v>
       </c>
-      <c r="U2" s="15">
+      <c r="U2" s="14">
         <v>1.5</v>
       </c>
-      <c r="V2" s="15">
+      <c r="V2" s="14">
         <v>1.9</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="14">
         <v>255</v>
       </c>
-      <c r="X2" s="15">
+      <c r="X2" s="14">
         <v>52.3</v>
       </c>
-      <c r="Y2" s="15">
+      <c r="Y2" s="14">
         <v>2451.1999999999998</v>
       </c>
-      <c r="Z2" s="15">
+      <c r="Z2" s="14">
         <v>164.8</v>
       </c>
-      <c r="AA2" s="15">
+      <c r="AA2" s="14">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="405" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J3" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>-101.4</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N3" s="14">
         <v>35</v>
       </c>
-      <c r="O3" s="15">
+      <c r="O3" s="14">
         <v>5.8</v>
       </c>
-      <c r="P3" s="15">
+      <c r="P3" s="14">
         <v>1.2</v>
       </c>
-      <c r="Q3" s="15">
+      <c r="Q3" s="14">
         <v>-82.6</v>
       </c>
-      <c r="R3" s="15">
+      <c r="R3" s="14">
         <v>3.8</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="14">
         <v>-246.6</v>
       </c>
-      <c r="T3" s="15">
+      <c r="T3" s="14">
         <v>57</v>
       </c>
-      <c r="U3" s="15">
+      <c r="U3" s="14">
         <v>-7.9</v>
       </c>
-      <c r="V3" s="15">
+      <c r="V3" s="14">
         <v>5.7</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="14">
         <v>384.3</v>
       </c>
-      <c r="X3" s="15">
+      <c r="X3" s="14">
         <v>79.400000000000006</v>
       </c>
-      <c r="Y3" s="15">
+      <c r="Y3" s="14">
         <v>2464.5</v>
       </c>
-      <c r="Z3" s="15">
+      <c r="Z3" s="14">
         <v>87.4</v>
       </c>
-      <c r="AA3" s="15">
+      <c r="AA3" s="14">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="300" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+    <row r="4" spans="1:27" ht="350" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="16" t="s">
+      <c r="H4" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>-99.6</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>4.5999999999999996</v>
       </c>
-      <c r="N4" s="15">
+      <c r="N4" s="14">
         <v>62</v>
       </c>
-      <c r="O4" s="15">
-        <v>1</v>
-      </c>
-      <c r="P4" s="15">
+      <c r="O4" s="14">
+        <v>1</v>
+      </c>
+      <c r="P4" s="14">
         <v>1.2</v>
       </c>
-      <c r="Q4" s="15">
+      <c r="Q4" s="14">
         <v>-71.8</v>
       </c>
-      <c r="R4" s="15">
+      <c r="R4" s="14">
         <v>12.7</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="14">
         <v>-290.3</v>
       </c>
-      <c r="T4" s="15">
+      <c r="T4" s="14">
         <v>26.3</v>
       </c>
-      <c r="U4" s="15">
+      <c r="U4" s="14">
         <v>8.5</v>
       </c>
-      <c r="V4" s="15">
+      <c r="V4" s="14">
         <v>5.9</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="14">
         <v>217.7</v>
       </c>
-      <c r="X4" s="15">
+      <c r="X4" s="14">
         <v>26</v>
       </c>
-      <c r="Y4" s="15">
+      <c r="Y4" s="14">
         <v>2319.5</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="14">
         <v>115.4</v>
       </c>
-      <c r="AA4" s="15">
+      <c r="AA4" s="14">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="345" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:27" ht="395" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="H5" s="16" t="s">
+      <c r="H5" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>-120.2</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>2.1</v>
       </c>
-      <c r="N5" s="15">
+      <c r="N5" s="14">
         <v>144</v>
       </c>
-      <c r="O5" s="15">
+      <c r="O5" s="14">
         <v>0.6</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="14">
         <v>0.4</v>
       </c>
-      <c r="Q5" s="15">
+      <c r="Q5" s="14">
         <v>-90.9</v>
       </c>
-      <c r="R5" s="15">
+      <c r="R5" s="14">
         <v>4</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="14">
         <v>-262.7</v>
       </c>
-      <c r="T5" s="15">
+      <c r="T5" s="14">
         <v>9.9</v>
       </c>
-      <c r="U5" s="15">
+      <c r="U5" s="14">
         <v>-11.9</v>
       </c>
-      <c r="V5" s="15">
+      <c r="V5" s="14">
         <v>5.3</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="14">
         <v>351.1</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="14">
         <v>66.400000000000006</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="14">
         <v>2616.4</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="14">
         <v>72.8</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AA5" s="14">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="405" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="J6" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>-122.2</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>6.6</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="14">
         <v>48</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O6" s="14">
         <v>0.4</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P6" s="14">
         <v>0.2</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q6" s="14">
         <v>-96.2</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R6" s="14">
         <v>4.3</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S6" s="14">
         <v>-291.8</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T6" s="14">
         <v>31.3</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U6" s="14">
         <v>-13.5</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V6" s="14">
         <v>0.6</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="14">
         <v>458.2</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="14">
         <v>54.2</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="14">
         <v>2775.4</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="14">
         <v>74</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA6" s="14">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="300" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:27" ht="350" x14ac:dyDescent="0.2">
+      <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>-89.3</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>11.7</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="14">
         <v>23</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O7" s="14">
         <v>18</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P7" s="14">
         <v>0.3</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q7" s="14">
         <v>-68.599999999999994</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R7" s="14">
         <v>1.2</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="14">
         <v>-236.9</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T7" s="14">
         <v>18.600000000000001</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U7" s="14">
         <v>-5.8</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V7" s="14">
         <v>4.0999999999999996</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="14">
         <v>324.5</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <v>96.7</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="14">
         <v>2213</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="14">
         <v>117.2</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA7" s="14">
         <v>-1.5</v>
       </c>
     </row>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE6C91A4-905A-E749-B8EF-C70BE841FCCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFC68F-7C60-474E-9057-AC339AFF96F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="19260" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="88">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -265,6 +265,42 @@
   </si>
   <si>
     <t>Cluster 4</t>
+  </si>
+  <si>
+    <t>Omi-9</t>
+  </si>
+  <si>
+    <t>P5C3</t>
+  </si>
+  <si>
+    <t>EY6A</t>
+  </si>
+  <si>
+    <t>COVOX-150</t>
+  </si>
+  <si>
+    <t>7zf8_chainsHL_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,74,75,76,77,77,98,99,100,101,102,103,1024,1025,1026,1027,1028,1029,1030,1031,1032,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1067,1068</t>
+  </si>
+  <si>
+    <t>7zf4_chainsHL_renumberedLplus1000.pdb</t>
+  </si>
+  <si>
+    <t>7qtj_chainsEF_renumberedFplus1000.pdb</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,33,50,51,52,53,54,55,56,57,58,59,60,61,62,69,70,91,92,93,94,95,96,97,1026,1027,1028,1029,1030,1031,1032,1053,1054,1055,1056,1057,1074,1075,1076,1077,1099,1100,1101,1102,1103,1104,1105,1106,1107,1108,1109,1110,1111</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,52,53,54,55,56,73,74,75,76,99,100,101,102,103,1026,1027,1028,1029,1030,1031,1032,1033,1050,1051,1052,1066,1067,1068,1069,1090,1091,1092,1093,1094,1095,1096,1097,1098,1099,1100,1101,1102,1103</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,32,52,53,54,55,56,73,74,75,76,99,100,101,102,103,104,105,106,107,1026,1027,1028,1029,1030,1031,1032,1033,1051,1052,1053,1069,1070,1092,1093,1094,1095,1096,1097,1098</t>
+  </si>
+  <si>
+    <t>7zf3_chainsAB_renumberedBplus1000.pdb</t>
   </si>
 </sst>
 </file>
@@ -309,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,6 +388,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF73FEFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD5FC79"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFD78"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8AD8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -365,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -422,12 +482,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8AD8"/>
+      <color rgb="FFD883FF"/>
+      <color rgb="FFFFFD78"/>
+      <color rgb="FFD5FC79"/>
+      <color rgb="FF73FEFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -736,13 +817,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA25"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K2" sqref="K2"/>
+      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -964,7 +1045,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G7" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
+        <f t="shared" ref="G3:G11" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
         <v>B_1_1_529__AZD1061</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1354,340 +1435,124 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B_1_1_529__Omi-9</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B_1_1_529__P5C3</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I9" s="19"/>
+    </row>
+    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B_1_1_529__EY6A</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="19"/>
+    </row>
+    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>B_1_1_529__COVOX-150</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="19"/>
+    </row>
+    <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(D8,".","_"),"__",A8)</f>
-        <v>BJ_1__LY-CoV1404</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1">
-        <v>-115.4</v>
-      </c>
-      <c r="M8" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N8" s="1">
-        <v>11</v>
-      </c>
-      <c r="O8" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P8" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>-94.7</v>
-      </c>
-      <c r="R8" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="S8" s="1">
-        <v>-167.3</v>
-      </c>
-      <c r="T8" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="U8" s="1">
-        <v>-33</v>
-      </c>
-      <c r="V8" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="W8" s="1">
-        <v>457.8</v>
-      </c>
-      <c r="X8" s="1">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>2612</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(D9,".","_"),"__",A9)</f>
-        <v>BJ_1__AZD1061</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" s="1">
-        <v>-86.3</v>
-      </c>
-      <c r="M9" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="N9" s="1">
-        <v>29</v>
-      </c>
-      <c r="O9" s="1">
-        <v>17.7</v>
-      </c>
-      <c r="P9" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>-66.599999999999994</v>
-      </c>
-      <c r="R9" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="S9" s="1">
-        <v>-321.5</v>
-      </c>
-      <c r="T9" s="1">
-        <v>31.4</v>
-      </c>
-      <c r="U9" s="1">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="V9" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="W9" s="1">
-        <v>538.29999999999995</v>
-      </c>
-      <c r="X9" s="1">
-        <v>55.5</v>
-      </c>
-      <c r="Y9" s="1">
-        <v>2445.9</v>
-      </c>
-      <c r="Z9" s="1">
-        <v>77.7</v>
-      </c>
-      <c r="AA9" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <f t="shared" ref="G10:G25" si="1">_xlfn.CONCAT(SUBSTITUTE(D10,".","_"),"__",A10)</f>
-        <v>BJ_1__AZD8895</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L10" s="1">
-        <v>-111.8</v>
-      </c>
-      <c r="M10" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="N10" s="1">
-        <v>9</v>
-      </c>
-      <c r="O10" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P10" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>-80.900000000000006</v>
-      </c>
-      <c r="R10" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S10" s="1">
-        <v>-259.5</v>
-      </c>
-      <c r="T10" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="U10" s="1">
-        <v>-8.5</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W10" s="1">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="X10" s="1">
-        <v>46</v>
-      </c>
-      <c r="Y10" s="1">
-        <v>2536.5</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>195.9</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BJ_1__58G6</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="1">
-        <v>-121.8</v>
-      </c>
-      <c r="M11" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="N11" s="1">
-        <v>16</v>
-      </c>
-      <c r="O11" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-91.1</v>
-      </c>
-      <c r="R11" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="S11" s="1">
-        <v>-213.7</v>
-      </c>
-      <c r="T11" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="U11" s="1">
-        <v>-18.5</v>
-      </c>
-      <c r="V11" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W11" s="1">
-        <v>305.7</v>
-      </c>
-      <c r="X11" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>2412.4</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
@@ -1702,74 +1567,74 @@
         <v>33</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BJ_1__CV38-142</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D12,".","_"),"__",A12)</f>
+        <v>BJ_1__LY-CoV1404</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="L12" s="1">
-        <v>-114.1</v>
+        <v>-115.4</v>
       </c>
       <c r="M12" s="1">
-        <v>8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N12" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O12" s="1">
-        <v>1.7</v>
+        <v>0.5</v>
       </c>
       <c r="P12" s="1">
-        <v>1</v>
+        <v>0.3</v>
       </c>
       <c r="Q12" s="1">
-        <v>-90.2</v>
+        <v>-94.7</v>
       </c>
       <c r="R12" s="1">
-        <v>8.6999999999999993</v>
+        <v>3.6</v>
       </c>
       <c r="S12" s="1">
-        <v>-211</v>
+        <v>-167.3</v>
       </c>
       <c r="T12" s="1">
-        <v>35.299999999999997</v>
+        <v>14.6</v>
       </c>
       <c r="U12" s="1">
-        <v>-10.4</v>
+        <v>-33</v>
       </c>
       <c r="V12" s="1">
-        <v>8.1</v>
+        <v>2.4</v>
       </c>
       <c r="W12" s="1">
-        <v>307</v>
+        <v>457.8</v>
       </c>
       <c r="X12" s="1">
-        <v>77.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Y12" s="1">
-        <v>2506.8000000000002</v>
+        <v>2612</v>
       </c>
       <c r="Z12" s="1">
-        <v>86.6</v>
+        <v>51.2</v>
       </c>
       <c r="AA12" s="1">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>59</v>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1784,749 +1649,533 @@
         <v>33</v>
       </c>
       <c r="G13" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BJ_1__C110</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D13,".","_"),"__",A13)</f>
+        <v>BJ_1__AZD1061</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L13" s="1">
-        <v>-114.8</v>
+        <v>-86.3</v>
       </c>
       <c r="M13" s="1">
-        <v>8.8000000000000007</v>
+        <v>1.4</v>
       </c>
       <c r="N13" s="1">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="O13" s="1">
-        <v>15.1</v>
+        <v>17.7</v>
       </c>
       <c r="P13" s="1">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="Q13" s="1">
-        <v>-60.9</v>
+        <v>-66.599999999999994</v>
       </c>
       <c r="R13" s="1">
-        <v>4.8</v>
+        <v>5.5</v>
       </c>
       <c r="S13" s="1">
-        <v>-355.6</v>
+        <v>-321.5</v>
       </c>
       <c r="T13" s="1">
-        <v>21.7</v>
+        <v>31.4</v>
       </c>
       <c r="U13" s="1">
-        <v>-15</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="V13" s="1">
-        <v>2.7</v>
+        <v>5.9</v>
       </c>
       <c r="W13" s="1">
-        <v>322</v>
+        <v>538.29999999999995</v>
       </c>
       <c r="X13" s="1">
-        <v>89</v>
+        <v>55.5</v>
       </c>
       <c r="Y13" s="1">
-        <v>2307.3000000000002</v>
+        <v>2445.9</v>
       </c>
       <c r="Z13" s="1">
-        <v>63.1</v>
+        <v>77.7</v>
       </c>
       <c r="AA13" s="1">
-        <v>-1</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>34</v>
+      <c r="A14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>BM_1_1_1__LY-CoV1404</v>
+        <f t="shared" ref="G14:G41" si="1">_xlfn.CONCAT(SUBSTITUTE(D14,".","_"),"__",A14)</f>
+        <v>BJ_1__AZD8895</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L14" s="1">
-        <v>-103</v>
+        <v>-111.8</v>
       </c>
       <c r="M14" s="1">
-        <v>6.1</v>
+        <v>9.4</v>
       </c>
       <c r="N14" s="1">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="O14" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="1">
         <v>0.4</v>
       </c>
-      <c r="P14" s="1">
-        <v>0.2</v>
-      </c>
       <c r="Q14" s="1">
-        <v>-75.5</v>
+        <v>-80.900000000000006</v>
       </c>
       <c r="R14" s="1">
-        <v>3.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-275.5</v>
+        <v>-259.5</v>
       </c>
       <c r="T14" s="1">
-        <v>24.5</v>
+        <v>15.6</v>
       </c>
       <c r="U14" s="1">
-        <v>-9.9</v>
+        <v>-8.5</v>
       </c>
       <c r="V14" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.4</v>
       </c>
       <c r="W14" s="1">
-        <v>375.3</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>34.5</v>
+        <v>46</v>
       </c>
       <c r="Y14" s="1">
-        <v>2110.8000000000002</v>
+        <v>2536.5</v>
       </c>
       <c r="Z14" s="1">
-        <v>36</v>
+        <v>195.9</v>
       </c>
       <c r="AA14" s="1">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__AZD1061</v>
+        <v>BJ_1__58G6</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="L15" s="1">
-        <v>-102.8</v>
+        <v>-121.8</v>
       </c>
       <c r="M15" s="1">
-        <v>9.4</v>
+        <v>7.6</v>
       </c>
       <c r="N15" s="1">
-        <v>119</v>
+        <v>16</v>
       </c>
       <c r="O15" s="1">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="P15" s="1">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="Q15" s="1">
-        <v>-80.099999999999994</v>
+        <v>-91.1</v>
       </c>
       <c r="R15" s="1">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="S15" s="1">
-        <v>-323.39999999999998</v>
+        <v>-213.7</v>
       </c>
       <c r="T15" s="1">
-        <v>45</v>
+        <v>10.1</v>
       </c>
       <c r="U15" s="1">
-        <v>-6.8</v>
+        <v>-18.5</v>
       </c>
       <c r="V15" s="1">
-        <v>1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>487.2</v>
+        <v>305.7</v>
       </c>
       <c r="X15" s="1">
-        <v>82.7</v>
+        <v>24.3</v>
       </c>
       <c r="Y15" s="1">
-        <v>2555.6999999999998</v>
+        <v>2412.4</v>
       </c>
       <c r="Z15" s="1">
-        <v>39.200000000000003</v>
+        <v>92.2</v>
       </c>
       <c r="AA15" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__AZD8895</v>
+        <v>BJ_1__CV38-142</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="L16" s="1">
-        <v>-100.2</v>
+        <v>-114.1</v>
       </c>
       <c r="M16" s="1">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="N16" s="1">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="O16" s="1">
-        <v>7.6</v>
+        <v>1.7</v>
       </c>
       <c r="P16" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Q16" s="1">
-        <v>-76.400000000000006</v>
+        <v>-90.2</v>
       </c>
       <c r="R16" s="1">
-        <v>1.8</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="S16" s="1">
-        <v>-283.39999999999998</v>
+        <v>-211</v>
       </c>
       <c r="T16" s="1">
-        <v>37.6</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="U16" s="1">
-        <v>9.6999999999999993</v>
+        <v>-10.4</v>
       </c>
       <c r="V16" s="1">
-        <v>5.2</v>
+        <v>8.1</v>
       </c>
       <c r="W16" s="1">
-        <v>231.9</v>
+        <v>307</v>
       </c>
       <c r="X16" s="1">
-        <v>31.5</v>
+        <v>77.5</v>
       </c>
       <c r="Y16" s="1">
-        <v>2413.3000000000002</v>
+        <v>2506.8000000000002</v>
       </c>
       <c r="Z16" s="1">
-        <v>56</v>
+        <v>86.6</v>
       </c>
       <c r="AA16" s="1">
-        <v>-1.9</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
-        <v>57</v>
+      <c r="A17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__58G6</v>
+        <v>BJ_1__C110</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L17" s="1">
-        <v>-90.4</v>
+        <v>-114.8</v>
       </c>
       <c r="M17" s="1">
-        <v>0.5</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="N17" s="1">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="O17" s="1">
-        <v>12.7</v>
+        <v>15.1</v>
       </c>
       <c r="P17" s="1">
         <v>0.1</v>
       </c>
       <c r="Q17" s="1">
-        <v>-62.4</v>
+        <v>-60.9</v>
       </c>
       <c r="R17" s="1">
-        <v>4.0999999999999996</v>
+        <v>4.8</v>
       </c>
       <c r="S17" s="1">
-        <v>-313.3</v>
+        <v>-355.6</v>
       </c>
       <c r="T17" s="1">
-        <v>18.3</v>
+        <v>21.7</v>
       </c>
       <c r="U17" s="1">
-        <v>10</v>
+        <v>-15</v>
       </c>
       <c r="V17" s="1">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="W17" s="1">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="X17" s="1">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="Y17" s="1">
-        <v>2199.5</v>
+        <v>2307.3000000000002</v>
       </c>
       <c r="Z17" s="1">
-        <v>28.8</v>
+        <v>63.1</v>
       </c>
       <c r="AA17" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>58</v>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__CV38-142</v>
+        <v>BJ_1__Omi-9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-96.6</v>
-      </c>
-      <c r="M18" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="N18" s="1">
-        <v>16</v>
-      </c>
-      <c r="O18" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>-68.400000000000006</v>
-      </c>
-      <c r="R18" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="S18" s="1">
-        <v>-324.8</v>
-      </c>
-      <c r="T18" s="1">
-        <v>57.7</v>
-      </c>
-      <c r="U18" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="V18" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="W18" s="1">
-        <v>225.3</v>
-      </c>
-      <c r="X18" s="1">
-        <v>41.7</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>2233.6999999999998</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>110.5</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>59</v>
+    </row>
+    <row r="19" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="21" t="s">
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>83</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__C110</v>
+        <v>BJ_1__P5C3</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="I19" s="19"/>
-      <c r="J19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-118.8</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="N19" s="1">
-        <v>41</v>
-      </c>
-      <c r="O19" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>-62.7</v>
-      </c>
-      <c r="R19" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-433.4</v>
-      </c>
-      <c r="T19" s="1">
-        <v>24.8</v>
-      </c>
-      <c r="U19" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="V19" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="W19" s="1">
-        <v>215.2</v>
-      </c>
-      <c r="X19" s="1">
-        <v>62.6</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>2086</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>-1.7</v>
-      </c>
     </row>
     <row r="20" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>34</v>
+      <c r="A20" s="22" t="s">
+        <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__LY-CoV1404</v>
+        <v>BJ_1__EY6A</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="I20" s="19"/>
-      <c r="J20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-109.1</v>
-      </c>
-      <c r="M20" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="N20" s="1">
-        <v>16</v>
-      </c>
-      <c r="O20" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>-74</v>
-      </c>
-      <c r="R20" s="1">
-        <v>3</v>
-      </c>
-      <c r="S20" s="1">
-        <v>-291.8</v>
-      </c>
-      <c r="T20" s="1">
-        <v>17.3</v>
-      </c>
-      <c r="U20" s="1">
-        <v>-4.5</v>
-      </c>
-      <c r="V20" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="W20" s="1">
-        <v>276.89999999999998</v>
-      </c>
-      <c r="X20" s="1">
-        <v>49</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>2454.9</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>65.099999999999994</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>-1.4</v>
-      </c>
     </row>
     <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
-        <v>35</v>
+      <c r="A21" s="23" t="s">
+        <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__AZD1061</v>
+        <v>BJ_1__COVOX-150</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-100.2</v>
-      </c>
-      <c r="M21" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="N21" s="1">
-        <v>39</v>
-      </c>
-      <c r="O21" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>-83.5</v>
-      </c>
-      <c r="R21" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="S21" s="1">
-        <v>-300.60000000000002</v>
-      </c>
-      <c r="T21" s="1">
-        <v>36.4</v>
-      </c>
-      <c r="U21" s="1">
-        <v>-0.7</v>
-      </c>
-      <c r="V21" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="W21" s="1">
-        <v>441.6</v>
-      </c>
-      <c r="X21" s="1">
-        <v>43.2</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>2495.8000000000002</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>61</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>-1.8</v>
-      </c>
     </row>
     <row r="22" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
-        <v>36</v>
+      <c r="A22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__AZD8895</v>
+        <v>BM_1_1_1__LY-CoV1404</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="1" t="b">
@@ -2536,79 +2185,79 @@
         <v>44</v>
       </c>
       <c r="L22" s="1">
-        <v>-123.8</v>
+        <v>-103</v>
       </c>
       <c r="M22" s="1">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="N22" s="1">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="O22" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="P22" s="1">
         <v>0.2</v>
       </c>
       <c r="Q22" s="1">
-        <v>-90.7</v>
+        <v>-75.5</v>
       </c>
       <c r="R22" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.7</v>
       </c>
       <c r="S22" s="1">
-        <v>-256.3</v>
+        <v>-275.5</v>
       </c>
       <c r="T22" s="1">
-        <v>22.6</v>
+        <v>24.5</v>
       </c>
       <c r="U22" s="1">
-        <v>-5.5</v>
+        <v>-9.9</v>
       </c>
       <c r="V22" s="1">
-        <v>2.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="W22" s="1">
-        <v>237</v>
+        <v>375.3</v>
       </c>
       <c r="X22" s="1">
-        <v>89.8</v>
+        <v>34.5</v>
       </c>
       <c r="Y22" s="1">
-        <v>2470.8000000000002</v>
+        <v>2110.8000000000002</v>
       </c>
       <c r="Z22" s="1">
-        <v>53.5</v>
+        <v>36</v>
       </c>
       <c r="AA22" s="1">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>57</v>
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__58G6</v>
+        <v>BM_1_1_1__AZD1061</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="1" t="b">
@@ -2618,221 +2267,1097 @@
         <v>44</v>
       </c>
       <c r="L23" s="1">
-        <v>-98</v>
+        <v>-102.8</v>
       </c>
       <c r="M23" s="1">
-        <v>2.7</v>
+        <v>9.4</v>
       </c>
       <c r="N23" s="1">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="O23" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="R23" s="1">
+        <v>7</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-323.39999999999998</v>
+      </c>
+      <c r="T23" s="1">
+        <v>45</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-6.8</v>
+      </c>
+      <c r="V23" s="1">
         <v>1</v>
       </c>
-      <c r="P23" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>-84.5</v>
-      </c>
-      <c r="R23" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="S23" s="1">
-        <v>-197.2</v>
-      </c>
-      <c r="T23" s="1">
-        <v>12.3</v>
-      </c>
-      <c r="U23" s="1">
-        <v>-6.2</v>
-      </c>
-      <c r="V23" s="1">
-        <v>2.6</v>
-      </c>
       <c r="W23" s="1">
-        <v>321.39999999999998</v>
+        <v>487.2</v>
       </c>
       <c r="X23" s="1">
-        <v>24.6</v>
+        <v>82.7</v>
       </c>
       <c r="Y23" s="1">
-        <v>2400</v>
+        <v>2555.6999999999998</v>
       </c>
       <c r="Z23" s="1">
-        <v>67.7</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>58</v>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__CV38-142</v>
+        <v>BM_1_1_1__AZD8895</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L24" s="1">
-        <v>-106</v>
+        <v>-100.2</v>
       </c>
       <c r="M24" s="1">
-        <v>4.3</v>
+        <v>3.6</v>
       </c>
       <c r="N24" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O24" s="1">
-        <v>1.7</v>
+        <v>7.6</v>
       </c>
       <c r="P24" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="Q24" s="1">
-        <v>-79.3</v>
+        <v>-76.400000000000006</v>
       </c>
       <c r="R24" s="1">
-        <v>5.3</v>
+        <v>1.8</v>
       </c>
       <c r="S24" s="1">
-        <v>-225.4</v>
+        <v>-283.39999999999998</v>
       </c>
       <c r="T24" s="1">
-        <v>47.3</v>
+        <v>37.6</v>
       </c>
       <c r="U24" s="1">
-        <v>-6.3</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="V24" s="1">
-        <v>3.3</v>
+        <v>5.2</v>
       </c>
       <c r="W24" s="1">
-        <v>247.8</v>
+        <v>231.9</v>
       </c>
       <c r="X24" s="1">
-        <v>32.200000000000003</v>
+        <v>31.5</v>
       </c>
       <c r="Y24" s="1">
-        <v>2260.6999999999998</v>
+        <v>2413.3000000000002</v>
       </c>
       <c r="Z24" s="1">
-        <v>48.5</v>
+        <v>56</v>
       </c>
       <c r="AA24" s="1">
-        <v>-1.5</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>59</v>
+      <c r="A25" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__C110</v>
+        <v>BM_1_1_1__58G6</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-90.4</v>
+      </c>
+      <c r="M25" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>27</v>
+      </c>
+      <c r="O25" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-62.4</v>
+      </c>
+      <c r="R25" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-313.3</v>
+      </c>
+      <c r="T25" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="U25" s="1">
+        <v>10</v>
+      </c>
+      <c r="V25" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="W25" s="1">
+        <v>247</v>
+      </c>
+      <c r="X25" s="1">
+        <v>69</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2199.5</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>28.8</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A26" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__CV38-142</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" s="19"/>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-96.6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="N26" s="1">
+        <v>16</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P26" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="R26" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-324.8</v>
+      </c>
+      <c r="T26" s="1">
+        <v>57.7</v>
+      </c>
+      <c r="U26" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="V26" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="W26" s="1">
+        <v>225.3</v>
+      </c>
+      <c r="X26" s="1">
+        <v>41.7</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>2233.6999999999998</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>110.5</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__C110</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I27" s="19"/>
+      <c r="J27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-118.8</v>
+      </c>
+      <c r="M27" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="N27" s="1">
+        <v>41</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-62.7</v>
+      </c>
+      <c r="R27" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-433.4</v>
+      </c>
+      <c r="T27" s="1">
+        <v>24.8</v>
+      </c>
+      <c r="U27" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="V27" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="W27" s="1">
+        <v>215.2</v>
+      </c>
+      <c r="X27" s="1">
+        <v>62.6</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>2086</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>31.6</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__Omi-9</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28" s="19"/>
+    </row>
+    <row r="29" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__P5C3</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="19"/>
+    </row>
+    <row r="30" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__EY6A</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30" s="19"/>
+    </row>
+    <row r="31" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__COVOX-150</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__LY-CoV1404</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="I32" s="19"/>
+      <c r="J32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-109.1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N32" s="1">
+        <v>16</v>
+      </c>
+      <c r="O32" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>-74</v>
+      </c>
+      <c r="R32" s="1">
+        <v>3</v>
+      </c>
+      <c r="S32" s="1">
+        <v>-291.8</v>
+      </c>
+      <c r="T32" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="U32" s="1">
+        <v>-4.5</v>
+      </c>
+      <c r="V32" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W32" s="1">
+        <v>276.89999999999998</v>
+      </c>
+      <c r="X32" s="1">
+        <v>49</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>2454.9</v>
+      </c>
+      <c r="Z32" s="1">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__AZD1061</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I33" s="19"/>
+      <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-100.2</v>
+      </c>
+      <c r="M33" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="N33" s="1">
+        <v>39</v>
+      </c>
+      <c r="O33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>-83.5</v>
+      </c>
+      <c r="R33" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="S33" s="1">
+        <v>-300.60000000000002</v>
+      </c>
+      <c r="T33" s="1">
+        <v>36.4</v>
+      </c>
+      <c r="U33" s="1">
+        <v>-0.7</v>
+      </c>
+      <c r="V33" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="W33" s="1">
+        <v>441.6</v>
+      </c>
+      <c r="X33" s="1">
+        <v>43.2</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>2495.8000000000002</v>
+      </c>
+      <c r="Z33" s="1">
+        <v>61</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__AZD8895</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34" s="19"/>
+      <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L34" s="1">
+        <v>-123.8</v>
+      </c>
+      <c r="M34" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="N34" s="1">
+        <v>94</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-90.7</v>
+      </c>
+      <c r="R34" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-256.3</v>
+      </c>
+      <c r="T34" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="U34" s="1">
+        <v>-5.5</v>
+      </c>
+      <c r="V34" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W34" s="1">
+        <v>237</v>
+      </c>
+      <c r="X34" s="1">
+        <v>89.8</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>2470.8000000000002</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>53.5</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__58G6</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="19"/>
+      <c r="J35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-98</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="N35" s="1">
+        <v>27</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>-84.5</v>
+      </c>
+      <c r="R35" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S35" s="1">
+        <v>-197.2</v>
+      </c>
+      <c r="T35" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="U35" s="1">
+        <v>-6.2</v>
+      </c>
+      <c r="V35" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W35" s="1">
+        <v>321.39999999999998</v>
+      </c>
+      <c r="X35" s="1">
+        <v>24.6</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>2400</v>
+      </c>
+      <c r="Z35" s="1">
+        <v>67.7</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__CV38-142</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-106</v>
+      </c>
+      <c r="M36" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="N36" s="1">
+        <v>22</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>-79.3</v>
+      </c>
+      <c r="R36" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-225.4</v>
+      </c>
+      <c r="T36" s="1">
+        <v>47.3</v>
+      </c>
+      <c r="U36" s="1">
+        <v>-6.3</v>
+      </c>
+      <c r="V36" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="W36" s="1">
+        <v>247.8</v>
+      </c>
+      <c r="X36" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>2260.6999999999998</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>48.5</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__C110</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="19"/>
+      <c r="J37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="1">
         <v>-123.6</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M37" s="1">
         <v>0.4</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N37" s="1">
         <v>142</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O37" s="1">
         <v>0.5</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P37" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q37" s="1">
         <v>-84.3</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R37" s="1">
         <v>3.9</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S37" s="1">
         <v>-255.4</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T37" s="1">
         <v>31.2</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U37" s="1">
         <v>-12.1</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V37" s="1">
         <v>2.4</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W37" s="1">
         <v>238.1</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X37" s="1">
         <v>29.1</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y37" s="1">
         <v>2213.5</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z37" s="1">
         <v>43.2</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA37" s="1">
         <v>-0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__Omi-9</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A39" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__P5C3</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__EY6A</v>
+      </c>
+      <c r="H40" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__COVOX-150</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I25"/>
+    <mergeCell ref="I2:I37"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFC68F-7C60-474E-9057-AC339AFF96F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6EB85-9D37-7E4B-9079-1D0B089CBDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="23000" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="24080" yWindow="500" windowWidth="20720" windowHeight="23000" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -279,15 +279,9 @@
     <t>COVOX-150</t>
   </si>
   <si>
-    <t>7zf8_chainsHL_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
     <t>26,27,28,29,30,31,32,33,52,53,54,55,56,57,74,75,76,77,77,98,99,100,101,102,103,1024,1025,1026,1027,1028,1029,1030,1031,1032,1048,1049,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1067,1068</t>
   </si>
   <si>
-    <t>7zf4_chainsHL_renumberedLplus1000.pdb</t>
-  </si>
-  <si>
     <t>7qtj_chainsEF_renumberedFplus1000.pdb</t>
   </si>
   <si>
@@ -301,6 +295,12 @@
   </si>
   <si>
     <t>7zf3_chainsAB_renumberedBplus1000.pdb</t>
+  </si>
+  <si>
+    <t>7zf4_chainsHL_renumberedLplus1000_fixed.pdb</t>
+  </si>
+  <si>
+    <t>7zf8_chainsHL_renumberedLplus1000_fixed.pdb</t>
   </si>
 </sst>
 </file>
@@ -820,10 +820,10 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -941,7 +941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1459,16 +1459,19 @@
         <v>B_1_1_529__Omi-9</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I8" s="19"/>
+      <c r="J8" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1487,16 +1490,19 @@
         <v>B_1_1_529__P5C3</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I9" s="19"/>
+      <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1515,16 +1521,19 @@
         <v>B_1_1_529__EY6A</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I10" s="19"/>
+      <c r="J10" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1543,9 +1552,12 @@
         <v>B_1_1_529__COVOX-150</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="19"/>
+      <c r="J11" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
@@ -2044,7 +2056,7 @@
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2063,16 +2075,19 @@
         <v>BJ_1__Omi-9</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="19"/>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2091,16 +2106,19 @@
         <v>BJ_1__P5C3</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I19" s="19"/>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A20" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2119,16 +2137,19 @@
         <v>BJ_1__EY6A</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I20" s="19"/>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2147,9 +2168,12 @@
         <v>BJ_1__COVOX-150</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I21" s="19"/>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
@@ -2648,7 +2672,7 @@
         <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -2667,16 +2691,19 @@
         <v>BM_1_1_1__Omi-9</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I28" s="19"/>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -2695,16 +2722,19 @@
         <v>BM_1_1_1__P5C3</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I29" s="19"/>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A30" s="22" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -2723,16 +2753,19 @@
         <v>BM_1_1_1__EY6A</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I30" s="19"/>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A31" s="23" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -2751,9 +2784,12 @@
         <v>BM_1_1_1__COVOX-150</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I31" s="19"/>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
@@ -3252,7 +3288,7 @@
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -3271,7 +3307,11 @@
         <v>XBB_1_5__Omi-9</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
+      </c>
+      <c r="I38" s="19"/>
+      <c r="J38" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:27" ht="64" x14ac:dyDescent="0.2">
@@ -3279,7 +3319,7 @@
         <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -3298,7 +3338,11 @@
         <v>XBB_1_5__P5C3</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="I39" s="19"/>
+      <c r="J39" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:27" ht="48" x14ac:dyDescent="0.2">
@@ -3306,7 +3350,7 @@
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -3325,7 +3369,11 @@
         <v>XBB_1_5__EY6A</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="I40" s="19"/>
+      <c r="J40" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:27" ht="48" x14ac:dyDescent="0.2">
@@ -3333,7 +3381,7 @@
         <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -3352,12 +3400,16 @@
         <v>XBB_1_5__COVOX-150</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="I41" s="19"/>
+      <c r="J41" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I37"/>
+    <mergeCell ref="I2:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/GitHub/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E6EB85-9D37-7E4B-9079-1D0B089CBDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8372C-24EF-4D5B-9C2F-978FA326DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24080" yWindow="500" windowWidth="20720" windowHeight="23000" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>7zf8_chainsHL_renumberedLplus1000_fixed.pdb</t>
+  </si>
+  <si>
+    <t>Cluster 6</t>
+  </si>
+  <si>
+    <t>Cluster 8</t>
   </si>
 </sst>
 </file>
@@ -479,9 +485,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -493,6 +496,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,45 +826,45 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -941,7 +947,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -967,7 +973,7 @@
       <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="23" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -1025,7 +1031,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1051,7 +1057,7 @@
       <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
@@ -1107,7 +1113,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1133,7 +1139,7 @@
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="19"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1189,7 +1195,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="19"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1271,7 +1277,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1297,7 +1303,7 @@
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="19"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1353,7 +1359,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1379,7 +1385,7 @@
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="19"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1435,8 +1441,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -1461,13 +1467,64 @@
       <c r="H8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-54</v>
+      </c>
+      <c r="M8" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N8" s="1">
+        <v>12</v>
+      </c>
+      <c r="O8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>-55.7</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-201</v>
+      </c>
+      <c r="T8" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="U8" s="1">
+        <v>-12.2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="X8" s="1">
+        <v>54.9</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2109.4</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>48.7</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>-1.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -1492,13 +1549,64 @@
       <c r="H9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="19"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-111.8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>3.9</v>
+      </c>
+      <c r="N9" s="1">
+        <v>82</v>
+      </c>
+      <c r="O9" s="1">
+        <v>18</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>-81.3</v>
+      </c>
+      <c r="R9" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-304.10000000000002</v>
+      </c>
+      <c r="T9" s="1">
+        <v>12.7</v>
+      </c>
+      <c r="U9" s="1">
+        <v>-6.5</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>368.9</v>
+      </c>
+      <c r="X9" s="1">
+        <v>33</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>2458.1999999999998</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>156.69999999999999</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>-1.3</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1523,13 +1631,64 @@
       <c r="H10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="19"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-158</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="N10" s="1">
+        <v>102</v>
+      </c>
+      <c r="O10" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P10" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>-92.4</v>
+      </c>
+      <c r="R10" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-375.6</v>
+      </c>
+      <c r="T10" s="1">
+        <v>12</v>
+      </c>
+      <c r="U10" s="1">
+        <v>-12.2</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="W10" s="1">
+        <v>217.2</v>
+      </c>
+      <c r="X10" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>2555.5</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>54.8</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>-1.9</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
+    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1554,12 +1713,63 @@
       <c r="H11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="19"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-140.1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7.1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>28</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-98.6</v>
+      </c>
+      <c r="R11" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-198.3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>26.8</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-25.5</v>
+      </c>
+      <c r="V11" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="W11" s="1">
+        <v>236.5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>45</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2613.3000000000002</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>144.5</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-1.9</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>34</v>
       </c>
@@ -1585,7 +1795,7 @@
       <c r="H12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="19"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
@@ -1641,7 +1851,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>35</v>
       </c>
@@ -1667,7 +1877,7 @@
       <c r="H13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="19"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
@@ -1723,7 +1933,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>36</v>
       </c>
@@ -1749,7 +1959,7 @@
       <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="19"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
@@ -1805,7 +2015,7 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>57</v>
       </c>
@@ -1831,7 +2041,7 @@
       <c r="H15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="19"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
@@ -1887,7 +2097,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>58</v>
       </c>
@@ -1913,7 +2123,7 @@
       <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="19"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
@@ -1969,7 +2179,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>59</v>
       </c>
@@ -1995,7 +2205,7 @@
       <c r="H17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="19"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
@@ -2051,8 +2261,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -2077,13 +2287,64 @@
       <c r="H18" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="19"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-26.1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>5</v>
+      </c>
+      <c r="O18" s="1">
+        <v>11</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-31.4</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-164.1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>13.7</v>
+      </c>
+      <c r="U18" s="1">
+        <v>-21</v>
+      </c>
+      <c r="V18" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="1">
+        <v>591.20000000000005</v>
+      </c>
+      <c r="X18" s="1">
+        <v>21.8</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>1838.1</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>59.2</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>-1.1000000000000001</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="21" t="s">
+    <row r="19" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -2108,13 +2369,64 @@
       <c r="H19" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="19"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-90</v>
+      </c>
+      <c r="M19" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="N19" s="1">
+        <v>16</v>
+      </c>
+      <c r="O19" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-75.7</v>
+      </c>
+      <c r="R19" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="T19" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-6</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="W19" s="1">
+        <v>449.7</v>
+      </c>
+      <c r="X19" s="1">
+        <v>40.9</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2593.8000000000002</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>100.1</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="22" t="s">
+    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -2139,13 +2451,64 @@
       <c r="H20" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="19"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="M20" s="1">
+        <v>8</v>
+      </c>
+      <c r="N20" s="1">
+        <v>8</v>
+      </c>
+      <c r="O20" s="1">
+        <v>21.5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-95.9</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-204</v>
+      </c>
+      <c r="T20" s="1">
+        <v>10.3</v>
+      </c>
+      <c r="U20" s="1">
+        <v>-21</v>
+      </c>
+      <c r="V20" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="W20" s="1">
+        <v>224</v>
+      </c>
+      <c r="X20" s="1">
+        <v>38.5</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2748.5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -2170,12 +2533,63 @@
       <c r="H21" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-127.1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>5.6</v>
+      </c>
+      <c r="N21" s="1">
+        <v>7</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-100.8</v>
+      </c>
+      <c r="R21" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-176</v>
+      </c>
+      <c r="T21" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-16.8</v>
+      </c>
+      <c r="V21" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="W21" s="1">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="X21" s="1">
+        <v>27.2</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>2714.6</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>53.3</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>-1.5</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>34</v>
       </c>
@@ -2201,7 +2615,7 @@
       <c r="H22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="19"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
@@ -2257,7 +2671,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>35</v>
       </c>
@@ -2283,7 +2697,7 @@
       <c r="H23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="19"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
@@ -2339,7 +2753,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -2365,7 +2779,7 @@
       <c r="H24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="19"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
@@ -2421,7 +2835,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>57</v>
       </c>
@@ -2447,7 +2861,7 @@
       <c r="H25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="19"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
@@ -2503,7 +2917,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>58</v>
       </c>
@@ -2529,7 +2943,7 @@
       <c r="H26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="23"/>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
@@ -2585,7 +2999,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>59</v>
       </c>
@@ -2611,7 +3025,7 @@
       <c r="H27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="23"/>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
@@ -2667,8 +3081,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A28" s="20" t="s">
+    <row r="28" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2693,13 +3107,64 @@
       <c r="H28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="23"/>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-48.4</v>
+      </c>
+      <c r="M28" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="N28" s="1">
+        <v>5</v>
+      </c>
+      <c r="O28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-53.4</v>
+      </c>
+      <c r="R28" s="1">
+        <v>3</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-234.5</v>
+      </c>
+      <c r="T28" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="U28" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="W28" s="1">
+        <v>669</v>
+      </c>
+      <c r="X28" s="1">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1987.7</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>-1.3</v>
+      </c>
     </row>
-    <row r="29" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A29" s="21" t="s">
+    <row r="29" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -2724,13 +3189,64 @@
       <c r="H29" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="19"/>
+      <c r="I29" s="23"/>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-105.4</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="N29" s="1">
+        <v>81</v>
+      </c>
+      <c r="O29" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="P29" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-77.400000000000006</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-361.4</v>
+      </c>
+      <c r="T29" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="U29" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="V29" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="W29" s="1">
+        <v>373.5</v>
+      </c>
+      <c r="X29" s="1">
+        <v>30.7</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>2520</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>107.9</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>-1.3</v>
+      </c>
     </row>
-    <row r="30" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="22" t="s">
+    <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -2755,13 +3271,64 @@
       <c r="H30" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="19"/>
+      <c r="I30" s="23"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-114.8</v>
+      </c>
+      <c r="M30" s="1">
+        <v>6.9</v>
+      </c>
+      <c r="N30" s="1">
+        <v>37</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P30" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-73.599999999999994</v>
+      </c>
+      <c r="R30" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-333.7</v>
+      </c>
+      <c r="T30" s="1">
+        <v>9</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-2</v>
+      </c>
+      <c r="V30" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W30" s="1">
+        <v>275.5</v>
+      </c>
+      <c r="X30" s="1">
+        <v>47.1</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>2373.9</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>83.3</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>-1.5</v>
+      </c>
     </row>
-    <row r="31" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
+    <row r="31" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -2786,12 +3353,63 @@
       <c r="H31" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="19"/>
+      <c r="I31" s="23"/>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="M31" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N31" s="1">
+        <v>16</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>-82.7</v>
+      </c>
+      <c r="R31" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-334.8</v>
+      </c>
+      <c r="T31" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="U31" s="1">
+        <v>14.4</v>
+      </c>
+      <c r="V31" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="W31" s="1">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="X31" s="1">
+        <v>41.1</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>2493.1999999999998</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>64.3</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>34</v>
       </c>
@@ -2817,7 +3435,7 @@
       <c r="H32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="19"/>
+      <c r="I32" s="23"/>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
@@ -2873,7 +3491,7 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>35</v>
       </c>
@@ -2899,7 +3517,7 @@
       <c r="H33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="19"/>
+      <c r="I33" s="23"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
@@ -2955,7 +3573,7 @@
         <v>-1.8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>36</v>
       </c>
@@ -2981,7 +3599,7 @@
       <c r="H34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="19"/>
+      <c r="I34" s="23"/>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
@@ -3037,7 +3655,7 @@
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>57</v>
       </c>
@@ -3063,7 +3681,7 @@
       <c r="H35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="19"/>
+      <c r="I35" s="23"/>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
@@ -3119,7 +3737,7 @@
         <v>-2.6</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>58</v>
       </c>
@@ -3145,7 +3763,7 @@
       <c r="H36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="19"/>
+      <c r="I36" s="23"/>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
@@ -3201,7 +3819,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>59</v>
       </c>
@@ -3227,7 +3845,7 @@
       <c r="H37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="19"/>
+      <c r="I37" s="23"/>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
@@ -3283,8 +3901,8 @@
         <v>-0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="20" t="s">
+    <row r="38" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -3309,13 +3927,64 @@
       <c r="H38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="19"/>
+      <c r="I38" s="23"/>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L38" s="1">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="M38" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="N38" s="1">
+        <v>8</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>-53.8</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="S38" s="1">
+        <v>-118.7</v>
+      </c>
+      <c r="T38" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="U38" s="1">
+        <v>-25.3</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="W38" s="1">
+        <v>630.6</v>
+      </c>
+      <c r="X38" s="1">
+        <v>59.3</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>2052.5</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>-1.7</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A39" s="21" t="s">
+    <row r="39" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -3340,13 +4009,64 @@
       <c r="H39" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="19"/>
+      <c r="I39" s="23"/>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L39" s="1">
+        <v>-95.7</v>
+      </c>
+      <c r="M39" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="N39" s="1">
+        <v>40</v>
+      </c>
+      <c r="O39" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>-89.6</v>
+      </c>
+      <c r="R39" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="S39" s="1">
+        <v>-200.2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U39" s="1">
+        <v>-13.5</v>
+      </c>
+      <c r="V39" s="1">
+        <v>6</v>
+      </c>
+      <c r="W39" s="1">
+        <v>474.2</v>
+      </c>
+      <c r="X39" s="1">
+        <v>74.2</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>2401.9</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>37.4</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>-1.2</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="22" t="s">
+    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
         <v>78</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -3371,13 +4091,64 @@
       <c r="H40" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="19"/>
+      <c r="I40" s="23"/>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
+      <c r="K40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="1">
+        <v>-170.5</v>
+      </c>
+      <c r="M40" s="1">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N40" s="1">
+        <v>91</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>-111.1</v>
+      </c>
+      <c r="R40" s="1">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-353.6</v>
+      </c>
+      <c r="T40" s="1">
+        <v>18</v>
+      </c>
+      <c r="U40" s="1">
+        <v>-14.4</v>
+      </c>
+      <c r="V40" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W40" s="1">
+        <v>258.3</v>
+      </c>
+      <c r="X40" s="1">
+        <v>30.2</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>2862.4</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>-2.5</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="23" t="s">
+    <row r="41" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
         <v>79</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -3402,9 +4173,60 @@
       <c r="H41" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="19"/>
+      <c r="I41" s="23"/>
       <c r="J41" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="1">
+        <v>-119.2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>6</v>
+      </c>
+      <c r="N41" s="1">
+        <v>111</v>
+      </c>
+      <c r="O41" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P41" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>-82</v>
+      </c>
+      <c r="R41" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="S41" s="1">
+        <v>-214.8</v>
+      </c>
+      <c r="T41" s="1">
+        <v>32.6</v>
+      </c>
+      <c r="U41" s="1">
+        <v>-22.8</v>
+      </c>
+      <c r="V41" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>285.7</v>
+      </c>
+      <c r="X41" s="1">
+        <v>48.3</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>2319</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>-1.4</v>
       </c>
     </row>
   </sheetData>
@@ -3425,9 +4247,9 @@
       <selection activeCell="J2" sqref="J2:AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3510,7 +4332,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="395" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -3590,7 +4412,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -3670,7 +4492,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="350" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="330" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
@@ -3750,7 +4572,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="395" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="375" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
@@ -3830,7 +4652,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
@@ -3910,7 +4732,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="350" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="330" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01F8372C-24EF-4D5B-9C2F-978FA326DF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5760A6C-6899-7F44-AD04-64ADDA22AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="93">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -307,6 +307,15 @@
   </si>
   <si>
     <t>Cluster 8</t>
+  </si>
+  <si>
+    <t>LY-CoV555</t>
+  </si>
+  <si>
+    <t>7kmg_chainsAB_renumberedBplus1000.pdb</t>
+  </si>
+  <si>
+    <t>26,27,28,29,30,31,53,54,55,56,74,75,76,77,100,101,102,103,104,105,106,107,108,109,110,111,1026,1027,1028,1029,1030,1031,1032,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1068,1069,1091,1092,1093,1094,1095,1096,1097</t>
   </si>
 </sst>
 </file>
@@ -351,7 +360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +427,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF4B93"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -431,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,6 +515,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,6 +526,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF4B93"/>
       <color rgb="FFFF8AD8"/>
       <color rgb="FFD883FF"/>
       <color rgb="FFFFFD78"/>
@@ -823,48 +842,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA41"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A41"/>
+      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -947,7 +966,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -1031,7 +1050,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1051,7 +1070,7 @@
         <v>71</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G11" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
+        <f t="shared" ref="G3:G12" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
         <v>B_1_1_529__AZD1061</v>
       </c>
       <c r="H3" s="8" t="s">
@@ -1113,7 +1132,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1195,7 +1214,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1277,7 +1296,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1359,7 +1378,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1441,7 +1460,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>76</v>
       </c>
@@ -1523,7 +1542,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
         <v>77</v>
       </c>
@@ -1605,7 +1624,7 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="21" t="s">
         <v>78</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="22" t="s">
         <v>79</v>
       </c>
@@ -1769,94 +1788,43 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
+    <row r="12" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
+      <c r="D12" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>71</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(D12,".","_"),"__",A12)</f>
-        <v>BJ_1__LY-CoV1404</v>
+        <f t="shared" si="0"/>
+        <v>B_1_1_529__LY-CoV555</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="I12" s="23"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-115.4</v>
-      </c>
-      <c r="M12" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N12" s="1">
-        <v>11</v>
-      </c>
-      <c r="O12" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>-94.7</v>
-      </c>
-      <c r="R12" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="S12" s="1">
-        <v>-167.3</v>
-      </c>
-      <c r="T12" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="U12" s="1">
-        <v>-33</v>
-      </c>
-      <c r="V12" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="W12" s="1">
-        <v>457.8</v>
-      </c>
-      <c r="X12" s="1">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>2612</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>35</v>
+    </row>
+    <row r="13" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1872,73 +1840,73 @@
       </c>
       <c r="G13" s="1" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(D13,".","_"),"__",A13)</f>
-        <v>BJ_1__AZD1061</v>
+        <v>BJ_1__LY-CoV1404</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I13" s="23"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="L13" s="1">
-        <v>-86.3</v>
+        <v>-115.4</v>
       </c>
       <c r="M13" s="1">
-        <v>1.4</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N13" s="1">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="O13" s="1">
-        <v>17.7</v>
+        <v>0.5</v>
       </c>
       <c r="P13" s="1">
         <v>0.3</v>
       </c>
       <c r="Q13" s="1">
-        <v>-66.599999999999994</v>
+        <v>-94.7</v>
       </c>
       <c r="R13" s="1">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="S13" s="1">
-        <v>-321.5</v>
+        <v>-167.3</v>
       </c>
       <c r="T13" s="1">
-        <v>31.4</v>
+        <v>14.6</v>
       </c>
       <c r="U13" s="1">
-        <v>-9.1999999999999993</v>
+        <v>-33</v>
       </c>
       <c r="V13" s="1">
-        <v>5.9</v>
+        <v>2.4</v>
       </c>
       <c r="W13" s="1">
-        <v>538.29999999999995</v>
+        <v>457.8</v>
       </c>
       <c r="X13" s="1">
-        <v>55.5</v>
+        <v>64.900000000000006</v>
       </c>
       <c r="Y13" s="1">
-        <v>2445.9</v>
+        <v>2612</v>
       </c>
       <c r="Z13" s="1">
-        <v>77.7</v>
+        <v>51.2</v>
       </c>
       <c r="AA13" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>36</v>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1953,74 +1921,74 @@
         <v>33</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f t="shared" ref="G14:G41" si="1">_xlfn.CONCAT(SUBSTITUTE(D14,".","_"),"__",A14)</f>
-        <v>BJ_1__AZD8895</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D14,".","_"),"__",A14)</f>
+        <v>BJ_1__AZD1061</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="I14" s="23"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L14" s="1">
-        <v>-111.8</v>
+        <v>-86.3</v>
       </c>
       <c r="M14" s="1">
-        <v>9.4</v>
+        <v>1.4</v>
       </c>
       <c r="N14" s="1">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="O14" s="1">
-        <v>0.6</v>
+        <v>17.7</v>
       </c>
       <c r="P14" s="1">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Q14" s="1">
-        <v>-80.900000000000006</v>
+        <v>-66.599999999999994</v>
       </c>
       <c r="R14" s="1">
-        <v>4.4000000000000004</v>
+        <v>5.5</v>
       </c>
       <c r="S14" s="1">
-        <v>-259.5</v>
+        <v>-321.5</v>
       </c>
       <c r="T14" s="1">
-        <v>15.6</v>
+        <v>31.4</v>
       </c>
       <c r="U14" s="1">
-        <v>-8.5</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="V14" s="1">
-        <v>1.4</v>
+        <v>5.9</v>
       </c>
       <c r="W14" s="1">
-        <v>294.39999999999998</v>
+        <v>538.29999999999995</v>
       </c>
       <c r="X14" s="1">
-        <v>46</v>
+        <v>55.5</v>
       </c>
       <c r="Y14" s="1">
-        <v>2536.5</v>
+        <v>2445.9</v>
       </c>
       <c r="Z14" s="1">
-        <v>195.9</v>
+        <v>77.7</v>
       </c>
       <c r="AA14" s="1">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>57</v>
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2035,2203 +2003,2378 @@
         <v>33</v>
       </c>
       <c r="G15" s="1" t="str">
+        <f t="shared" ref="G15:G45" si="1">_xlfn.CONCAT(SUBSTITUTE(D15,".","_"),"__",A15)</f>
+        <v>BJ_1__AZD8895</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-111.8</v>
+      </c>
+      <c r="M15" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="N15" s="1">
+        <v>9</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="R15" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-259.5</v>
+      </c>
+      <c r="T15" s="1">
+        <v>15.6</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-8.5</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="1">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="X15" s="1">
+        <v>46</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2536.5</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>195.9</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__58G6</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L15" s="1">
+      <c r="L16" s="1">
         <v>-121.8</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M16" s="1">
         <v>7.6</v>
       </c>
-      <c r="N15" s="1">
+      <c r="N16" s="1">
         <v>16</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O16" s="1">
         <v>0.4</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P16" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="Q16" s="1">
         <v>-91.1</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R16" s="1">
         <v>6.4</v>
       </c>
-      <c r="S15" s="1">
+      <c r="S16" s="1">
         <v>-213.7</v>
       </c>
-      <c r="T15" s="1">
+      <c r="T16" s="1">
         <v>10.1</v>
       </c>
-      <c r="U15" s="1">
+      <c r="U16" s="1">
         <v>-18.5</v>
       </c>
-      <c r="V15" s="1">
+      <c r="V16" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="W15" s="1">
+      <c r="W16" s="1">
         <v>305.7</v>
       </c>
-      <c r="X15" s="1">
+      <c r="X16" s="1">
         <v>24.3</v>
       </c>
-      <c r="Y15" s="1">
+      <c r="Y16" s="1">
         <v>2412.4</v>
       </c>
-      <c r="Z15" s="1">
+      <c r="Z16" s="1">
         <v>92.2</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AA16" s="1">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+    <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G16" s="1" t="str">
+      <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__CV38-142</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="I17" s="23"/>
+      <c r="J17" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="1">
+      <c r="L17" s="1">
         <v>-114.1</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="1">
         <v>8</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N17" s="1">
         <v>7</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O17" s="1">
         <v>1.7</v>
       </c>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="P17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="1">
         <v>-90.2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R17" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S17" s="1">
         <v>-211</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T17" s="1">
         <v>35.299999999999997</v>
       </c>
-      <c r="U16" s="1">
+      <c r="U17" s="1">
         <v>-10.4</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V17" s="1">
         <v>8.1</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W17" s="1">
         <v>307</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X17" s="1">
         <v>77.5</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y17" s="1">
         <v>2506.8000000000002</v>
       </c>
-      <c r="Z16" s="1">
+      <c r="Z17" s="1">
         <v>86.6</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AA17" s="1">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="11" t="s">
+    <row r="18" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="1" t="str">
+      <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__C110</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="H18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="23"/>
-      <c r="J17" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="I18" s="23"/>
+      <c r="J18" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="L17" s="1">
+      <c r="L18" s="1">
         <v>-114.8</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M18" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N17" s="1">
+      <c r="N18" s="1">
         <v>6</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O18" s="1">
         <v>15.1</v>
       </c>
-      <c r="P17" s="1">
+      <c r="P18" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="Q18" s="1">
         <v>-60.9</v>
       </c>
-      <c r="R17" s="1">
+      <c r="R18" s="1">
         <v>4.8</v>
       </c>
-      <c r="S17" s="1">
+      <c r="S18" s="1">
         <v>-355.6</v>
       </c>
-      <c r="T17" s="1">
+      <c r="T18" s="1">
         <v>21.7</v>
       </c>
-      <c r="U17" s="1">
+      <c r="U18" s="1">
         <v>-15</v>
       </c>
-      <c r="V17" s="1">
+      <c r="V18" s="1">
         <v>2.7</v>
       </c>
-      <c r="W17" s="1">
+      <c r="W18" s="1">
         <v>322</v>
       </c>
-      <c r="X17" s="1">
+      <c r="X18" s="1">
         <v>89</v>
       </c>
-      <c r="Y17" s="1">
+      <c r="Y18" s="1">
         <v>2307.3000000000002</v>
       </c>
-      <c r="Z17" s="1">
+      <c r="Z18" s="1">
         <v>63.1</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AA18" s="1">
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    <row r="19" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="1" t="str">
+      <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__Omi-9</v>
       </c>
-      <c r="H18" s="8" t="s">
+      <c r="H19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I18" s="23"/>
-      <c r="J18" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="I19" s="23"/>
+      <c r="J19" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L18" s="1">
+      <c r="L19" s="1">
         <v>-26.1</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M19" s="1">
         <v>4.2</v>
       </c>
-      <c r="N18" s="1">
+      <c r="N19" s="1">
         <v>5</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O19" s="1">
         <v>11</v>
       </c>
-      <c r="P18" s="1">
+      <c r="P19" s="1">
         <v>0</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="Q19" s="1">
         <v>-31.4</v>
       </c>
-      <c r="R18" s="1">
+      <c r="R19" s="1">
         <v>2.4</v>
       </c>
-      <c r="S18" s="1">
+      <c r="S19" s="1">
         <v>-164.1</v>
       </c>
-      <c r="T18" s="1">
+      <c r="T19" s="1">
         <v>13.7</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U19" s="1">
         <v>-21</v>
       </c>
-      <c r="V18" s="1">
+      <c r="V19" s="1">
         <v>0.9</v>
       </c>
-      <c r="W18" s="1">
+      <c r="W19" s="1">
         <v>591.20000000000005</v>
       </c>
-      <c r="X18" s="1">
+      <c r="X19" s="1">
         <v>21.8</v>
       </c>
-      <c r="Y18" s="1">
+      <c r="Y19" s="1">
         <v>1838.1</v>
       </c>
-      <c r="Z18" s="1">
+      <c r="Z19" s="1">
         <v>59.2</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AA19" s="1">
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="20" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="1" t="str">
+      <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__P5C3</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I19" s="23"/>
-      <c r="J19" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="I20" s="23"/>
+      <c r="J20" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="1">
+      <c r="L20" s="1">
         <v>-90</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M20" s="1">
         <v>7.9</v>
       </c>
-      <c r="N19" s="1">
+      <c r="N20" s="1">
         <v>16</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O20" s="1">
         <v>10.6</v>
       </c>
-      <c r="P19" s="1">
+      <c r="P20" s="1">
         <v>0.7</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q20" s="1">
         <v>-75.7</v>
       </c>
-      <c r="R19" s="1">
+      <c r="R20" s="1">
         <v>6.7</v>
       </c>
-      <c r="S19" s="1">
+      <c r="S20" s="1">
         <v>-266.39999999999998</v>
       </c>
-      <c r="T19" s="1">
+      <c r="T20" s="1">
         <v>33.299999999999997</v>
       </c>
-      <c r="U19" s="1">
+      <c r="U20" s="1">
         <v>-6</v>
       </c>
-      <c r="V19" s="1">
+      <c r="V20" s="1">
         <v>1.7</v>
       </c>
-      <c r="W19" s="1">
+      <c r="W20" s="1">
         <v>449.7</v>
       </c>
-      <c r="X19" s="1">
+      <c r="X20" s="1">
         <v>40.9</v>
       </c>
-      <c r="Y19" s="1">
+      <c r="Y20" s="1">
         <v>2593.8000000000002</v>
       </c>
-      <c r="Z19" s="1">
+      <c r="Z20" s="1">
         <v>100.1</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AA20" s="1">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+    <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="1" t="str">
+      <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__EY6A</v>
       </c>
-      <c r="H20" s="8" t="s">
+      <c r="H21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="23"/>
-      <c r="J20" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="I21" s="23"/>
+      <c r="J21" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="L20" s="1">
+      <c r="L21" s="1">
         <v>-135.30000000000001</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M21" s="1">
         <v>8</v>
       </c>
-      <c r="N20" s="1">
+      <c r="N21" s="1">
         <v>8</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O21" s="1">
         <v>21.5</v>
       </c>
-      <c r="P20" s="1">
+      <c r="P21" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q21" s="1">
         <v>-95.9</v>
       </c>
-      <c r="R20" s="1">
+      <c r="R21" s="1">
         <v>5.3</v>
       </c>
-      <c r="S20" s="1">
+      <c r="S21" s="1">
         <v>-204</v>
       </c>
-      <c r="T20" s="1">
+      <c r="T21" s="1">
         <v>10.3</v>
       </c>
-      <c r="U20" s="1">
+      <c r="U21" s="1">
         <v>-21</v>
       </c>
-      <c r="V20" s="1">
+      <c r="V21" s="1">
         <v>5.9</v>
       </c>
-      <c r="W20" s="1">
+      <c r="W21" s="1">
         <v>224</v>
       </c>
-      <c r="X20" s="1">
+      <c r="X21" s="1">
         <v>38.5</v>
       </c>
-      <c r="Y20" s="1">
+      <c r="Y21" s="1">
         <v>2748.5</v>
       </c>
-      <c r="Z20" s="1">
+      <c r="Z21" s="1">
         <v>100</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AA21" s="1">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="22" t="s">
+    <row r="22" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="1" t="str">
+      <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BJ_1__COVOX-150</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I21" s="23"/>
-      <c r="J21" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="I22" s="23"/>
+      <c r="J22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="L21" s="1">
+      <c r="L22" s="1">
         <v>-127.1</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M22" s="1">
         <v>5.6</v>
       </c>
-      <c r="N21" s="1">
+      <c r="N22" s="1">
         <v>7</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O22" s="1">
         <v>0.6</v>
       </c>
-      <c r="P21" s="1">
+      <c r="P22" s="1">
         <v>0.5</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q22" s="1">
         <v>-100.8</v>
       </c>
-      <c r="R21" s="1">
+      <c r="R22" s="1">
         <v>3.3</v>
       </c>
-      <c r="S21" s="1">
+      <c r="S22" s="1">
         <v>-176</v>
       </c>
-      <c r="T21" s="1">
+      <c r="T22" s="1">
         <v>25.8</v>
       </c>
-      <c r="U21" s="1">
+      <c r="U22" s="1">
         <v>-16.8</v>
       </c>
-      <c r="V21" s="1">
+      <c r="V22" s="1">
         <v>1.8</v>
       </c>
-      <c r="W21" s="1">
+      <c r="W22" s="1">
         <v>256.89999999999998</v>
       </c>
-      <c r="X21" s="1">
+      <c r="X22" s="1">
         <v>27.2</v>
       </c>
-      <c r="Y21" s="1">
+      <c r="Y22" s="1">
         <v>2714.6</v>
       </c>
-      <c r="Z21" s="1">
+      <c r="Z22" s="1">
         <v>53.3</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AA22" s="1">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__LY-CoV555</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="1" t="str">
+      <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__LY-CoV1404</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="23"/>
-      <c r="J22" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="I24" s="23"/>
+      <c r="J24" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L22" s="1">
+      <c r="L24" s="1">
         <v>-103</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M24" s="1">
         <v>6.1</v>
       </c>
-      <c r="N22" s="1">
+      <c r="N24" s="1">
         <v>38</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O24" s="1">
         <v>0.4</v>
       </c>
-      <c r="P22" s="1">
+      <c r="P24" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="Q24" s="1">
         <v>-75.5</v>
       </c>
-      <c r="R22" s="1">
+      <c r="R24" s="1">
         <v>3.7</v>
       </c>
-      <c r="S22" s="1">
+      <c r="S24" s="1">
         <v>-275.5</v>
       </c>
-      <c r="T22" s="1">
+      <c r="T24" s="1">
         <v>24.5</v>
       </c>
-      <c r="U22" s="1">
+      <c r="U24" s="1">
         <v>-9.9</v>
       </c>
-      <c r="V22" s="1">
+      <c r="V24" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W22" s="1">
+      <c r="W24" s="1">
         <v>375.3</v>
       </c>
-      <c r="X22" s="1">
+      <c r="X24" s="1">
         <v>34.5</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Y24" s="1">
         <v>2110.8000000000002</v>
       </c>
-      <c r="Z22" s="1">
+      <c r="Z24" s="1">
         <v>36</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AA24" s="1">
         <v>-1.6</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+    <row r="25" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="1" t="str">
+      <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__AZD1061</v>
       </c>
-      <c r="H23" s="8" t="s">
+      <c r="H25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="23"/>
-      <c r="J23" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="I25" s="23"/>
+      <c r="J25" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L23" s="1">
+      <c r="L25" s="1">
         <v>-102.8</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M25" s="1">
         <v>9.4</v>
       </c>
-      <c r="N23" s="1">
+      <c r="N25" s="1">
         <v>119</v>
       </c>
-      <c r="O23" s="1">
+      <c r="O25" s="1">
         <v>0.6</v>
       </c>
-      <c r="P23" s="1">
+      <c r="P25" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="Q25" s="1">
         <v>-80.099999999999994</v>
       </c>
-      <c r="R23" s="1">
+      <c r="R25" s="1">
         <v>7</v>
       </c>
-      <c r="S23" s="1">
+      <c r="S25" s="1">
         <v>-323.39999999999998</v>
       </c>
-      <c r="T23" s="1">
+      <c r="T25" s="1">
         <v>45</v>
       </c>
-      <c r="U23" s="1">
+      <c r="U25" s="1">
         <v>-6.8</v>
       </c>
-      <c r="V23" s="1">
-        <v>1</v>
-      </c>
-      <c r="W23" s="1">
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
         <v>487.2</v>
       </c>
-      <c r="X23" s="1">
+      <c r="X25" s="1">
         <v>82.7</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Y25" s="1">
         <v>2555.6999999999998</v>
       </c>
-      <c r="Z23" s="1">
+      <c r="Z25" s="1">
         <v>39.200000000000003</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AA25" s="1">
         <v>-2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="26" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="1" t="str">
+      <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__AZD8895</v>
       </c>
-      <c r="H24" s="8" t="s">
+      <c r="H26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="23"/>
-      <c r="J24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K24" s="1" t="s">
+      <c r="I26" s="23"/>
+      <c r="J26" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L24" s="1">
+      <c r="L26" s="1">
         <v>-100.2</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M26" s="1">
         <v>3.6</v>
       </c>
-      <c r="N24" s="1">
+      <c r="N26" s="1">
         <v>21</v>
       </c>
-      <c r="O24" s="1">
+      <c r="O26" s="1">
         <v>7.6</v>
       </c>
-      <c r="P24" s="1">
+      <c r="P26" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q26" s="1">
         <v>-76.400000000000006</v>
       </c>
-      <c r="R24" s="1">
+      <c r="R26" s="1">
         <v>1.8</v>
       </c>
-      <c r="S24" s="1">
+      <c r="S26" s="1">
         <v>-283.39999999999998</v>
       </c>
-      <c r="T24" s="1">
+      <c r="T26" s="1">
         <v>37.6</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U26" s="1">
         <v>9.6999999999999993</v>
       </c>
-      <c r="V24" s="1">
+      <c r="V26" s="1">
         <v>5.2</v>
       </c>
-      <c r="W24" s="1">
+      <c r="W26" s="1">
         <v>231.9</v>
       </c>
-      <c r="X24" s="1">
+      <c r="X26" s="1">
         <v>31.5</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Y26" s="1">
         <v>2413.3000000000002</v>
       </c>
-      <c r="Z24" s="1">
+      <c r="Z26" s="1">
         <v>56</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AA26" s="1">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="27" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="1" t="str">
+      <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__58G6</v>
       </c>
-      <c r="H25" s="8" t="s">
+      <c r="H27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="23"/>
-      <c r="J25" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K25" s="1" t="s">
+      <c r="I27" s="23"/>
+      <c r="J27" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L25" s="1">
+      <c r="L27" s="1">
         <v>-90.4</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M27" s="1">
         <v>0.5</v>
       </c>
-      <c r="N25" s="1">
+      <c r="N27" s="1">
         <v>27</v>
       </c>
-      <c r="O25" s="1">
+      <c r="O27" s="1">
         <v>12.7</v>
       </c>
-      <c r="P25" s="1">
+      <c r="P27" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="Q27" s="1">
         <v>-62.4</v>
       </c>
-      <c r="R25" s="1">
+      <c r="R27" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="S25" s="1">
+      <c r="S27" s="1">
         <v>-313.3</v>
       </c>
-      <c r="T25" s="1">
+      <c r="T27" s="1">
         <v>18.3</v>
       </c>
-      <c r="U25" s="1">
+      <c r="U27" s="1">
         <v>10</v>
       </c>
-      <c r="V25" s="1">
+      <c r="V27" s="1">
         <v>3.2</v>
       </c>
-      <c r="W25" s="1">
+      <c r="W27" s="1">
         <v>247</v>
       </c>
-      <c r="X25" s="1">
+      <c r="X27" s="1">
         <v>69</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Y27" s="1">
         <v>2199.5</v>
       </c>
-      <c r="Z25" s="1">
+      <c r="Z27" s="1">
         <v>28.8</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AA27" s="1">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+    <row r="28" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="1" t="str">
+      <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__CV38-142</v>
       </c>
-      <c r="H26" s="8" t="s">
+      <c r="H28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="23"/>
-      <c r="J26" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="I28" s="23"/>
+      <c r="J28" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="1">
+      <c r="L28" s="1">
         <v>-96.6</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M28" s="1">
         <v>10.6</v>
       </c>
-      <c r="N26" s="1">
+      <c r="N28" s="1">
         <v>16</v>
       </c>
-      <c r="O26" s="1">
+      <c r="O28" s="1">
         <v>1.3</v>
       </c>
-      <c r="P26" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="P28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1">
         <v>-68.400000000000006</v>
       </c>
-      <c r="R26" s="1">
+      <c r="R28" s="1">
         <v>5.9</v>
       </c>
-      <c r="S26" s="1">
+      <c r="S28" s="1">
         <v>-324.8</v>
       </c>
-      <c r="T26" s="1">
+      <c r="T28" s="1">
         <v>57.7</v>
       </c>
-      <c r="U26" s="1">
+      <c r="U28" s="1">
         <v>14.2</v>
       </c>
-      <c r="V26" s="1">
+      <c r="V28" s="1">
         <v>7.2</v>
       </c>
-      <c r="W26" s="1">
+      <c r="W28" s="1">
         <v>225.3</v>
       </c>
-      <c r="X26" s="1">
+      <c r="X28" s="1">
         <v>41.7</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Y28" s="1">
         <v>2233.6999999999998</v>
       </c>
-      <c r="Z26" s="1">
+      <c r="Z28" s="1">
         <v>110.5</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AA28" s="1">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+    <row r="29" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="1" t="str">
+      <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__C110</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="23"/>
-      <c r="J27" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1" t="s">
+      <c r="I29" s="23"/>
+      <c r="J29" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L27" s="1">
+      <c r="L29" s="1">
         <v>-118.8</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M29" s="1">
         <v>4.8</v>
       </c>
-      <c r="N27" s="1">
+      <c r="N29" s="1">
         <v>41</v>
       </c>
-      <c r="O27" s="1">
+      <c r="O29" s="1">
         <v>0.7</v>
       </c>
-      <c r="P27" s="1">
+      <c r="P29" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q29" s="1">
         <v>-62.7</v>
       </c>
-      <c r="R27" s="1">
+      <c r="R29" s="1">
         <v>3.6</v>
       </c>
-      <c r="S27" s="1">
+      <c r="S29" s="1">
         <v>-433.4</v>
       </c>
-      <c r="T27" s="1">
+      <c r="T29" s="1">
         <v>24.8</v>
       </c>
-      <c r="U27" s="1">
+      <c r="U29" s="1">
         <v>9.1</v>
       </c>
-      <c r="V27" s="1">
+      <c r="V29" s="1">
         <v>3.9</v>
       </c>
-      <c r="W27" s="1">
+      <c r="W29" s="1">
         <v>215.2</v>
       </c>
-      <c r="X27" s="1">
+      <c r="X29" s="1">
         <v>62.6</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Y29" s="1">
         <v>2086</v>
       </c>
-      <c r="Z27" s="1">
+      <c r="Z29" s="1">
         <v>31.6</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AA29" s="1">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    <row r="30" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="1" t="str">
+      <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__Omi-9</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I28" s="23"/>
-      <c r="J28" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K28" s="1" t="s">
+      <c r="I30" s="23"/>
+      <c r="J30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="L28" s="1">
+      <c r="L30" s="1">
         <v>-48.4</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M30" s="1">
         <v>9.6</v>
       </c>
-      <c r="N28" s="1">
+      <c r="N30" s="1">
         <v>5</v>
       </c>
-      <c r="O28" s="1">
+      <c r="O30" s="1">
         <v>0.1</v>
       </c>
-      <c r="P28" s="1">
+      <c r="P30" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q30" s="1">
         <v>-53.4</v>
       </c>
-      <c r="R28" s="1">
+      <c r="R30" s="1">
         <v>3</v>
       </c>
-      <c r="S28" s="1">
+      <c r="S30" s="1">
         <v>-234.5</v>
       </c>
-      <c r="T28" s="1">
+      <c r="T30" s="1">
         <v>7.2</v>
       </c>
-      <c r="U28" s="1">
+      <c r="U30" s="1">
         <v>14.9</v>
       </c>
-      <c r="V28" s="1">
+      <c r="V30" s="1">
         <v>0.6</v>
       </c>
-      <c r="W28" s="1">
+      <c r="W30" s="1">
         <v>669</v>
       </c>
-      <c r="X28" s="1">
+      <c r="X30" s="1">
         <v>71.099999999999994</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Y30" s="1">
         <v>1987.7</v>
       </c>
-      <c r="Z28" s="1">
+      <c r="Z30" s="1">
         <v>18.2</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AA30" s="1">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+    <row r="31" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A31" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E31" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__P5C3</v>
       </c>
-      <c r="H29" s="8" t="s">
+      <c r="H31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="23"/>
-      <c r="J29" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K29" s="1" t="s">
+      <c r="I31" s="23"/>
+      <c r="J31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L29" s="1">
+      <c r="L31" s="1">
         <v>-105.4</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M31" s="1">
         <v>1.3</v>
       </c>
-      <c r="N29" s="1">
+      <c r="N31" s="1">
         <v>81</v>
       </c>
-      <c r="O29" s="1">
+      <c r="O31" s="1">
         <v>17.7</v>
       </c>
-      <c r="P29" s="1">
+      <c r="P31" s="1">
         <v>0</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q31" s="1">
         <v>-77.400000000000006</v>
       </c>
-      <c r="R29" s="1">
+      <c r="R31" s="1">
         <v>2.6</v>
       </c>
-      <c r="S29" s="1">
+      <c r="S31" s="1">
         <v>-361.4</v>
       </c>
-      <c r="T29" s="1">
+      <c r="T31" s="1">
         <v>22.6</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U31" s="1">
         <v>6.9</v>
       </c>
-      <c r="V29" s="1">
+      <c r="V31" s="1">
         <v>4.5</v>
       </c>
-      <c r="W29" s="1">
+      <c r="W31" s="1">
         <v>373.5</v>
       </c>
-      <c r="X29" s="1">
+      <c r="X31" s="1">
         <v>30.7</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Y31" s="1">
         <v>2520</v>
       </c>
-      <c r="Z29" s="1">
+      <c r="Z31" s="1">
         <v>107.9</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AA31" s="1">
         <v>-1.3</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+    <row r="32" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A32" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="1" t="str">
+      <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__EY6A</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K30" s="1" t="s">
+      <c r="I32" s="23"/>
+      <c r="J32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L30" s="1">
+      <c r="L32" s="1">
         <v>-114.8</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M32" s="1">
         <v>6.9</v>
       </c>
-      <c r="N30" s="1">
+      <c r="N32" s="1">
         <v>37</v>
       </c>
-      <c r="O30" s="1">
+      <c r="O32" s="1">
         <v>0.7</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P32" s="1">
         <v>0.8</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q32" s="1">
         <v>-73.599999999999994</v>
       </c>
-      <c r="R30" s="1">
+      <c r="R32" s="1">
         <v>3.2</v>
       </c>
-      <c r="S30" s="1">
+      <c r="S32" s="1">
         <v>-333.7</v>
       </c>
-      <c r="T30" s="1">
+      <c r="T32" s="1">
         <v>9</v>
       </c>
-      <c r="U30" s="1">
+      <c r="U32" s="1">
         <v>-2</v>
       </c>
-      <c r="V30" s="1">
+      <c r="V32" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="W30" s="1">
+      <c r="W32" s="1">
         <v>275.5</v>
       </c>
-      <c r="X30" s="1">
+      <c r="X32" s="1">
         <v>47.1</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Y32" s="1">
         <v>2373.9</v>
       </c>
-      <c r="Z30" s="1">
+      <c r="Z32" s="1">
         <v>83.3</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AA32" s="1">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+    <row r="33" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A33" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="1" t="str">
+      <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
         <v>BM_1_1_1__COVOX-150</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I31" s="23"/>
-      <c r="J31" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K31" s="1" t="s">
+      <c r="I33" s="23"/>
+      <c r="J33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L31" s="1">
+      <c r="L33" s="1">
         <v>-132.80000000000001</v>
       </c>
-      <c r="M31" s="1">
+      <c r="M33" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N31" s="1">
+      <c r="N33" s="1">
         <v>16</v>
       </c>
-      <c r="O31" s="1">
+      <c r="O33" s="1">
         <v>0.4</v>
       </c>
-      <c r="P31" s="1">
+      <c r="P33" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q31" s="1">
+      <c r="Q33" s="1">
         <v>-82.7</v>
       </c>
-      <c r="R31" s="1">
+      <c r="R33" s="1">
         <v>4.3</v>
       </c>
-      <c r="S31" s="1">
+      <c r="S33" s="1">
         <v>-334.8</v>
       </c>
-      <c r="T31" s="1">
+      <c r="T33" s="1">
         <v>15.6</v>
       </c>
-      <c r="U31" s="1">
+      <c r="U33" s="1">
         <v>14.4</v>
       </c>
-      <c r="V31" s="1">
+      <c r="V33" s="1">
         <v>2.4</v>
       </c>
-      <c r="W31" s="1">
+      <c r="W33" s="1">
         <v>312.39999999999998</v>
       </c>
-      <c r="X31" s="1">
+      <c r="X33" s="1">
         <v>41.1</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Y33" s="1">
         <v>2493.1999999999998</v>
       </c>
-      <c r="Z31" s="1">
+      <c r="Z33" s="1">
         <v>64.3</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AA33" s="1">
         <v>-2</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+    <row r="34" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>BM_1_1_1__LY-CoV555</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I34" s="23"/>
+      <c r="J34" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="1" t="str">
+      <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__LY-CoV1404</v>
       </c>
-      <c r="H32" s="8" t="s">
+      <c r="H35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="23"/>
-      <c r="J32" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K32" s="1" t="s">
+      <c r="I35" s="23"/>
+      <c r="J35" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L32" s="1">
+      <c r="L35" s="1">
         <v>-109.1</v>
       </c>
-      <c r="M32" s="1">
+      <c r="M35" s="1">
         <v>8.5</v>
       </c>
-      <c r="N32" s="1">
+      <c r="N35" s="1">
         <v>16</v>
       </c>
-      <c r="O32" s="1">
+      <c r="O35" s="1">
         <v>0.4</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P35" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q35" s="1">
         <v>-74</v>
       </c>
-      <c r="R32" s="1">
+      <c r="R35" s="1">
         <v>3</v>
       </c>
-      <c r="S32" s="1">
+      <c r="S35" s="1">
         <v>-291.8</v>
       </c>
-      <c r="T32" s="1">
+      <c r="T35" s="1">
         <v>17.3</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U35" s="1">
         <v>-4.5</v>
       </c>
-      <c r="V32" s="1">
+      <c r="V35" s="1">
         <v>3.5</v>
       </c>
-      <c r="W32" s="1">
+      <c r="W35" s="1">
         <v>276.89999999999998</v>
       </c>
-      <c r="X32" s="1">
+      <c r="X35" s="1">
         <v>49</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Y35" s="1">
         <v>2454.9</v>
       </c>
-      <c r="Z32" s="1">
+      <c r="Z35" s="1">
         <v>65.099999999999994</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AA35" s="1">
         <v>-1.4</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
+    <row r="36" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="1" t="str">
+      <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__AZD1061</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="H36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="23"/>
-      <c r="J33" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K33" s="1" t="s">
+      <c r="I36" s="23"/>
+      <c r="J36" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L33" s="1">
+      <c r="L36" s="1">
         <v>-100.2</v>
       </c>
-      <c r="M33" s="1">
+      <c r="M36" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="N33" s="1">
+      <c r="N36" s="1">
         <v>39</v>
       </c>
-      <c r="O33" s="1">
+      <c r="O36" s="1">
         <v>0.5</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P36" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="Q36" s="1">
         <v>-83.5</v>
       </c>
-      <c r="R33" s="1">
+      <c r="R36" s="1">
         <v>8.1</v>
       </c>
-      <c r="S33" s="1">
+      <c r="S36" s="1">
         <v>-300.60000000000002</v>
       </c>
-      <c r="T33" s="1">
+      <c r="T36" s="1">
         <v>36.4</v>
       </c>
-      <c r="U33" s="1">
+      <c r="U36" s="1">
         <v>-0.7</v>
       </c>
-      <c r="V33" s="1">
+      <c r="V36" s="1">
         <v>3.4</v>
       </c>
-      <c r="W33" s="1">
+      <c r="W36" s="1">
         <v>441.6</v>
       </c>
-      <c r="X33" s="1">
+      <c r="X36" s="1">
         <v>43.2</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Y36" s="1">
         <v>2495.8000000000002</v>
       </c>
-      <c r="Z33" s="1">
+      <c r="Z36" s="1">
         <v>61</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AA36" s="1">
         <v>-1.8</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+    <row r="37" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F37" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="1" t="str">
+      <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__AZD8895</v>
       </c>
-      <c r="H34" s="8" t="s">
+      <c r="H37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="23"/>
-      <c r="J34" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K34" s="1" t="s">
+      <c r="I37" s="23"/>
+      <c r="J37" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L34" s="1">
+      <c r="L37" s="1">
         <v>-123.8</v>
       </c>
-      <c r="M34" s="1">
+      <c r="M37" s="1">
         <v>6.9</v>
       </c>
-      <c r="N34" s="1">
+      <c r="N37" s="1">
         <v>94</v>
       </c>
-      <c r="O34" s="1">
+      <c r="O37" s="1">
         <v>0.3</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P37" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q37" s="1">
         <v>-90.7</v>
       </c>
-      <c r="R34" s="1">
+      <c r="R37" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="S34" s="1">
+      <c r="S37" s="1">
         <v>-256.3</v>
       </c>
-      <c r="T34" s="1">
+      <c r="T37" s="1">
         <v>22.6</v>
       </c>
-      <c r="U34" s="1">
+      <c r="U37" s="1">
         <v>-5.5</v>
       </c>
-      <c r="V34" s="1">
+      <c r="V37" s="1">
         <v>2.8</v>
       </c>
-      <c r="W34" s="1">
+      <c r="W37" s="1">
         <v>237</v>
       </c>
-      <c r="X34" s="1">
+      <c r="X37" s="1">
         <v>89.8</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Y37" s="1">
         <v>2470.8000000000002</v>
       </c>
-      <c r="Z34" s="1">
+      <c r="Z37" s="1">
         <v>53.5</v>
       </c>
-      <c r="AA34" s="1">
+      <c r="AA37" s="1">
         <v>-2.2999999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
+    <row r="38" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="1" t="str">
+      <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__58G6</v>
       </c>
-      <c r="H35" s="8" t="s">
+      <c r="H38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="23"/>
-      <c r="J35" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="s">
+      <c r="I38" s="23"/>
+      <c r="J38" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L35" s="1">
+      <c r="L38" s="1">
         <v>-98</v>
       </c>
-      <c r="M35" s="1">
+      <c r="M38" s="1">
         <v>2.7</v>
       </c>
-      <c r="N35" s="1">
+      <c r="N38" s="1">
         <v>27</v>
       </c>
-      <c r="O35" s="1">
-        <v>1</v>
-      </c>
-      <c r="P35" s="1">
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="1">
         <v>0.6</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q38" s="1">
         <v>-84.5</v>
       </c>
-      <c r="R35" s="1">
+      <c r="R38" s="1">
         <v>3.1</v>
       </c>
-      <c r="S35" s="1">
+      <c r="S38" s="1">
         <v>-197.2</v>
       </c>
-      <c r="T35" s="1">
+      <c r="T38" s="1">
         <v>12.3</v>
       </c>
-      <c r="U35" s="1">
+      <c r="U38" s="1">
         <v>-6.2</v>
       </c>
-      <c r="V35" s="1">
+      <c r="V38" s="1">
         <v>2.6</v>
       </c>
-      <c r="W35" s="1">
+      <c r="W38" s="1">
         <v>321.39999999999998</v>
       </c>
-      <c r="X35" s="1">
+      <c r="X38" s="1">
         <v>24.6</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Y38" s="1">
         <v>2400</v>
       </c>
-      <c r="Z35" s="1">
+      <c r="Z38" s="1">
         <v>67.7</v>
       </c>
-      <c r="AA35" s="1">
+      <c r="AA38" s="1">
         <v>-2.6</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="39" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A39" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F39" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="1" t="str">
+      <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__CV38-142</v>
       </c>
-      <c r="H36" s="8" t="s">
+      <c r="H39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="23"/>
-      <c r="J36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K36" s="1" t="s">
+      <c r="I39" s="23"/>
+      <c r="J39" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L36" s="1">
+      <c r="L39" s="1">
         <v>-106</v>
       </c>
-      <c r="M36" s="1">
+      <c r="M39" s="1">
         <v>4.3</v>
       </c>
-      <c r="N36" s="1">
+      <c r="N39" s="1">
         <v>22</v>
       </c>
-      <c r="O36" s="1">
+      <c r="O39" s="1">
         <v>1.7</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P39" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q36" s="1">
+      <c r="Q39" s="1">
         <v>-79.3</v>
       </c>
-      <c r="R36" s="1">
+      <c r="R39" s="1">
         <v>5.3</v>
       </c>
-      <c r="S36" s="1">
+      <c r="S39" s="1">
         <v>-225.4</v>
       </c>
-      <c r="T36" s="1">
+      <c r="T39" s="1">
         <v>47.3</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U39" s="1">
         <v>-6.3</v>
       </c>
-      <c r="V36" s="1">
+      <c r="V39" s="1">
         <v>3.3</v>
       </c>
-      <c r="W36" s="1">
+      <c r="W39" s="1">
         <v>247.8</v>
       </c>
-      <c r="X36" s="1">
+      <c r="X39" s="1">
         <v>32.200000000000003</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Y39" s="1">
         <v>2260.6999999999998</v>
       </c>
-      <c r="Z36" s="1">
+      <c r="Z39" s="1">
         <v>48.5</v>
       </c>
-      <c r="AA36" s="1">
+      <c r="AA39" s="1">
         <v>-1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="11" t="s">
+    <row r="40" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+      <c r="A40" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E40" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F40" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="1" t="str">
+      <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__C110</v>
       </c>
-      <c r="H37" s="8" t="s">
+      <c r="H40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="23"/>
-      <c r="J37" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K37" s="1" t="s">
+      <c r="I40" s="23"/>
+      <c r="J40" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L37" s="1">
+      <c r="L40" s="1">
         <v>-123.6</v>
       </c>
-      <c r="M37" s="1">
+      <c r="M40" s="1">
         <v>0.4</v>
       </c>
-      <c r="N37" s="1">
+      <c r="N40" s="1">
         <v>142</v>
       </c>
-      <c r="O37" s="1">
+      <c r="O40" s="1">
         <v>0.5</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P40" s="1">
         <v>0.3</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q40" s="1">
         <v>-84.3</v>
       </c>
-      <c r="R37" s="1">
+      <c r="R40" s="1">
         <v>3.9</v>
       </c>
-      <c r="S37" s="1">
+      <c r="S40" s="1">
         <v>-255.4</v>
       </c>
-      <c r="T37" s="1">
+      <c r="T40" s="1">
         <v>31.2</v>
       </c>
-      <c r="U37" s="1">
+      <c r="U40" s="1">
         <v>-12.1</v>
       </c>
-      <c r="V37" s="1">
+      <c r="V40" s="1">
         <v>2.4</v>
       </c>
-      <c r="W37" s="1">
+      <c r="W40" s="1">
         <v>238.1</v>
       </c>
-      <c r="X37" s="1">
+      <c r="X40" s="1">
         <v>29.1</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Y40" s="1">
         <v>2213.5</v>
       </c>
-      <c r="Z37" s="1">
+      <c r="Z40" s="1">
         <v>43.2</v>
       </c>
-      <c r="AA37" s="1">
+      <c r="AA40" s="1">
         <v>-0.8</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+    <row r="41" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="1" t="str">
+      <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__Omi-9</v>
       </c>
-      <c r="H38" s="8" t="s">
+      <c r="H41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="23"/>
-      <c r="J38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K38" s="1" t="s">
+      <c r="I41" s="23"/>
+      <c r="J41" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L38" s="1">
+      <c r="L41" s="1">
         <v>-39.799999999999997</v>
       </c>
-      <c r="M38" s="1">
+      <c r="M41" s="1">
         <v>8.1</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N41" s="1">
         <v>8</v>
       </c>
-      <c r="O38" s="1">
+      <c r="O41" s="1">
         <v>0.2</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P41" s="1">
         <v>0.1</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q41" s="1">
         <v>-53.8</v>
       </c>
-      <c r="R38" s="1">
+      <c r="R41" s="1">
         <v>2.8</v>
       </c>
-      <c r="S38" s="1">
+      <c r="S41" s="1">
         <v>-118.7</v>
       </c>
-      <c r="T38" s="1">
+      <c r="T41" s="1">
         <v>6.6</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U41" s="1">
         <v>-25.3</v>
       </c>
-      <c r="V38" s="1">
+      <c r="V41" s="1">
         <v>1.8</v>
       </c>
-      <c r="W38" s="1">
+      <c r="W41" s="1">
         <v>630.6</v>
       </c>
-      <c r="X38" s="1">
+      <c r="X41" s="1">
         <v>59.3</v>
       </c>
-      <c r="Y38" s="1">
+      <c r="Y41" s="1">
         <v>2052.5</v>
       </c>
-      <c r="Z38" s="1">
+      <c r="Z41" s="1">
         <v>14.2</v>
       </c>
-      <c r="AA38" s="1">
+      <c r="AA41" s="1">
         <v>-1.7</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+    <row r="42" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+      <c r="A42" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F42" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="1" t="str">
+      <c r="G42" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__P5C3</v>
       </c>
-      <c r="H39" s="8" t="s">
+      <c r="H42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I39" s="23"/>
-      <c r="J39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K39" s="1" t="s">
+      <c r="I42" s="23"/>
+      <c r="J42" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L42" s="1">
         <v>-95.7</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M42" s="1">
         <v>3.4</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N42" s="1">
         <v>40</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O42" s="1">
         <v>1.3</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P42" s="1">
         <v>1.2</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q42" s="1">
         <v>-89.6</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R42" s="1">
         <v>2.9</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S42" s="1">
         <v>-200.2</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T42" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U42" s="1">
         <v>-13.5</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V42" s="1">
         <v>6</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W42" s="1">
         <v>474.2</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X42" s="1">
         <v>74.2</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y42" s="1">
         <v>2401.9</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="Z42" s="1">
         <v>37.4</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AA42" s="1">
         <v>-1.2</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="43" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A43" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="1" t="str">
+      <c r="G43" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__EY6A</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I40" s="23"/>
-      <c r="J40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K40" s="1" t="s">
+      <c r="I43" s="23"/>
+      <c r="J43" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L40" s="1">
+      <c r="L43" s="1">
         <v>-170.5</v>
       </c>
-      <c r="M40" s="1">
+      <c r="M43" s="1">
         <v>9.3000000000000007</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N43" s="1">
         <v>91</v>
       </c>
-      <c r="O40" s="1">
+      <c r="O43" s="1">
         <v>0.4</v>
       </c>
-      <c r="P40" s="1">
+      <c r="P43" s="1">
         <v>0.2</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q43" s="1">
         <v>-111.1</v>
       </c>
-      <c r="R40" s="1">
+      <c r="R43" s="1">
         <v>8.8000000000000007</v>
       </c>
-      <c r="S40" s="1">
+      <c r="S43" s="1">
         <v>-353.6</v>
       </c>
-      <c r="T40" s="1">
+      <c r="T43" s="1">
         <v>18</v>
       </c>
-      <c r="U40" s="1">
+      <c r="U43" s="1">
         <v>-14.4</v>
       </c>
-      <c r="V40" s="1">
+      <c r="V43" s="1">
         <v>2.8</v>
       </c>
-      <c r="W40" s="1">
+      <c r="W43" s="1">
         <v>258.3</v>
       </c>
-      <c r="X40" s="1">
+      <c r="X43" s="1">
         <v>30.2</v>
       </c>
-      <c r="Y40" s="1">
+      <c r="Y43" s="1">
         <v>2862.4</v>
       </c>
-      <c r="Z40" s="1">
+      <c r="Z43" s="1">
         <v>69.099999999999994</v>
       </c>
-      <c r="AA40" s="1">
+      <c r="AA43" s="1">
         <v>-2.5</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+    <row r="44" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A44" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F44" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="1" t="str">
+      <c r="G44" s="1" t="str">
         <f t="shared" si="1"/>
         <v>XBB_1_5__COVOX-150</v>
       </c>
-      <c r="H41" s="8" t="s">
+      <c r="H44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I41" s="23"/>
-      <c r="J41" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K41" s="1" t="s">
+      <c r="I44" s="23"/>
+      <c r="J44" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="L41" s="1">
+      <c r="L44" s="1">
         <v>-119.2</v>
       </c>
-      <c r="M41" s="1">
+      <c r="M44" s="1">
         <v>6</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N44" s="1">
         <v>111</v>
       </c>
-      <c r="O41" s="1">
+      <c r="O44" s="1">
         <v>0.5</v>
       </c>
-      <c r="P41" s="1">
+      <c r="P44" s="1">
         <v>0.4</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q44" s="1">
         <v>-82</v>
       </c>
-      <c r="R41" s="1">
+      <c r="R44" s="1">
         <v>2.9</v>
       </c>
-      <c r="S41" s="1">
+      <c r="S44" s="1">
         <v>-214.8</v>
       </c>
-      <c r="T41" s="1">
+      <c r="T44" s="1">
         <v>32.6</v>
       </c>
-      <c r="U41" s="1">
+      <c r="U44" s="1">
         <v>-22.8</v>
       </c>
-      <c r="V41" s="1">
+      <c r="V44" s="1">
         <v>2.1</v>
       </c>
-      <c r="W41" s="1">
+      <c r="W44" s="1">
         <v>285.7</v>
       </c>
-      <c r="X41" s="1">
+      <c r="X44" s="1">
         <v>48.3</v>
       </c>
-      <c r="Y41" s="1">
+      <c r="Y44" s="1">
         <v>2319</v>
       </c>
-      <c r="Z41" s="1">
+      <c r="Z44" s="1">
         <v>79.3</v>
       </c>
-      <c r="AA41" s="1">
+      <c r="AA44" s="1">
         <v>-1.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+      <c r="A45" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>XBB_1_5__LY-CoV555</v>
+      </c>
+      <c r="H45" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="I45" s="23"/>
+      <c r="J45" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I41"/>
+    <mergeCell ref="I2:I45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4247,9 +4390,9 @@
       <selection activeCell="J2" sqref="J2:AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4332,7 +4475,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="375" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="395" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -4412,7 +4555,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -4492,7 +4635,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="330" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="350" x14ac:dyDescent="0.2">
       <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
@@ -4572,7 +4715,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="375" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" ht="395" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
@@ -4652,7 +4795,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
@@ -4732,7 +4875,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="330" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="350" x14ac:dyDescent="0.2">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colby/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5760A6C-6899-7F44-AD04-64ADDA22AD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D6ADB-1A6D-2948-A0E5-A0B492FF29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20060" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="93">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -512,11 +512,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,10 +845,10 @@
   <dimension ref="A1:AA45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J46" sqref="J46"/>
+      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -992,7 +992,7 @@
       <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="24" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -1076,7 +1076,7 @@
       <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
@@ -1158,7 +1158,7 @@
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1240,7 +1240,7 @@
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1322,7 +1322,7 @@
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1404,7 +1404,7 @@
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1486,7 +1486,7 @@
       <c r="H8" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
@@ -1568,7 +1568,7 @@
       <c r="H9" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1650,7 +1650,7 @@
       <c r="H10" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="H11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
@@ -1789,7 +1789,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1814,9 +1814,60 @@
       <c r="H12" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-105.1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="N12" s="1">
+        <v>11</v>
+      </c>
+      <c r="O12" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-87.8</v>
+      </c>
+      <c r="R12" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-237.1</v>
+      </c>
+      <c r="T12" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-12</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>420.5</v>
+      </c>
+      <c r="X12" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2498.1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
@@ -1845,7 +1896,7 @@
       <c r="H13" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
@@ -1927,7 +1978,7 @@
       <c r="H14" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
@@ -2009,7 +2060,7 @@
       <c r="H15" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
@@ -2091,7 +2142,7 @@
       <c r="H16" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
@@ -2173,7 +2224,7 @@
       <c r="H17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
@@ -2255,7 +2306,7 @@
       <c r="H18" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
@@ -2337,7 +2388,7 @@
       <c r="H19" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="1" t="b">
         <v>1</v>
       </c>
@@ -2419,7 +2470,7 @@
       <c r="H20" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
@@ -2501,7 +2552,7 @@
       <c r="H21" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="1" t="b">
         <v>1</v>
       </c>
@@ -2583,7 +2634,7 @@
       <c r="H22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
@@ -2640,7 +2691,7 @@
       </c>
     </row>
     <row r="23" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2665,9 +2716,60 @@
       <c r="H23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-119.6</v>
+      </c>
+      <c r="M23" s="1">
+        <v>8.9</v>
+      </c>
+      <c r="N23" s="1">
+        <v>41</v>
+      </c>
+      <c r="O23" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P23" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-93.9</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-162.5</v>
+      </c>
+      <c r="T23" s="1">
+        <v>36.5</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="V23" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="W23" s="1">
+        <v>400.6</v>
+      </c>
+      <c r="X23" s="1">
+        <v>53.2</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2684.9</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>144</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="48" x14ac:dyDescent="0.2">
@@ -2696,7 +2798,7 @@
       <c r="H24" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="24"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
@@ -2778,7 +2880,7 @@
       <c r="H25" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
@@ -2860,7 +2962,7 @@
       <c r="H26" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
@@ -2942,7 +3044,7 @@
       <c r="H27" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
@@ -3024,7 +3126,7 @@
       <c r="H28" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="24"/>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
@@ -3106,7 +3208,7 @@
       <c r="H29" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
@@ -3188,7 +3290,7 @@
       <c r="H30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
@@ -3270,7 +3372,7 @@
       <c r="H31" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
@@ -3352,7 +3454,7 @@
       <c r="H32" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="24"/>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
@@ -3434,7 +3536,7 @@
       <c r="H33" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
@@ -3491,7 +3593,7 @@
       </c>
     </row>
     <row r="34" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -3516,9 +3618,60 @@
       <c r="H34" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-88.1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="N34" s="1">
+        <v>34</v>
+      </c>
+      <c r="O34" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="P34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>-77.3</v>
+      </c>
+      <c r="R34" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-261.7</v>
+      </c>
+      <c r="T34" s="1">
+        <v>12.6</v>
+      </c>
+      <c r="U34" s="1">
+        <v>-1</v>
+      </c>
+      <c r="V34" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="W34" s="1">
+        <v>425</v>
+      </c>
+      <c r="X34" s="1">
+        <v>77.8</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>2498.6</v>
+      </c>
+      <c r="Z34" s="1">
+        <v>97.1</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="35" spans="1:27" ht="48" x14ac:dyDescent="0.2">
@@ -3547,7 +3700,7 @@
       <c r="H35" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
@@ -3629,7 +3782,7 @@
       <c r="H36" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
@@ -3711,7 +3864,7 @@
       <c r="H37" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
@@ -3793,7 +3946,7 @@
       <c r="H38" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
@@ -3875,7 +4028,7 @@
       <c r="H39" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
@@ -3957,7 +4110,7 @@
       <c r="H40" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="24"/>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
@@ -4039,7 +4192,7 @@
       <c r="H41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="1" t="b">
         <v>1</v>
       </c>
@@ -4121,7 +4274,7 @@
       <c r="H42" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="23"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="1" t="b">
         <v>1</v>
       </c>
@@ -4203,7 +4356,7 @@
       <c r="H43" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I43" s="23"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="1" t="b">
         <v>1</v>
       </c>
@@ -4285,7 +4438,7 @@
       <c r="H44" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I44" s="23"/>
+      <c r="I44" s="24"/>
       <c r="J44" s="1" t="b">
         <v>1</v>
       </c>
@@ -4342,7 +4495,7 @@
       </c>
     </row>
     <row r="45" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="24" t="s">
+      <c r="A45" s="23" t="s">
         <v>90</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4367,9 +4520,60 @@
       <c r="H45" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I45" s="23"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L45" s="1">
+        <v>-93.4</v>
+      </c>
+      <c r="M45" s="1">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N45" s="1">
+        <v>19</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>-87.3</v>
+      </c>
+      <c r="R45" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="S45" s="1">
+        <v>-168.2</v>
+      </c>
+      <c r="T45" s="1">
+        <v>18.7</v>
+      </c>
+      <c r="U45" s="1">
+        <v>-13</v>
+      </c>
+      <c r="V45" s="1">
+        <v>3</v>
+      </c>
+      <c r="W45" s="1">
+        <v>405.1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>53.6</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>2386</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>52.3</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>-1.4</v>
       </c>
     </row>
   </sheetData>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/colbyford/Documents/SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions/subvariants/XBB.1_recombination/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2D6ADB-1A6D-2948-A0E5-A0B492FF29DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82809110-767F-4AE1-BD8D-F3F3C8861479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="95">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -316,13 +316,19 @@
   </si>
   <si>
     <t>26,27,28,29,30,31,53,54,55,56,74,75,76,77,100,101,102,103,104,105,106,107,108,109,110,111,1026,1027,1028,1029,1030,1031,1032,1050,1051,1052,1053,1054,1055,1056,1057,1058,1059,1060,1061,1068,1069,1091,1092,1093,1094,1095,1096,1097</t>
+  </si>
+  <si>
+    <t>BJ_1_ref_38f62_relaxed_rank_001_alphafold2_ptm_model_1_seed_000_renumbered.pdb</t>
+  </si>
+  <si>
+    <t>BM_1_1_1_ref_88309_relaxed_rank_001_alphafold2_ptm_model_1_seed_000_renumbered.pdb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +360,14 @@
     <font>
       <strike/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -446,7 +460,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -500,9 +514,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -517,6 +528,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -842,48 +887,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9A0155A-1E79-46A6-BA76-B5BBE5928165}">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K46" sqref="K46"/>
+      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="71.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="36.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="36.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.1640625" style="1"/>
+    <col min="19" max="19" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -966,7 +1011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>34</v>
       </c>
@@ -992,7 +1037,7 @@
       <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="23" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -1050,7 +1095,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>35</v>
       </c>
@@ -1070,13 +1115,13 @@
         <v>71</v>
       </c>
       <c r="G3" s="1" t="str">
-        <f t="shared" ref="G3:G12" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
+        <f t="shared" ref="G3:G11" si="0">_xlfn.CONCAT(SUBSTITUTE(D3,".","_"),"__",A3)</f>
         <v>B_1_1_529__AZD1061</v>
       </c>
       <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
@@ -1132,7 +1177,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -1158,7 +1203,7 @@
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1214,7 +1259,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>57</v>
       </c>
@@ -1240,7 +1285,7 @@
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1296,7 +1341,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>58</v>
       </c>
@@ -1322,7 +1367,7 @@
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1378,7 +1423,7 @@
         <v>-2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>59</v>
       </c>
@@ -1404,7 +1449,7 @@
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1460,12 +1505,12 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>32</v>
@@ -1481,73 +1526,73 @@
       </c>
       <c r="G8" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B_1_1_529__Omi-9</v>
+        <v>B_1_1_529__P5C3</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="I8" s="23"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="L8" s="1">
-        <v>-54</v>
+        <v>-111.8</v>
       </c>
       <c r="M8" s="1">
-        <v>5.0999999999999996</v>
+        <v>3.9</v>
       </c>
       <c r="N8" s="1">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="O8" s="1">
-        <v>0.2</v>
+        <v>18</v>
       </c>
       <c r="P8" s="1">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="1">
-        <v>-55.7</v>
+        <v>-81.3</v>
       </c>
       <c r="R8" s="1">
-        <v>2.2999999999999998</v>
+        <v>7.1</v>
       </c>
       <c r="S8" s="1">
-        <v>-201</v>
+        <v>-304.10000000000002</v>
       </c>
       <c r="T8" s="1">
-        <v>4.8</v>
+        <v>12.7</v>
       </c>
       <c r="U8" s="1">
-        <v>-12.2</v>
+        <v>-6.5</v>
       </c>
       <c r="V8" s="1">
         <v>2.5</v>
       </c>
       <c r="W8" s="1">
-        <v>540.70000000000005</v>
+        <v>368.9</v>
       </c>
       <c r="X8" s="1">
-        <v>54.9</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="1">
-        <v>2109.4</v>
+        <v>2458.1999999999998</v>
       </c>
       <c r="Z8" s="1">
-        <v>48.7</v>
+        <v>156.69999999999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>32</v>
@@ -1563,12 +1608,12 @@
       </c>
       <c r="G9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B_1_1_529__P5C3</v>
+        <v>B_1_1_529__EY6A</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="I9" s="23"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1576,60 +1621,60 @@
         <v>44</v>
       </c>
       <c r="L9" s="1">
-        <v>-111.8</v>
+        <v>-158</v>
       </c>
       <c r="M9" s="1">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="N9" s="1">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="O9" s="1">
-        <v>18</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P9" s="1">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="Q9" s="1">
-        <v>-81.3</v>
+        <v>-92.4</v>
       </c>
       <c r="R9" s="1">
-        <v>7.1</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S9" s="1">
-        <v>-304.10000000000002</v>
+        <v>-375.6</v>
       </c>
       <c r="T9" s="1">
-        <v>12.7</v>
+        <v>12</v>
       </c>
       <c r="U9" s="1">
-        <v>-6.5</v>
+        <v>-12.2</v>
       </c>
       <c r="V9" s="1">
-        <v>2.5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>368.9</v>
+        <v>217.2</v>
       </c>
       <c r="X9" s="1">
-        <v>33</v>
+        <v>49.1</v>
       </c>
       <c r="Y9" s="1">
-        <v>2458.1999999999998</v>
+        <v>2555.5</v>
       </c>
       <c r="Z9" s="1">
-        <v>156.69999999999999</v>
+        <v>54.8</v>
       </c>
       <c r="AA9" s="1">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
@@ -1645,73 +1690,73 @@
       </c>
       <c r="G10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B_1_1_529__EY6A</v>
+        <v>B_1_1_529__COVOX-150</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I10" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="I10" s="23"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="L10" s="1">
-        <v>-158</v>
+        <v>-140.1</v>
       </c>
       <c r="M10" s="1">
-        <v>2.9</v>
+        <v>7.1</v>
       </c>
       <c r="N10" s="1">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="O10" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="P10" s="1">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="Q10" s="1">
-        <v>-92.4</v>
+        <v>-98.6</v>
       </c>
       <c r="R10" s="1">
-        <v>4.4000000000000004</v>
+        <v>6.9</v>
       </c>
       <c r="S10" s="1">
-        <v>-375.6</v>
+        <v>-198.3</v>
       </c>
       <c r="T10" s="1">
-        <v>12</v>
+        <v>26.8</v>
       </c>
       <c r="U10" s="1">
-        <v>-12.2</v>
+        <v>-25.5</v>
       </c>
       <c r="V10" s="1">
-        <v>4.0999999999999996</v>
+        <v>3.7</v>
       </c>
       <c r="W10" s="1">
-        <v>217.2</v>
+        <v>236.5</v>
       </c>
       <c r="X10" s="1">
-        <v>49.1</v>
+        <v>45</v>
       </c>
       <c r="Y10" s="1">
-        <v>2555.5</v>
+        <v>2613.3000000000002</v>
       </c>
       <c r="Z10" s="1">
-        <v>54.8</v>
+        <v>144.5</v>
       </c>
       <c r="AA10" s="1">
         <v>-1.9</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>32</v>
@@ -1727,155 +1772,104 @@
       </c>
       <c r="G11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B_1_1_529__COVOX-150</v>
+        <v>B_1_1_529__LY-CoV555</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="I11" s="23"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="L11" s="1">
-        <v>-140.1</v>
+        <v>-105.1</v>
       </c>
       <c r="M11" s="1">
-        <v>7.1</v>
+        <v>8.4</v>
       </c>
       <c r="N11" s="1">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="P11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>-87.8</v>
+      </c>
+      <c r="R11" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-237.1</v>
+      </c>
+      <c r="T11" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="U11" s="1">
+        <v>-12</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>420.5</v>
+      </c>
+      <c r="X11" s="1">
+        <v>61.2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>2498.1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="P11" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>-98.6</v>
-      </c>
-      <c r="R11" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="S11" s="1">
-        <v>-198.3</v>
-      </c>
-      <c r="T11" s="1">
-        <v>26.8</v>
-      </c>
-      <c r="U11" s="1">
-        <v>-25.5</v>
-      </c>
-      <c r="V11" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="W11" s="1">
-        <v>236.5</v>
-      </c>
-      <c r="X11" s="1">
-        <v>45</v>
-      </c>
-      <c r="Y11" s="1">
-        <v>2613.3000000000002</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>144.5</v>
-      </c>
-      <c r="AA11" s="1">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>70</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="G12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>B_1_1_529__LY-CoV555</v>
+        <f>_xlfn.CONCAT(SUBSTITUTE(D12,".","_"),"__",A12)</f>
+        <v>BJ_1__LY-CoV1404</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="I12" s="23"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="1">
-        <v>-105.1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>8.4</v>
-      </c>
-      <c r="N12" s="1">
-        <v>11</v>
-      </c>
-      <c r="O12" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="P12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>-87.8</v>
-      </c>
-      <c r="R12" s="1">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="S12" s="1">
-        <v>-237.1</v>
-      </c>
-      <c r="T12" s="1">
-        <v>14.3</v>
-      </c>
-      <c r="U12" s="1">
-        <v>-12</v>
-      </c>
-      <c r="V12" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="W12" s="1">
-        <v>420.5</v>
-      </c>
-      <c r="X12" s="1">
-        <v>61.2</v>
-      </c>
-      <c r="Y12" s="1">
-        <v>2498.1</v>
-      </c>
-      <c r="Z12" s="1">
-        <v>63.6</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
-        <v>34</v>
+    </row>
+    <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>32</v>
@@ -1884,80 +1878,29 @@
         <v>28</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G13" s="1" t="str">
         <f>_xlfn.CONCAT(SUBSTITUTE(D13,".","_"),"__",A13)</f>
-        <v>BJ_1__LY-CoV1404</v>
+        <v>BJ_1__AZD1061</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="I13" s="23"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L13" s="1">
-        <v>-115.4</v>
-      </c>
-      <c r="M13" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N13" s="1">
-        <v>11</v>
-      </c>
-      <c r="O13" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P13" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>-94.7</v>
-      </c>
-      <c r="R13" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="S13" s="1">
-        <v>-167.3</v>
-      </c>
-      <c r="T13" s="1">
-        <v>14.6</v>
-      </c>
-      <c r="U13" s="1">
-        <v>-33</v>
-      </c>
-      <c r="V13" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="W13" s="1">
-        <v>457.8</v>
-      </c>
-      <c r="X13" s="1">
-        <v>64.900000000000006</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>2612</v>
-      </c>
-      <c r="Z13" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="AA13" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>35</v>
+    </row>
+    <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>32</v>
@@ -1966,80 +1909,29 @@
         <v>28</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G14" s="1" t="str">
-        <f>_xlfn.CONCAT(SUBSTITUTE(D14,".","_"),"__",A14)</f>
-        <v>BJ_1__AZD1061</v>
+        <f t="shared" ref="G14:G41" si="1">_xlfn.CONCAT(SUBSTITUTE(D14,".","_"),"__",A14)</f>
+        <v>BJ_1__AZD8895</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="I14" s="23"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="1">
-        <v>-86.3</v>
-      </c>
-      <c r="M14" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="N14" s="1">
-        <v>29</v>
-      </c>
-      <c r="O14" s="1">
-        <v>17.7</v>
-      </c>
-      <c r="P14" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>-66.599999999999994</v>
-      </c>
-      <c r="R14" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="S14" s="1">
-        <v>-321.5</v>
-      </c>
-      <c r="T14" s="1">
-        <v>31.4</v>
-      </c>
-      <c r="U14" s="1">
-        <v>-9.1999999999999993</v>
-      </c>
-      <c r="V14" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="W14" s="1">
-        <v>538.29999999999995</v>
-      </c>
-      <c r="X14" s="1">
-        <v>55.5</v>
-      </c>
-      <c r="Y14" s="1">
-        <v>2445.9</v>
-      </c>
-      <c r="Z14" s="1">
-        <v>77.7</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>36</v>
+    </row>
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>32</v>
@@ -2048,80 +1940,29 @@
         <v>28</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G15" s="1" t="str">
-        <f t="shared" ref="G15:G45" si="1">_xlfn.CONCAT(SUBSTITUTE(D15,".","_"),"__",A15)</f>
-        <v>BJ_1__AZD8895</v>
+        <f t="shared" si="1"/>
+        <v>BJ_1__58G6</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="I15" s="23"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L15" s="1">
-        <v>-111.8</v>
-      </c>
-      <c r="M15" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="N15" s="1">
-        <v>9</v>
-      </c>
-      <c r="O15" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P15" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>-80.900000000000006</v>
-      </c>
-      <c r="R15" s="1">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="S15" s="1">
-        <v>-259.5</v>
-      </c>
-      <c r="T15" s="1">
-        <v>15.6</v>
-      </c>
-      <c r="U15" s="1">
-        <v>-8.5</v>
-      </c>
-      <c r="V15" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="W15" s="1">
-        <v>294.39999999999998</v>
-      </c>
-      <c r="X15" s="1">
-        <v>46</v>
-      </c>
-      <c r="Y15" s="1">
-        <v>2536.5</v>
-      </c>
-      <c r="Z15" s="1">
-        <v>195.9</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="10" t="s">
-        <v>57</v>
+    </row>
+    <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>32</v>
@@ -2130,80 +1971,29 @@
         <v>28</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__58G6</v>
+        <v>BJ_1__CV38-142</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I16" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="I16" s="23"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-121.8</v>
-      </c>
-      <c r="M16" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="N16" s="1">
-        <v>16</v>
-      </c>
-      <c r="O16" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P16" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>-91.1</v>
-      </c>
-      <c r="R16" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="S16" s="1">
-        <v>-213.7</v>
-      </c>
-      <c r="T16" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="U16" s="1">
-        <v>-18.5</v>
-      </c>
-      <c r="V16" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="W16" s="1">
-        <v>305.7</v>
-      </c>
-      <c r="X16" s="1">
-        <v>24.3</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>2412.4</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>92.2</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>58</v>
+    </row>
+    <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>32</v>
@@ -2212,80 +2002,29 @@
         <v>28</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__CV38-142</v>
+        <v>BJ_1__C110</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="I17" s="23"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L17" s="1">
-        <v>-114.1</v>
-      </c>
-      <c r="M17" s="1">
-        <v>8</v>
-      </c>
-      <c r="N17" s="1">
-        <v>7</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="P17" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="1">
-        <v>-90.2</v>
-      </c>
-      <c r="R17" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="S17" s="1">
-        <v>-211</v>
-      </c>
-      <c r="T17" s="1">
-        <v>35.299999999999997</v>
-      </c>
-      <c r="U17" s="1">
-        <v>-10.4</v>
-      </c>
-      <c r="V17" s="1">
-        <v>8.1</v>
-      </c>
-      <c r="W17" s="1">
-        <v>307</v>
-      </c>
-      <c r="X17" s="1">
-        <v>77.5</v>
-      </c>
-      <c r="Y17" s="1">
-        <v>2506.8000000000002</v>
-      </c>
-      <c r="Z17" s="1">
-        <v>86.6</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>59</v>
+    </row>
+    <row r="18" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>62</v>
+        <v>81</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>32</v>
@@ -2294,80 +2033,29 @@
         <v>28</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__C110</v>
+        <v>BJ_1__P5C3</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="I18" s="23"/>
       <c r="J18" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L18" s="1">
-        <v>-114.8</v>
-      </c>
-      <c r="M18" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="N18" s="1">
-        <v>6</v>
-      </c>
-      <c r="O18" s="1">
-        <v>15.1</v>
-      </c>
-      <c r="P18" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>-60.9</v>
-      </c>
-      <c r="R18" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="S18" s="1">
-        <v>-355.6</v>
-      </c>
-      <c r="T18" s="1">
-        <v>21.7</v>
-      </c>
-      <c r="U18" s="1">
-        <v>-15</v>
-      </c>
-      <c r="V18" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="W18" s="1">
-        <v>322</v>
-      </c>
-      <c r="X18" s="1">
-        <v>89</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>2307.3000000000002</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>63.1</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="19" t="s">
-        <v>76</v>
+    </row>
+    <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>32</v>
@@ -2376,80 +2064,29 @@
         <v>28</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__Omi-9</v>
+        <v>BJ_1__EY6A</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="I19" s="23"/>
       <c r="J19" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L19" s="1">
-        <v>-26.1</v>
-      </c>
-      <c r="M19" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="N19" s="1">
-        <v>5</v>
-      </c>
-      <c r="O19" s="1">
-        <v>11</v>
-      </c>
-      <c r="P19" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
-        <v>-31.4</v>
-      </c>
-      <c r="R19" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="S19" s="1">
-        <v>-164.1</v>
-      </c>
-      <c r="T19" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="U19" s="1">
-        <v>-21</v>
-      </c>
-      <c r="V19" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="W19" s="1">
-        <v>591.20000000000005</v>
-      </c>
-      <c r="X19" s="1">
-        <v>21.8</v>
-      </c>
-      <c r="Y19" s="1">
-        <v>1838.1</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>59.2</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A20" s="20" t="s">
-        <v>77</v>
+    </row>
+    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>32</v>
@@ -2458,80 +2095,29 @@
         <v>28</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__P5C3</v>
+        <v>BJ_1__COVOX-150</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="I20" s="23"/>
       <c r="J20" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L20" s="1">
-        <v>-90</v>
-      </c>
-      <c r="M20" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="N20" s="1">
-        <v>16</v>
-      </c>
-      <c r="O20" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="P20" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="Q20" s="1">
-        <v>-75.7</v>
-      </c>
-      <c r="R20" s="1">
-        <v>6.7</v>
-      </c>
-      <c r="S20" s="1">
-        <v>-266.39999999999998</v>
-      </c>
-      <c r="T20" s="1">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="U20" s="1">
-        <v>-6</v>
-      </c>
-      <c r="V20" s="1">
-        <v>1.7</v>
-      </c>
-      <c r="W20" s="1">
-        <v>449.7</v>
-      </c>
-      <c r="X20" s="1">
-        <v>40.9</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>2593.8000000000002</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>100.1</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="21" t="s">
-        <v>78</v>
+    </row>
+    <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>32</v>
@@ -2540,244 +2126,91 @@
         <v>28</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__EY6A</v>
+        <v>BJ_1__LY-CoV555</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="I21" s="23"/>
       <c r="J21" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K21" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L21" s="1">
-        <v>-135.30000000000001</v>
-      </c>
-      <c r="M21" s="1">
-        <v>8</v>
-      </c>
-      <c r="N21" s="1">
-        <v>8</v>
-      </c>
-      <c r="O21" s="1">
-        <v>21.5</v>
-      </c>
-      <c r="P21" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q21" s="1">
-        <v>-95.9</v>
-      </c>
-      <c r="R21" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="S21" s="1">
-        <v>-204</v>
-      </c>
-      <c r="T21" s="1">
-        <v>10.3</v>
-      </c>
-      <c r="U21" s="1">
-        <v>-21</v>
-      </c>
-      <c r="V21" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="W21" s="1">
-        <v>224</v>
-      </c>
-      <c r="X21" s="1">
-        <v>38.5</v>
-      </c>
-      <c r="Y21" s="1">
-        <v>2748.5</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>100</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="22" t="s">
-        <v>79</v>
+    </row>
+    <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__COVOX-150</v>
+        <v>BM_1_1_1__LY-CoV1404</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="I22" s="23"/>
       <c r="J22" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K22" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-127.1</v>
-      </c>
-      <c r="M22" s="1">
-        <v>5.6</v>
-      </c>
-      <c r="N22" s="1">
-        <v>7</v>
-      </c>
-      <c r="O22" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P22" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>-100.8</v>
-      </c>
-      <c r="R22" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="S22" s="1">
-        <v>-176</v>
-      </c>
-      <c r="T22" s="1">
-        <v>25.8</v>
-      </c>
-      <c r="U22" s="1">
-        <v>-16.8</v>
-      </c>
-      <c r="V22" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="W22" s="1">
-        <v>256.89999999999998</v>
-      </c>
-      <c r="X22" s="1">
-        <v>27.2</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>2714.6</v>
-      </c>
-      <c r="Z22" s="1">
-        <v>53.3</v>
-      </c>
-      <c r="AA22" s="1">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>90</v>
+    </row>
+    <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BJ_1__LY-CoV555</v>
+        <v>BM_1_1_1__AZD1061</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I23" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="I23" s="23"/>
       <c r="J23" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="1">
-        <v>-119.6</v>
-      </c>
-      <c r="M23" s="1">
-        <v>8.9</v>
-      </c>
-      <c r="N23" s="1">
-        <v>41</v>
-      </c>
-      <c r="O23" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P23" s="1">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>-93.9</v>
-      </c>
-      <c r="R23" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="S23" s="1">
-        <v>-162.5</v>
-      </c>
-      <c r="T23" s="1">
-        <v>36.5</v>
-      </c>
-      <c r="U23" s="1">
-        <v>-33.299999999999997</v>
-      </c>
-      <c r="V23" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="W23" s="1">
-        <v>400.6</v>
-      </c>
-      <c r="X23" s="1">
-        <v>53.2</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>2684.9</v>
-      </c>
-      <c r="Z23" s="1">
-        <v>144</v>
-      </c>
-      <c r="AA23" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>34</v>
+    </row>
+    <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -2786,80 +2219,29 @@
         <v>29</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__LY-CoV1404</v>
+        <v>BM_1_1_1__AZD8895</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I24" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="I24" s="23"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L24" s="1">
-        <v>-103</v>
-      </c>
-      <c r="M24" s="1">
-        <v>6.1</v>
-      </c>
-      <c r="N24" s="1">
-        <v>38</v>
-      </c>
-      <c r="O24" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P24" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>-75.5</v>
-      </c>
-      <c r="R24" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="S24" s="1">
-        <v>-275.5</v>
-      </c>
-      <c r="T24" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="U24" s="1">
-        <v>-9.9</v>
-      </c>
-      <c r="V24" s="1">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="W24" s="1">
-        <v>375.3</v>
-      </c>
-      <c r="X24" s="1">
-        <v>34.5</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>2110.8000000000002</v>
-      </c>
-      <c r="Z24" s="1">
-        <v>36</v>
-      </c>
-      <c r="AA24" s="1">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="6" t="s">
-        <v>35</v>
+    </row>
+    <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>32</v>
@@ -2868,80 +2250,29 @@
         <v>29</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__AZD1061</v>
+        <v>BM_1_1_1__58G6</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I25" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="I25" s="23"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K25" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L25" s="1">
-        <v>-102.8</v>
-      </c>
-      <c r="M25" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="N25" s="1">
-        <v>119</v>
-      </c>
-      <c r="O25" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="P25" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>-80.099999999999994</v>
-      </c>
-      <c r="R25" s="1">
-        <v>7</v>
-      </c>
-      <c r="S25" s="1">
-        <v>-323.39999999999998</v>
-      </c>
-      <c r="T25" s="1">
-        <v>45</v>
-      </c>
-      <c r="U25" s="1">
-        <v>-6.8</v>
-      </c>
-      <c r="V25" s="1">
-        <v>1</v>
-      </c>
-      <c r="W25" s="1">
-        <v>487.2</v>
-      </c>
-      <c r="X25" s="1">
-        <v>82.7</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>2555.6999999999998</v>
-      </c>
-      <c r="Z25" s="1">
-        <v>39.200000000000003</v>
-      </c>
-      <c r="AA25" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>36</v>
+    </row>
+    <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>32</v>
@@ -2950,80 +2281,29 @@
         <v>29</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__AZD8895</v>
+        <v>BM_1_1_1__CV38-142</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I26" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="I26" s="23"/>
       <c r="J26" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K26" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L26" s="1">
-        <v>-100.2</v>
-      </c>
-      <c r="M26" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="N26" s="1">
-        <v>21</v>
-      </c>
-      <c r="O26" s="1">
-        <v>7.6</v>
-      </c>
-      <c r="P26" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>-76.400000000000006</v>
-      </c>
-      <c r="R26" s="1">
-        <v>1.8</v>
-      </c>
-      <c r="S26" s="1">
-        <v>-283.39999999999998</v>
-      </c>
-      <c r="T26" s="1">
-        <v>37.6</v>
-      </c>
-      <c r="U26" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="V26" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="W26" s="1">
-        <v>231.9</v>
-      </c>
-      <c r="X26" s="1">
-        <v>31.5</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>2413.3000000000002</v>
-      </c>
-      <c r="Z26" s="1">
-        <v>56</v>
-      </c>
-      <c r="AA26" s="1">
-        <v>-1.9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>57</v>
+    </row>
+    <row r="27" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>32</v>
@@ -3032,80 +2312,29 @@
         <v>29</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__58G6</v>
+        <v>BM_1_1_1__C110</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I27" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="I27" s="23"/>
       <c r="J27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L27" s="1">
-        <v>-90.4</v>
-      </c>
-      <c r="M27" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="N27" s="1">
-        <v>27</v>
-      </c>
-      <c r="O27" s="1">
-        <v>12.7</v>
-      </c>
-      <c r="P27" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>-62.4</v>
-      </c>
-      <c r="R27" s="1">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="S27" s="1">
-        <v>-313.3</v>
-      </c>
-      <c r="T27" s="1">
-        <v>18.3</v>
-      </c>
-      <c r="U27" s="1">
-        <v>10</v>
-      </c>
-      <c r="V27" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="W27" s="1">
-        <v>247</v>
-      </c>
-      <c r="X27" s="1">
-        <v>69</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>2199.5</v>
-      </c>
-      <c r="Z27" s="1">
-        <v>28.8</v>
-      </c>
-      <c r="AA27" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>58</v>
+    </row>
+    <row r="28" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>32</v>
@@ -3114,80 +2343,29 @@
         <v>29</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__CV38-142</v>
+        <v>BM_1_1_1__P5C3</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I28" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="I28" s="23"/>
       <c r="J28" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="L28" s="1">
-        <v>-96.6</v>
-      </c>
-      <c r="M28" s="1">
-        <v>10.6</v>
-      </c>
-      <c r="N28" s="1">
-        <v>16</v>
-      </c>
-      <c r="O28" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="P28" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q28" s="1">
-        <v>-68.400000000000006</v>
-      </c>
-      <c r="R28" s="1">
-        <v>5.9</v>
-      </c>
-      <c r="S28" s="1">
-        <v>-324.8</v>
-      </c>
-      <c r="T28" s="1">
-        <v>57.7</v>
-      </c>
-      <c r="U28" s="1">
-        <v>14.2</v>
-      </c>
-      <c r="V28" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="W28" s="1">
-        <v>225.3</v>
-      </c>
-      <c r="X28" s="1">
-        <v>41.7</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>2233.6999999999998</v>
-      </c>
-      <c r="Z28" s="1">
-        <v>110.5</v>
-      </c>
-      <c r="AA28" s="1">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A29" s="11" t="s">
-        <v>59</v>
+    </row>
+    <row r="29" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>32</v>
@@ -3196,80 +2374,29 @@
         <v>29</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G29" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__C110</v>
+        <v>BM_1_1_1__EY6A</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I29" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="I29" s="23"/>
       <c r="J29" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L29" s="1">
-        <v>-118.8</v>
-      </c>
-      <c r="M29" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="N29" s="1">
-        <v>41</v>
-      </c>
-      <c r="O29" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="P29" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q29" s="1">
-        <v>-62.7</v>
-      </c>
-      <c r="R29" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="S29" s="1">
-        <v>-433.4</v>
-      </c>
-      <c r="T29" s="1">
-        <v>24.8</v>
-      </c>
-      <c r="U29" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="V29" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="W29" s="1">
-        <v>215.2</v>
-      </c>
-      <c r="X29" s="1">
-        <v>62.6</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>2086</v>
-      </c>
-      <c r="Z29" s="1">
-        <v>31.6</v>
-      </c>
-      <c r="AA29" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>76</v>
+    </row>
+    <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>32</v>
@@ -3278,80 +2405,29 @@
         <v>29</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__Omi-9</v>
+        <v>BM_1_1_1__COVOX-150</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I30" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="I30" s="23"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="L30" s="1">
-        <v>-48.4</v>
-      </c>
-      <c r="M30" s="1">
-        <v>9.6</v>
-      </c>
-      <c r="N30" s="1">
-        <v>5</v>
-      </c>
-      <c r="O30" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="P30" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>-53.4</v>
-      </c>
-      <c r="R30" s="1">
-        <v>3</v>
-      </c>
-      <c r="S30" s="1">
-        <v>-234.5</v>
-      </c>
-      <c r="T30" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="U30" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="V30" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="W30" s="1">
-        <v>669</v>
-      </c>
-      <c r="X30" s="1">
-        <v>71.099999999999994</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>1987.7</v>
-      </c>
-      <c r="Z30" s="1">
-        <v>18.2</v>
-      </c>
-      <c r="AA30" s="1">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>77</v>
+    </row>
+    <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>32</v>
@@ -3360,265 +2436,214 @@
         <v>29</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__P5C3</v>
+        <v>BM_1_1_1__LY-CoV555</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I31" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="I31" s="23"/>
       <c r="J31" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L31" s="1">
-        <v>-105.4</v>
-      </c>
-      <c r="M31" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="N31" s="1">
-        <v>81</v>
-      </c>
-      <c r="O31" s="1">
-        <v>17.7</v>
-      </c>
-      <c r="P31" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>-77.400000000000006</v>
-      </c>
-      <c r="R31" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="S31" s="1">
-        <v>-361.4</v>
-      </c>
-      <c r="T31" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="U31" s="1">
-        <v>6.9</v>
-      </c>
-      <c r="V31" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="W31" s="1">
-        <v>373.5</v>
-      </c>
-      <c r="X31" s="1">
-        <v>30.7</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>2520</v>
-      </c>
-      <c r="Z31" s="1">
-        <v>107.9</v>
-      </c>
-      <c r="AA31" s="1">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="21" t="s">
-        <v>78</v>
+    </row>
+    <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__EY6A</v>
+        <v>XBB_1_5__LY-CoV1404</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I32" s="24"/>
+        <v>72</v>
+      </c>
+      <c r="I32" s="23"/>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="L32" s="1">
-        <v>-114.8</v>
+        <v>-109.1</v>
       </c>
       <c r="M32" s="1">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="N32" s="1">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="O32" s="1">
-        <v>0.7</v>
+        <v>0.4</v>
       </c>
       <c r="P32" s="1">
-        <v>0.8</v>
+        <v>0.2</v>
       </c>
       <c r="Q32" s="1">
-        <v>-73.599999999999994</v>
+        <v>-74</v>
       </c>
       <c r="R32" s="1">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="S32" s="1">
-        <v>-333.7</v>
+        <v>-291.8</v>
       </c>
       <c r="T32" s="1">
-        <v>9</v>
+        <v>17.3</v>
       </c>
       <c r="U32" s="1">
-        <v>-2</v>
+        <v>-4.5</v>
       </c>
       <c r="V32" s="1">
-        <v>2.2999999999999998</v>
+        <v>3.5</v>
       </c>
       <c r="W32" s="1">
-        <v>275.5</v>
+        <v>276.89999999999998</v>
       </c>
       <c r="X32" s="1">
-        <v>47.1</v>
+        <v>49</v>
       </c>
       <c r="Y32" s="1">
-        <v>2373.9</v>
+        <v>2454.9</v>
       </c>
       <c r="Z32" s="1">
-        <v>83.3</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="AA32" s="1">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A33" s="22" t="s">
-        <v>79</v>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G33" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__COVOX-150</v>
+        <v>XBB_1_5__AZD1061</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I33" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="I33" s="23"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="L33" s="1">
-        <v>-132.80000000000001</v>
+        <v>-100.2</v>
       </c>
       <c r="M33" s="1">
-        <v>2.2999999999999998</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="N33" s="1">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="O33" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P33" s="1">
         <v>0.4</v>
       </c>
-      <c r="P33" s="1">
-        <v>0.2</v>
-      </c>
       <c r="Q33" s="1">
-        <v>-82.7</v>
+        <v>-83.5</v>
       </c>
       <c r="R33" s="1">
-        <v>4.3</v>
+        <v>8.1</v>
       </c>
       <c r="S33" s="1">
-        <v>-334.8</v>
+        <v>-300.60000000000002</v>
       </c>
       <c r="T33" s="1">
-        <v>15.6</v>
+        <v>36.4</v>
       </c>
       <c r="U33" s="1">
-        <v>14.4</v>
+        <v>-0.7</v>
       </c>
       <c r="V33" s="1">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="W33" s="1">
-        <v>312.39999999999998</v>
+        <v>441.6</v>
       </c>
       <c r="X33" s="1">
-        <v>41.1</v>
+        <v>43.2</v>
       </c>
       <c r="Y33" s="1">
-        <v>2493.1999999999998</v>
+        <v>2495.8000000000002</v>
       </c>
       <c r="Z33" s="1">
-        <v>64.3</v>
+        <v>61</v>
       </c>
       <c r="AA33" s="1">
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>90</v>
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G34" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>BM_1_1_1__LY-CoV555</v>
+        <v>XBB_1_5__AZD8895</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I34" s="24"/>
+        <v>38</v>
+      </c>
+      <c r="I34" s="23"/>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
@@ -3626,60 +2651,60 @@
         <v>44</v>
       </c>
       <c r="L34" s="1">
-        <v>-88.1</v>
+        <v>-123.8</v>
       </c>
       <c r="M34" s="1">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="N34" s="1">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="O34" s="1">
-        <v>6.4</v>
+        <v>0.3</v>
       </c>
       <c r="P34" s="1">
         <v>0.2</v>
       </c>
       <c r="Q34" s="1">
-        <v>-77.3</v>
+        <v>-90.7</v>
       </c>
       <c r="R34" s="1">
-        <v>3.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="S34" s="1">
-        <v>-261.7</v>
+        <v>-256.3</v>
       </c>
       <c r="T34" s="1">
-        <v>12.6</v>
+        <v>22.6</v>
       </c>
       <c r="U34" s="1">
-        <v>-1</v>
+        <v>-5.5</v>
       </c>
       <c r="V34" s="1">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="W34" s="1">
-        <v>425</v>
+        <v>237</v>
       </c>
       <c r="X34" s="1">
-        <v>77.8</v>
+        <v>89.8</v>
       </c>
       <c r="Y34" s="1">
-        <v>2498.6</v>
+        <v>2470.8000000000002</v>
       </c>
       <c r="Z34" s="1">
-        <v>97.1</v>
+        <v>53.5</v>
       </c>
       <c r="AA34" s="1">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>32</v>
@@ -3695,73 +2720,73 @@
       </c>
       <c r="G35" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__LY-CoV1404</v>
+        <v>XBB_1_5__58G6</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="I35" s="24"/>
+        <v>60</v>
+      </c>
+      <c r="I35" s="23"/>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="L35" s="1">
-        <v>-109.1</v>
+        <v>-98</v>
       </c>
       <c r="M35" s="1">
-        <v>8.5</v>
+        <v>2.7</v>
       </c>
       <c r="N35" s="1">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="O35" s="1">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="Q35" s="1">
-        <v>-74</v>
+        <v>-84.5</v>
       </c>
       <c r="R35" s="1">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S35" s="1">
-        <v>-291.8</v>
+        <v>-197.2</v>
       </c>
       <c r="T35" s="1">
-        <v>17.3</v>
+        <v>12.3</v>
       </c>
       <c r="U35" s="1">
-        <v>-4.5</v>
+        <v>-6.2</v>
       </c>
       <c r="V35" s="1">
-        <v>3.5</v>
+        <v>2.6</v>
       </c>
       <c r="W35" s="1">
-        <v>276.89999999999998</v>
+        <v>321.39999999999998</v>
       </c>
       <c r="X35" s="1">
-        <v>49</v>
+        <v>24.6</v>
       </c>
       <c r="Y35" s="1">
-        <v>2454.9</v>
+        <v>2400</v>
       </c>
       <c r="Z35" s="1">
-        <v>65.099999999999994</v>
+        <v>67.7</v>
       </c>
       <c r="AA35" s="1">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A36" s="6" t="s">
-        <v>35</v>
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>32</v>
@@ -3777,73 +2802,73 @@
       </c>
       <c r="G36" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__AZD1061</v>
+        <v>XBB_1_5__CV38-142</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I36" s="24"/>
+        <v>64</v>
+      </c>
+      <c r="I36" s="23"/>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="L36" s="1">
-        <v>-100.2</v>
+        <v>-106</v>
       </c>
       <c r="M36" s="1">
-        <v>4.9000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="N36" s="1">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O36" s="1">
-        <v>0.5</v>
+        <v>1.7</v>
       </c>
       <c r="P36" s="1">
-        <v>0.4</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q36" s="1">
-        <v>-83.5</v>
+        <v>-79.3</v>
       </c>
       <c r="R36" s="1">
-        <v>8.1</v>
+        <v>5.3</v>
       </c>
       <c r="S36" s="1">
-        <v>-300.60000000000002</v>
+        <v>-225.4</v>
       </c>
       <c r="T36" s="1">
-        <v>36.4</v>
+        <v>47.3</v>
       </c>
       <c r="U36" s="1">
-        <v>-0.7</v>
+        <v>-6.3</v>
       </c>
       <c r="V36" s="1">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="W36" s="1">
-        <v>441.6</v>
+        <v>247.8</v>
       </c>
       <c r="X36" s="1">
-        <v>43.2</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="Y36" s="1">
-        <v>2495.8000000000002</v>
+        <v>2260.6999999999998</v>
       </c>
       <c r="Z36" s="1">
-        <v>61</v>
+        <v>48.5</v>
       </c>
       <c r="AA36" s="1">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>36</v>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>59</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>32</v>
@@ -3859,12 +2884,12 @@
       </c>
       <c r="G37" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__AZD8895</v>
+        <v>XBB_1_5__C110</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="I37" s="24"/>
+        <v>65</v>
+      </c>
+      <c r="I37" s="23"/>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
@@ -3872,60 +2897,60 @@
         <v>44</v>
       </c>
       <c r="L37" s="1">
-        <v>-123.8</v>
+        <v>-123.6</v>
       </c>
       <c r="M37" s="1">
-        <v>6.9</v>
+        <v>0.4</v>
       </c>
       <c r="N37" s="1">
-        <v>94</v>
+        <v>142</v>
       </c>
       <c r="O37" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P37" s="1">
         <v>0.3</v>
       </c>
-      <c r="P37" s="1">
-        <v>0.2</v>
-      </c>
       <c r="Q37" s="1">
-        <v>-90.7</v>
+        <v>-84.3</v>
       </c>
       <c r="R37" s="1">
-        <v>4.4000000000000004</v>
+        <v>3.9</v>
       </c>
       <c r="S37" s="1">
-        <v>-256.3</v>
+        <v>-255.4</v>
       </c>
       <c r="T37" s="1">
-        <v>22.6</v>
+        <v>31.2</v>
       </c>
       <c r="U37" s="1">
-        <v>-5.5</v>
+        <v>-12.1</v>
       </c>
       <c r="V37" s="1">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="W37" s="1">
-        <v>237</v>
+        <v>238.1</v>
       </c>
       <c r="X37" s="1">
-        <v>89.8</v>
+        <v>29.1</v>
       </c>
       <c r="Y37" s="1">
-        <v>2470.8000000000002</v>
+        <v>2213.5</v>
       </c>
       <c r="Z37" s="1">
-        <v>53.5</v>
+        <v>43.2</v>
       </c>
       <c r="AA37" s="1">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="10" t="s">
-        <v>57</v>
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>77</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>32</v>
@@ -3941,73 +2966,73 @@
       </c>
       <c r="G38" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__58G6</v>
+        <v>XBB_1_5__P5C3</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I38" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="I38" s="23"/>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="L38" s="1">
-        <v>-98</v>
+        <v>-95.7</v>
       </c>
       <c r="M38" s="1">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="N38" s="1">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="O38" s="1">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="P38" s="1">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="Q38" s="1">
-        <v>-84.5</v>
+        <v>-89.6</v>
       </c>
       <c r="R38" s="1">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="S38" s="1">
-        <v>-197.2</v>
+        <v>-200.2</v>
       </c>
       <c r="T38" s="1">
-        <v>12.3</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="U38" s="1">
-        <v>-6.2</v>
+        <v>-13.5</v>
       </c>
       <c r="V38" s="1">
-        <v>2.6</v>
+        <v>6</v>
       </c>
       <c r="W38" s="1">
-        <v>321.39999999999998</v>
+        <v>474.2</v>
       </c>
       <c r="X38" s="1">
-        <v>24.6</v>
+        <v>74.2</v>
       </c>
       <c r="Y38" s="1">
-        <v>2400</v>
+        <v>2401.9</v>
       </c>
       <c r="Z38" s="1">
-        <v>67.7</v>
+        <v>37.4</v>
       </c>
       <c r="AA38" s="1">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A39" s="12" t="s">
-        <v>58</v>
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>32</v>
@@ -4023,73 +3048,73 @@
       </c>
       <c r="G39" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__CV38-142</v>
+        <v>XBB_1_5__EY6A</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="I39" s="24"/>
+        <v>84</v>
+      </c>
+      <c r="I39" s="23"/>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="L39" s="1">
-        <v>-106</v>
+        <v>-170.5</v>
       </c>
       <c r="M39" s="1">
-        <v>4.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="N39" s="1">
-        <v>22</v>
+        <v>91</v>
       </c>
       <c r="O39" s="1">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="P39" s="1">
-        <v>1.1000000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="Q39" s="1">
-        <v>-79.3</v>
+        <v>-111.1</v>
       </c>
       <c r="R39" s="1">
-        <v>5.3</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="S39" s="1">
-        <v>-225.4</v>
+        <v>-353.6</v>
       </c>
       <c r="T39" s="1">
-        <v>47.3</v>
+        <v>18</v>
       </c>
       <c r="U39" s="1">
-        <v>-6.3</v>
+        <v>-14.4</v>
       </c>
       <c r="V39" s="1">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="W39" s="1">
-        <v>247.8</v>
+        <v>258.3</v>
       </c>
       <c r="X39" s="1">
-        <v>32.200000000000003</v>
+        <v>30.2</v>
       </c>
       <c r="Y39" s="1">
-        <v>2260.6999999999998</v>
+        <v>2862.4</v>
       </c>
       <c r="Z39" s="1">
-        <v>48.5</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="AA39" s="1">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A40" s="11" t="s">
-        <v>59</v>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>79</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>32</v>
@@ -4105,12 +3130,12 @@
       </c>
       <c r="G40" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__C110</v>
+        <v>XBB_1_5__COVOX-150</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I40" s="24"/>
+        <v>83</v>
+      </c>
+      <c r="I40" s="23"/>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
@@ -4118,60 +3143,60 @@
         <v>44</v>
       </c>
       <c r="L40" s="1">
-        <v>-123.6</v>
+        <v>-119.2</v>
       </c>
       <c r="M40" s="1">
-        <v>0.4</v>
+        <v>6</v>
       </c>
       <c r="N40" s="1">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="O40" s="1">
         <v>0.5</v>
       </c>
       <c r="P40" s="1">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="Q40" s="1">
-        <v>-84.3</v>
+        <v>-82</v>
       </c>
       <c r="R40" s="1">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="S40" s="1">
-        <v>-255.4</v>
+        <v>-214.8</v>
       </c>
       <c r="T40" s="1">
-        <v>31.2</v>
+        <v>32.6</v>
       </c>
       <c r="U40" s="1">
-        <v>-12.1</v>
+        <v>-22.8</v>
       </c>
       <c r="V40" s="1">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="W40" s="1">
-        <v>238.1</v>
+        <v>285.7</v>
       </c>
       <c r="X40" s="1">
-        <v>29.1</v>
+        <v>48.3</v>
       </c>
       <c r="Y40" s="1">
-        <v>2213.5</v>
+        <v>2319</v>
       </c>
       <c r="Z40" s="1">
-        <v>43.2</v>
+        <v>79.3</v>
       </c>
       <c r="AA40" s="1">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>76</v>
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>90</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>32</v>
@@ -4187,398 +3212,70 @@
       </c>
       <c r="G41" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>XBB_1_5__Omi-9</v>
+        <v>XBB_1_5__LY-CoV555</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I41" s="24"/>
+        <v>92</v>
+      </c>
+      <c r="I41" s="23"/>
       <c r="J41" s="1" t="b">
         <v>1</v>
       </c>
       <c r="K41" s="1" t="s">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="L41" s="1">
-        <v>-39.799999999999997</v>
+        <v>-93.4</v>
       </c>
       <c r="M41" s="1">
-        <v>8.1</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N41" s="1">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="O41" s="1">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="P41" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Q41" s="1">
-        <v>-53.8</v>
+        <v>-87.3</v>
       </c>
       <c r="R41" s="1">
-        <v>2.8</v>
+        <v>2.6</v>
       </c>
       <c r="S41" s="1">
-        <v>-118.7</v>
+        <v>-168.2</v>
       </c>
       <c r="T41" s="1">
-        <v>6.6</v>
+        <v>18.7</v>
       </c>
       <c r="U41" s="1">
-        <v>-25.3</v>
+        <v>-13</v>
       </c>
       <c r="V41" s="1">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="W41" s="1">
-        <v>630.6</v>
+        <v>405.1</v>
       </c>
       <c r="X41" s="1">
-        <v>59.3</v>
+        <v>53.6</v>
       </c>
       <c r="Y41" s="1">
-        <v>2052.5</v>
+        <v>2386</v>
       </c>
       <c r="Z41" s="1">
-        <v>14.2</v>
+        <v>52.3</v>
       </c>
       <c r="AA41" s="1">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>XBB_1_5__P5C3</v>
-      </c>
-      <c r="H42" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I42" s="24"/>
-      <c r="J42" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L42" s="1">
-        <v>-95.7</v>
-      </c>
-      <c r="M42" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="N42" s="1">
-        <v>40</v>
-      </c>
-      <c r="O42" s="1">
-        <v>1.3</v>
-      </c>
-      <c r="P42" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>-89.6</v>
-      </c>
-      <c r="R42" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="S42" s="1">
-        <v>-200.2</v>
-      </c>
-      <c r="T42" s="1">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="U42" s="1">
-        <v>-13.5</v>
-      </c>
-      <c r="V42" s="1">
-        <v>6</v>
-      </c>
-      <c r="W42" s="1">
-        <v>474.2</v>
-      </c>
-      <c r="X42" s="1">
-        <v>74.2</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>2401.9</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>37.4</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A43" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>XBB_1_5__EY6A</v>
-      </c>
-      <c r="H43" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="I43" s="24"/>
-      <c r="J43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K43" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="1">
-        <v>-170.5</v>
-      </c>
-      <c r="M43" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="N43" s="1">
-        <v>91</v>
-      </c>
-      <c r="O43" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.2</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>-111.1</v>
-      </c>
-      <c r="R43" s="1">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="S43" s="1">
-        <v>-353.6</v>
-      </c>
-      <c r="T43" s="1">
-        <v>18</v>
-      </c>
-      <c r="U43" s="1">
-        <v>-14.4</v>
-      </c>
-      <c r="V43" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="W43" s="1">
-        <v>258.3</v>
-      </c>
-      <c r="X43" s="1">
-        <v>30.2</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>2862.4</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>69.099999999999994</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A44" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>XBB_1_5__COVOX-150</v>
-      </c>
-      <c r="H44" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I44" s="24"/>
-      <c r="J44" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="1">
-        <v>-119.2</v>
-      </c>
-      <c r="M44" s="1">
-        <v>6</v>
-      </c>
-      <c r="N44" s="1">
-        <v>111</v>
-      </c>
-      <c r="O44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P44" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>-82</v>
-      </c>
-      <c r="R44" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="S44" s="1">
-        <v>-214.8</v>
-      </c>
-      <c r="T44" s="1">
-        <v>32.6</v>
-      </c>
-      <c r="U44" s="1">
-        <v>-22.8</v>
-      </c>
-      <c r="V44" s="1">
-        <v>2.1</v>
-      </c>
-      <c r="W44" s="1">
-        <v>285.7</v>
-      </c>
-      <c r="X44" s="1">
-        <v>48.3</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>2319</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>79.3</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>XBB_1_5__LY-CoV555</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="I45" s="24"/>
-      <c r="J45" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="L45" s="1">
-        <v>-93.4</v>
-      </c>
-      <c r="M45" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="N45" s="1">
-        <v>19</v>
-      </c>
-      <c r="O45" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="P45" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="Q45" s="1">
-        <v>-87.3</v>
-      </c>
-      <c r="R45" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="S45" s="1">
-        <v>-168.2</v>
-      </c>
-      <c r="T45" s="1">
-        <v>18.7</v>
-      </c>
-      <c r="U45" s="1">
-        <v>-13</v>
-      </c>
-      <c r="V45" s="1">
-        <v>3</v>
-      </c>
-      <c r="W45" s="1">
-        <v>405.1</v>
-      </c>
-      <c r="X45" s="1">
-        <v>53.6</v>
-      </c>
-      <c r="Y45" s="1">
-        <v>2386</v>
-      </c>
-      <c r="Z45" s="1">
-        <v>52.3</v>
-      </c>
-      <c r="AA45" s="1">
         <v>-1.4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I2:I45"/>
+    <mergeCell ref="I2:I41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4588,15 +3285,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55ED4777-D778-4DC9-8BB0-51DE5855A319}">
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:AA7"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="119.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="182" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" ht="184.5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +3379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="395" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>34</v>
       </c>
@@ -4759,7 +3459,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>35</v>
       </c>
@@ -4839,7 +3539,7 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="350" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>36</v>
       </c>
@@ -4919,7 +3619,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="395" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>34</v>
       </c>
@@ -4999,7 +3699,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>35</v>
       </c>
@@ -5079,7 +3779,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="350" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
@@ -5157,6 +3857,1979 @@
       </c>
       <c r="AA7" s="14">
         <v>-1.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(D8,".","_"),"__",A8)</f>
+        <v>XBB_1_5__Omi-9</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="14">
+        <v>-39.799999999999997</v>
+      </c>
+      <c r="M8" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="N8" s="14">
+        <v>8</v>
+      </c>
+      <c r="O8" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="P8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>-53.8</v>
+      </c>
+      <c r="R8" s="14">
+        <v>2.8</v>
+      </c>
+      <c r="S8" s="14">
+        <v>-118.7</v>
+      </c>
+      <c r="T8" s="14">
+        <v>6.6</v>
+      </c>
+      <c r="U8" s="14">
+        <v>-25.3</v>
+      </c>
+      <c r="V8" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="W8" s="14">
+        <v>630.6</v>
+      </c>
+      <c r="X8" s="14">
+        <v>59.3</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>2052.5</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="15"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+    </row>
+    <row r="10" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="G10" s="14" t="str">
+        <f t="shared" ref="G10:G11" si="0">_xlfn.CONCAT(SUBSTITUTE(D10,".","_"),"__",A10)</f>
+        <v>B_1_1_529__Omi-9</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L10" s="14">
+        <v>-54</v>
+      </c>
+      <c r="M10" s="14">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N10" s="14">
+        <v>12</v>
+      </c>
+      <c r="O10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="P10" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>-55.7</v>
+      </c>
+      <c r="R10" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S10" s="14">
+        <v>-201</v>
+      </c>
+      <c r="T10" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="U10" s="14">
+        <v>-12.2</v>
+      </c>
+      <c r="V10" s="14">
+        <v>2.5</v>
+      </c>
+      <c r="W10" s="14">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="X10" s="14">
+        <v>54.9</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>2109.4</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>48.7</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="14" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(D12,".","_"),"__",A12)</f>
+        <v>BJ_1__LY-CoV1404</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" s="14">
+        <v>-115.4</v>
+      </c>
+      <c r="M12" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="N12" s="14">
+        <v>11</v>
+      </c>
+      <c r="O12" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="P12" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>-94.7</v>
+      </c>
+      <c r="R12" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="S12" s="14">
+        <v>-167.3</v>
+      </c>
+      <c r="T12" s="14">
+        <v>14.6</v>
+      </c>
+      <c r="U12" s="14">
+        <v>-33</v>
+      </c>
+      <c r="V12" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="W12" s="14">
+        <v>457.8</v>
+      </c>
+      <c r="X12" s="14">
+        <v>64.900000000000006</v>
+      </c>
+      <c r="Y12" s="14">
+        <v>2612</v>
+      </c>
+      <c r="Z12" s="14">
+        <v>51.2</v>
+      </c>
+      <c r="AA12" s="14">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="14" t="str">
+        <f>_xlfn.CONCAT(SUBSTITUTE(D13,".","_"),"__",A13)</f>
+        <v>BJ_1__AZD1061</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="14">
+        <v>-86.3</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="N13" s="14">
+        <v>29</v>
+      </c>
+      <c r="O13" s="14">
+        <v>17.7</v>
+      </c>
+      <c r="P13" s="14">
+        <v>0.3</v>
+      </c>
+      <c r="Q13" s="14">
+        <v>-66.599999999999994</v>
+      </c>
+      <c r="R13" s="14">
+        <v>5.5</v>
+      </c>
+      <c r="S13" s="14">
+        <v>-321.5</v>
+      </c>
+      <c r="T13" s="14">
+        <v>31.4</v>
+      </c>
+      <c r="U13" s="14">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="V13" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="W13" s="14">
+        <v>538.29999999999995</v>
+      </c>
+      <c r="X13" s="14">
+        <v>55.5</v>
+      </c>
+      <c r="Y13" s="14">
+        <v>2445.9</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>77.7</v>
+      </c>
+      <c r="AA13" s="14">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="14" t="str">
+        <f t="shared" ref="G14:G22" si="1">_xlfn.CONCAT(SUBSTITUTE(D14,".","_"),"__",A14)</f>
+        <v>BJ_1__AZD8895</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L14" s="14">
+        <v>-111.8</v>
+      </c>
+      <c r="M14" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="N14" s="14">
+        <v>9</v>
+      </c>
+      <c r="O14" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="P14" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Q14" s="14">
+        <v>-80.900000000000006</v>
+      </c>
+      <c r="R14" s="14">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="S14" s="14">
+        <v>-259.5</v>
+      </c>
+      <c r="T14" s="14">
+        <v>15.6</v>
+      </c>
+      <c r="U14" s="14">
+        <v>-8.5</v>
+      </c>
+      <c r="V14" s="14">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="14">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="X14" s="14">
+        <v>46</v>
+      </c>
+      <c r="Y14" s="14">
+        <v>2536.5</v>
+      </c>
+      <c r="Z14" s="14">
+        <v>195.9</v>
+      </c>
+      <c r="AA14" s="14">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__58G6</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L15" s="14">
+        <v>-121.8</v>
+      </c>
+      <c r="M15" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="N15" s="14">
+        <v>16</v>
+      </c>
+      <c r="O15" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P15" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q15" s="14">
+        <v>-91.1</v>
+      </c>
+      <c r="R15" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="S15" s="14">
+        <v>-213.7</v>
+      </c>
+      <c r="T15" s="14">
+        <v>10.1</v>
+      </c>
+      <c r="U15" s="14">
+        <v>-18.5</v>
+      </c>
+      <c r="V15" s="14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W15" s="14">
+        <v>305.7</v>
+      </c>
+      <c r="X15" s="14">
+        <v>24.3</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>2412.4</v>
+      </c>
+      <c r="Z15" s="14">
+        <v>92.2</v>
+      </c>
+      <c r="AA15" s="14">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__CV38-142</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="14">
+        <v>-114.1</v>
+      </c>
+      <c r="M16" s="14">
+        <v>8</v>
+      </c>
+      <c r="N16" s="14">
+        <v>7</v>
+      </c>
+      <c r="O16" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="P16" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="14">
+        <v>-90.2</v>
+      </c>
+      <c r="R16" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="S16" s="14">
+        <v>-211</v>
+      </c>
+      <c r="T16" s="14">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="U16" s="14">
+        <v>-10.4</v>
+      </c>
+      <c r="V16" s="14">
+        <v>8.1</v>
+      </c>
+      <c r="W16" s="14">
+        <v>307</v>
+      </c>
+      <c r="X16" s="14">
+        <v>77.5</v>
+      </c>
+      <c r="Y16" s="14">
+        <v>2506.8000000000002</v>
+      </c>
+      <c r="Z16" s="14">
+        <v>86.6</v>
+      </c>
+      <c r="AA16" s="14">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__C110</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="L17" s="14">
+        <v>-114.8</v>
+      </c>
+      <c r="M17" s="14">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="N17" s="14">
+        <v>6</v>
+      </c>
+      <c r="O17" s="14">
+        <v>15.1</v>
+      </c>
+      <c r="P17" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q17" s="14">
+        <v>-60.9</v>
+      </c>
+      <c r="R17" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="S17" s="14">
+        <v>-355.6</v>
+      </c>
+      <c r="T17" s="14">
+        <v>21.7</v>
+      </c>
+      <c r="U17" s="14">
+        <v>-15</v>
+      </c>
+      <c r="V17" s="14">
+        <v>2.7</v>
+      </c>
+      <c r="W17" s="14">
+        <v>322</v>
+      </c>
+      <c r="X17" s="14">
+        <v>89</v>
+      </c>
+      <c r="Y17" s="14">
+        <v>2307.3000000000002</v>
+      </c>
+      <c r="Z17" s="14">
+        <v>63.1</v>
+      </c>
+      <c r="AA17" s="14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__Omi-9</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="14">
+        <v>-26.1</v>
+      </c>
+      <c r="M18" s="14">
+        <v>4.2</v>
+      </c>
+      <c r="N18" s="14">
+        <v>5</v>
+      </c>
+      <c r="O18" s="14">
+        <v>11</v>
+      </c>
+      <c r="P18" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="14">
+        <v>-31.4</v>
+      </c>
+      <c r="R18" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="S18" s="14">
+        <v>-164.1</v>
+      </c>
+      <c r="T18" s="14">
+        <v>13.7</v>
+      </c>
+      <c r="U18" s="14">
+        <v>-21</v>
+      </c>
+      <c r="V18" s="14">
+        <v>0.9</v>
+      </c>
+      <c r="W18" s="14">
+        <v>591.20000000000005</v>
+      </c>
+      <c r="X18" s="14">
+        <v>21.8</v>
+      </c>
+      <c r="Y18" s="14">
+        <v>1838.1</v>
+      </c>
+      <c r="Z18" s="14">
+        <v>59.2</v>
+      </c>
+      <c r="AA18" s="14">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__P5C3</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="14">
+        <v>-90</v>
+      </c>
+      <c r="M19" s="14">
+        <v>7.9</v>
+      </c>
+      <c r="N19" s="14">
+        <v>16</v>
+      </c>
+      <c r="O19" s="14">
+        <v>10.6</v>
+      </c>
+      <c r="P19" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>-75.7</v>
+      </c>
+      <c r="R19" s="14">
+        <v>6.7</v>
+      </c>
+      <c r="S19" s="14">
+        <v>-266.39999999999998</v>
+      </c>
+      <c r="T19" s="14">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="U19" s="14">
+        <v>-6</v>
+      </c>
+      <c r="V19" s="14">
+        <v>1.7</v>
+      </c>
+      <c r="W19" s="14">
+        <v>449.7</v>
+      </c>
+      <c r="X19" s="14">
+        <v>40.9</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>2593.8000000000002</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>100.1</v>
+      </c>
+      <c r="AA19" s="14">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__EY6A</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="14">
+        <v>-135.30000000000001</v>
+      </c>
+      <c r="M20" s="14">
+        <v>8</v>
+      </c>
+      <c r="N20" s="14">
+        <v>8</v>
+      </c>
+      <c r="O20" s="14">
+        <v>21.5</v>
+      </c>
+      <c r="P20" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>-95.9</v>
+      </c>
+      <c r="R20" s="14">
+        <v>5.3</v>
+      </c>
+      <c r="S20" s="14">
+        <v>-204</v>
+      </c>
+      <c r="T20" s="14">
+        <v>10.3</v>
+      </c>
+      <c r="U20" s="14">
+        <v>-21</v>
+      </c>
+      <c r="V20" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="W20" s="14">
+        <v>224</v>
+      </c>
+      <c r="X20" s="14">
+        <v>38.5</v>
+      </c>
+      <c r="Y20" s="14">
+        <v>2748.5</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__COVOX-150</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="L21" s="14">
+        <v>-127.1</v>
+      </c>
+      <c r="M21" s="14">
+        <v>5.6</v>
+      </c>
+      <c r="N21" s="14">
+        <v>7</v>
+      </c>
+      <c r="O21" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="P21" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>-100.8</v>
+      </c>
+      <c r="R21" s="14">
+        <v>3.3</v>
+      </c>
+      <c r="S21" s="14">
+        <v>-176</v>
+      </c>
+      <c r="T21" s="14">
+        <v>25.8</v>
+      </c>
+      <c r="U21" s="14">
+        <v>-16.8</v>
+      </c>
+      <c r="V21" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="W21" s="14">
+        <v>256.89999999999998</v>
+      </c>
+      <c r="X21" s="14">
+        <v>27.2</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>2714.6</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>53.3</v>
+      </c>
+      <c r="AA21" s="14">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>BJ_1__LY-CoV555</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="14">
+        <v>-119.6</v>
+      </c>
+      <c r="M22" s="14">
+        <v>8.9</v>
+      </c>
+      <c r="N22" s="14">
+        <v>41</v>
+      </c>
+      <c r="O22" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P22" s="14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>-93.9</v>
+      </c>
+      <c r="R22" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="S22" s="14">
+        <v>-162.5</v>
+      </c>
+      <c r="T22" s="14">
+        <v>36.5</v>
+      </c>
+      <c r="U22" s="14">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="V22" s="14">
+        <v>3.1</v>
+      </c>
+      <c r="W22" s="14">
+        <v>400.6</v>
+      </c>
+      <c r="X22" s="14">
+        <v>53.2</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>2684.9</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>144</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" s="14" t="str">
+        <f t="shared" ref="G24:G34" si="2">_xlfn.CONCAT(SUBSTITUTE(D24,".","_"),"__",A24)</f>
+        <v>BM_1_1_1__LY-CoV1404</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="J24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="14">
+        <v>-103</v>
+      </c>
+      <c r="M24" s="14">
+        <v>6.1</v>
+      </c>
+      <c r="N24" s="14">
+        <v>38</v>
+      </c>
+      <c r="O24" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P24" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q24" s="14">
+        <v>-75.5</v>
+      </c>
+      <c r="R24" s="14">
+        <v>3.7</v>
+      </c>
+      <c r="S24" s="14">
+        <v>-275.5</v>
+      </c>
+      <c r="T24" s="14">
+        <v>24.5</v>
+      </c>
+      <c r="U24" s="14">
+        <v>-9.9</v>
+      </c>
+      <c r="V24" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W24" s="14">
+        <v>375.3</v>
+      </c>
+      <c r="X24" s="14">
+        <v>34.5</v>
+      </c>
+      <c r="Y24" s="14">
+        <v>2110.8000000000002</v>
+      </c>
+      <c r="Z24" s="14">
+        <v>36</v>
+      </c>
+      <c r="AA24" s="14">
+        <v>-1.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G25" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__AZD1061</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="J25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="14">
+        <v>-102.8</v>
+      </c>
+      <c r="M25" s="14">
+        <v>9.4</v>
+      </c>
+      <c r="N25" s="14">
+        <v>119</v>
+      </c>
+      <c r="O25" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="P25" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>-80.099999999999994</v>
+      </c>
+      <c r="R25" s="14">
+        <v>7</v>
+      </c>
+      <c r="S25" s="14">
+        <v>-323.39999999999998</v>
+      </c>
+      <c r="T25" s="14">
+        <v>45</v>
+      </c>
+      <c r="U25" s="14">
+        <v>-6.8</v>
+      </c>
+      <c r="V25" s="14">
+        <v>1</v>
+      </c>
+      <c r="W25" s="14">
+        <v>487.2</v>
+      </c>
+      <c r="X25" s="14">
+        <v>82.7</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>2555.6999999999998</v>
+      </c>
+      <c r="Z25" s="14">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="AA25" s="14">
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__AZD8895</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L26" s="14">
+        <v>-100.2</v>
+      </c>
+      <c r="M26" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="N26" s="14">
+        <v>21</v>
+      </c>
+      <c r="O26" s="14">
+        <v>7.6</v>
+      </c>
+      <c r="P26" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>-76.400000000000006</v>
+      </c>
+      <c r="R26" s="14">
+        <v>1.8</v>
+      </c>
+      <c r="S26" s="14">
+        <v>-283.39999999999998</v>
+      </c>
+      <c r="T26" s="14">
+        <v>37.6</v>
+      </c>
+      <c r="U26" s="14">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="V26" s="14">
+        <v>5.2</v>
+      </c>
+      <c r="W26" s="14">
+        <v>231.9</v>
+      </c>
+      <c r="X26" s="14">
+        <v>31.5</v>
+      </c>
+      <c r="Y26" s="14">
+        <v>2413.3000000000002</v>
+      </c>
+      <c r="Z26" s="14">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="14">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__58G6</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="14">
+        <v>-90.4</v>
+      </c>
+      <c r="M27" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="N27" s="14">
+        <v>27</v>
+      </c>
+      <c r="O27" s="14">
+        <v>12.7</v>
+      </c>
+      <c r="P27" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>-62.4</v>
+      </c>
+      <c r="R27" s="14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="S27" s="14">
+        <v>-313.3</v>
+      </c>
+      <c r="T27" s="14">
+        <v>18.3</v>
+      </c>
+      <c r="U27" s="14">
+        <v>10</v>
+      </c>
+      <c r="V27" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="W27" s="14">
+        <v>247</v>
+      </c>
+      <c r="X27" s="14">
+        <v>69</v>
+      </c>
+      <c r="Y27" s="14">
+        <v>2199.5</v>
+      </c>
+      <c r="Z27" s="14">
+        <v>28.8</v>
+      </c>
+      <c r="AA27" s="14">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__CV38-142</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="14">
+        <v>-96.6</v>
+      </c>
+      <c r="M28" s="14">
+        <v>10.6</v>
+      </c>
+      <c r="N28" s="14">
+        <v>16</v>
+      </c>
+      <c r="O28" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="P28" s="14">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>-68.400000000000006</v>
+      </c>
+      <c r="R28" s="14">
+        <v>5.9</v>
+      </c>
+      <c r="S28" s="14">
+        <v>-324.8</v>
+      </c>
+      <c r="T28" s="14">
+        <v>57.7</v>
+      </c>
+      <c r="U28" s="14">
+        <v>14.2</v>
+      </c>
+      <c r="V28" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="W28" s="14">
+        <v>225.3</v>
+      </c>
+      <c r="X28" s="14">
+        <v>41.7</v>
+      </c>
+      <c r="Y28" s="14">
+        <v>2233.6999999999998</v>
+      </c>
+      <c r="Z28" s="14">
+        <v>110.5</v>
+      </c>
+      <c r="AA28" s="14">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__C110</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="J29" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L29" s="14">
+        <v>-118.8</v>
+      </c>
+      <c r="M29" s="14">
+        <v>4.8</v>
+      </c>
+      <c r="N29" s="14">
+        <v>41</v>
+      </c>
+      <c r="O29" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="P29" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>-62.7</v>
+      </c>
+      <c r="R29" s="14">
+        <v>3.6</v>
+      </c>
+      <c r="S29" s="14">
+        <v>-433.4</v>
+      </c>
+      <c r="T29" s="14">
+        <v>24.8</v>
+      </c>
+      <c r="U29" s="14">
+        <v>9.1</v>
+      </c>
+      <c r="V29" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="W29" s="14">
+        <v>215.2</v>
+      </c>
+      <c r="X29" s="14">
+        <v>62.6</v>
+      </c>
+      <c r="Y29" s="14">
+        <v>2086</v>
+      </c>
+      <c r="Z29" s="14">
+        <v>31.6</v>
+      </c>
+      <c r="AA29" s="14">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__Omi-9</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="L30" s="14">
+        <v>-48.4</v>
+      </c>
+      <c r="M30" s="14">
+        <v>9.6</v>
+      </c>
+      <c r="N30" s="14">
+        <v>5</v>
+      </c>
+      <c r="O30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="P30" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>-53.4</v>
+      </c>
+      <c r="R30" s="14">
+        <v>3</v>
+      </c>
+      <c r="S30" s="14">
+        <v>-234.5</v>
+      </c>
+      <c r="T30" s="14">
+        <v>7.2</v>
+      </c>
+      <c r="U30" s="14">
+        <v>14.9</v>
+      </c>
+      <c r="V30" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="W30" s="14">
+        <v>669</v>
+      </c>
+      <c r="X30" s="14">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="Y30" s="14">
+        <v>1987.7</v>
+      </c>
+      <c r="Z30" s="14">
+        <v>18.2</v>
+      </c>
+      <c r="AA30" s="14">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__P5C3</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="14">
+        <v>-105.4</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="N31" s="14">
+        <v>81</v>
+      </c>
+      <c r="O31" s="14">
+        <v>17.7</v>
+      </c>
+      <c r="P31" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>-77.400000000000006</v>
+      </c>
+      <c r="R31" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="S31" s="14">
+        <v>-361.4</v>
+      </c>
+      <c r="T31" s="14">
+        <v>22.6</v>
+      </c>
+      <c r="U31" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="V31" s="14">
+        <v>4.5</v>
+      </c>
+      <c r="W31" s="14">
+        <v>373.5</v>
+      </c>
+      <c r="X31" s="14">
+        <v>30.7</v>
+      </c>
+      <c r="Y31" s="14">
+        <v>2520</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>107.9</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__EY6A</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="L32" s="14">
+        <v>-114.8</v>
+      </c>
+      <c r="M32" s="14">
+        <v>6.9</v>
+      </c>
+      <c r="N32" s="14">
+        <v>37</v>
+      </c>
+      <c r="O32" s="14">
+        <v>0.7</v>
+      </c>
+      <c r="P32" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="Q32" s="14">
+        <v>-73.599999999999994</v>
+      </c>
+      <c r="R32" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="S32" s="14">
+        <v>-333.7</v>
+      </c>
+      <c r="T32" s="14">
+        <v>9</v>
+      </c>
+      <c r="U32" s="14">
+        <v>-2</v>
+      </c>
+      <c r="V32" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="W32" s="14">
+        <v>275.5</v>
+      </c>
+      <c r="X32" s="14">
+        <v>47.1</v>
+      </c>
+      <c r="Y32" s="14">
+        <v>2373.9</v>
+      </c>
+      <c r="Z32" s="14">
+        <v>83.3</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G33" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__COVOX-150</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J33" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="14">
+        <v>-132.80000000000001</v>
+      </c>
+      <c r="M33" s="14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N33" s="14">
+        <v>16</v>
+      </c>
+      <c r="O33" s="14">
+        <v>0.4</v>
+      </c>
+      <c r="P33" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>-82.7</v>
+      </c>
+      <c r="R33" s="14">
+        <v>4.3</v>
+      </c>
+      <c r="S33" s="14">
+        <v>-334.8</v>
+      </c>
+      <c r="T33" s="14">
+        <v>15.6</v>
+      </c>
+      <c r="U33" s="14">
+        <v>14.4</v>
+      </c>
+      <c r="V33" s="14">
+        <v>2.4</v>
+      </c>
+      <c r="W33" s="14">
+        <v>312.39999999999998</v>
+      </c>
+      <c r="X33" s="14">
+        <v>41.1</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>2493.1999999999998</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>64.3</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G34" s="14" t="str">
+        <f t="shared" si="2"/>
+        <v>BM_1_1_1__LY-CoV555</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="14">
+        <v>-88.1</v>
+      </c>
+      <c r="M34" s="14">
+        <v>7.3</v>
+      </c>
+      <c r="N34" s="14">
+        <v>34</v>
+      </c>
+      <c r="O34" s="14">
+        <v>6.4</v>
+      </c>
+      <c r="P34" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="Q34" s="14">
+        <v>-77.3</v>
+      </c>
+      <c r="R34" s="14">
+        <v>3.2</v>
+      </c>
+      <c r="S34" s="14">
+        <v>-261.7</v>
+      </c>
+      <c r="T34" s="14">
+        <v>12.6</v>
+      </c>
+      <c r="U34" s="14">
+        <v>-1</v>
+      </c>
+      <c r="V34" s="14">
+        <v>2.6</v>
+      </c>
+      <c r="W34" s="14">
+        <v>425</v>
+      </c>
+      <c r="X34" s="14">
+        <v>77.8</v>
+      </c>
+      <c r="Y34" s="14">
+        <v>2498.6</v>
+      </c>
+      <c r="Z34" s="14">
+        <v>97.1</v>
+      </c>
+      <c r="AA34" s="14">
+        <v>-2.1</v>
       </c>
     </row>
   </sheetData>

--- a/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
+++ b/subvariants/XBB.1_recombination/HADDOCK_Results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colby\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CFORD38\Documents\GitHub\SARS-CoV-2_B.1.1.529_Spike-RBD_Predictions\subvariants\XBB.1_recombination\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82809110-767F-4AE1-BD8D-F3F3C8861479}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD862270-4648-4FC9-A85B-CBCF2B8BBE6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{62A41C40-034E-4CCB-9F98-C69E7335804C}"/>
   </bookViews>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="95">
   <si>
     <t>Antibody Name</t>
   </si>
@@ -526,9 +515,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -562,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -890,10 +879,10 @@
   <dimension ref="A1:AA41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J31" sqref="J31"/>
+      <selection pane="bottomRight" activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,7 +1026,7 @@
       <c r="H2" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="35" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="1" t="b">
@@ -1121,7 +1110,7 @@
       <c r="H3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="23"/>
+      <c r="I3" s="35"/>
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
@@ -1203,7 +1192,7 @@
       <c r="H4" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I4" s="23"/>
+      <c r="I4" s="35"/>
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
@@ -1285,7 +1274,7 @@
       <c r="H5" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I5" s="23"/>
+      <c r="I5" s="35"/>
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
@@ -1367,7 +1356,7 @@
       <c r="H6" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I6" s="23"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
@@ -1449,7 +1438,7 @@
       <c r="H7" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I7" s="23"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
@@ -1531,7 +1520,7 @@
       <c r="H8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
@@ -1613,7 +1602,7 @@
       <c r="H9" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="1" t="b">
         <v>1</v>
       </c>
@@ -1695,7 +1684,7 @@
       <c r="H10" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="23"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="1" t="b">
         <v>1</v>
       </c>
@@ -1777,7 +1766,7 @@
       <c r="H11" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I11" s="23"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="1" t="b">
         <v>1</v>
       </c>
@@ -1859,9 +1848,60 @@
       <c r="H12" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" s="1">
+        <v>-115.4</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="N12" s="1">
+        <v>73</v>
+      </c>
+      <c r="O12" s="1">
+        <v>21.3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>-63.9</v>
+      </c>
+      <c r="R12" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-337.7</v>
+      </c>
+      <c r="T12" s="1">
+        <v>27.6</v>
+      </c>
+      <c r="U12" s="1">
+        <v>-23</v>
+      </c>
+      <c r="V12" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="W12" s="1">
+        <v>390.7</v>
+      </c>
+      <c r="X12" s="1">
+        <v>52.1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2365.5</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>-2.1</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -1890,9 +1930,60 @@
       <c r="H13" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="1">
+        <v>-97</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2.9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>28</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>-69.900000000000006</v>
+      </c>
+      <c r="R13" s="1">
+        <v>6</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-308.10000000000002</v>
+      </c>
+      <c r="T13" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-10.5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>2</v>
+      </c>
+      <c r="W13" s="1">
+        <v>449.7</v>
+      </c>
+      <c r="X13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2314.4</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>79.3</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -1921,9 +2012,60 @@
       <c r="H14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-88</v>
+      </c>
+      <c r="M14" s="1">
+        <v>6.7</v>
+      </c>
+      <c r="N14" s="1">
+        <v>12</v>
+      </c>
+      <c r="O14" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P14" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>-64.3</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-215.5</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="U14" s="1">
+        <v>-8.4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5.7</v>
+      </c>
+      <c r="W14" s="1">
+        <v>278.60000000000002</v>
+      </c>
+      <c r="X14" s="1">
+        <v>68.2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2134.6</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>116.6</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -1952,9 +2094,60 @@
       <c r="H15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-89.4</v>
+      </c>
+      <c r="M15" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="N15" s="1">
+        <v>9</v>
+      </c>
+      <c r="O15" s="1">
+        <v>9.6</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>-69.3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-259.39999999999998</v>
+      </c>
+      <c r="T15" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="U15" s="1">
+        <v>-5.9</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="W15" s="1">
+        <v>375.9</v>
+      </c>
+      <c r="X15" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>2304.6</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -1983,9 +2176,60 @@
       <c r="H16" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-113.9</v>
+      </c>
+      <c r="M16" s="1">
+        <v>10.1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>8</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-85.3</v>
+      </c>
+      <c r="R16" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="S16" s="1">
+        <v>-228.4</v>
+      </c>
+      <c r="T16" s="1">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-16.3</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="W16" s="1">
+        <v>333.3</v>
+      </c>
+      <c r="X16" s="1">
+        <v>49.4</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>2421.5</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>79</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2014,9 +2258,60 @@
       <c r="H17" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="1">
+        <v>-122.1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>40</v>
+      </c>
+      <c r="O17" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>-73.5</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="S17" s="1">
+        <v>-314.3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="U17" s="1">
+        <v>-20</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W17" s="1">
+        <v>342.5</v>
+      </c>
+      <c r="X17" s="1">
+        <v>63.2</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>2139.5</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>85.5</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="18" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -2045,9 +2340,60 @@
       <c r="H18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="23"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="1">
+        <v>-103.3</v>
+      </c>
+      <c r="M18" s="1">
+        <v>14.2</v>
+      </c>
+      <c r="N18" s="1">
+        <v>7</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P18" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>-86.2</v>
+      </c>
+      <c r="R18" s="1">
+        <v>11.6</v>
+      </c>
+      <c r="S18" s="1">
+        <v>-244.1</v>
+      </c>
+      <c r="T18" s="1">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="U18" s="1">
+        <v>-4.7</v>
+      </c>
+      <c r="V18" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="W18" s="1">
+        <v>364.6</v>
+      </c>
+      <c r="X18" s="1">
+        <v>58.9</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>2659.4</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>250.9</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="19" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2076,9 +2422,60 @@
       <c r="H19" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="23"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L19" s="1">
+        <v>-144.1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>11.2</v>
+      </c>
+      <c r="N19" s="1">
+        <v>19</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="P19" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>-89.4</v>
+      </c>
+      <c r="R19" s="1">
+        <v>10.8</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-317.60000000000002</v>
+      </c>
+      <c r="T19" s="1">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U19" s="1">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="V19" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="W19" s="1">
+        <v>265.10000000000002</v>
+      </c>
+      <c r="X19" s="1">
+        <v>81.2</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>2562.1</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>132.5</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2107,9 +2504,60 @@
       <c r="H20" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I20" s="23"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="1">
+        <v>-118.8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-77.900000000000006</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2.4</v>
+      </c>
+      <c r="S20" s="1">
+        <v>-290.8</v>
+      </c>
+      <c r="T20" s="1">
+        <v>21</v>
+      </c>
+      <c r="U20" s="1">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="V20" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W20" s="1">
+        <v>366</v>
+      </c>
+      <c r="X20" s="1">
+        <v>41.2</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>2408.8000000000002</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="21" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -2138,9 +2586,60 @@
       <c r="H21" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I21" s="23"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L21" s="1">
+        <v>-70.5</v>
+      </c>
+      <c r="M21" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="N21" s="1">
+        <v>9</v>
+      </c>
+      <c r="O21" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="P21" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>-65.099999999999994</v>
+      </c>
+      <c r="R21" s="1">
+        <v>6.2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>-184.9</v>
+      </c>
+      <c r="T21" s="1">
+        <v>39.4</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="V21" s="1">
+        <v>5.2</v>
+      </c>
+      <c r="W21" s="1">
+        <v>487.1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>63.6</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>2155.5</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2169,9 +2668,60 @@
       <c r="H22" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I22" s="23"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-110.9</v>
+      </c>
+      <c r="M22" s="1">
+        <v>6.3</v>
+      </c>
+      <c r="N22" s="1">
+        <v>13</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-75.8</v>
+      </c>
+      <c r="R22" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="S22" s="1">
+        <v>-290.7</v>
+      </c>
+      <c r="T22" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="U22" s="1">
+        <v>-2.7</v>
+      </c>
+      <c r="V22" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W22" s="1">
+        <v>257.39999999999998</v>
+      </c>
+      <c r="X22" s="1">
+        <v>15.1</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>2467.1</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -2200,9 +2750,60 @@
       <c r="H23" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I23" s="23"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="1">
+        <v>-95.4</v>
+      </c>
+      <c r="M23" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="N23" s="1">
+        <v>63</v>
+      </c>
+      <c r="O23" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>-82.6</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2</v>
+      </c>
+      <c r="S23" s="1">
+        <v>-239.8</v>
+      </c>
+      <c r="T23" s="1">
+        <v>21.4</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="V23" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="W23" s="1">
+        <v>439.3</v>
+      </c>
+      <c r="X23" s="1">
+        <v>50.5</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>2283.3000000000002</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>49.1</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2231,9 +2832,60 @@
       <c r="H24" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I24" s="23"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="1">
+        <v>-84.8</v>
+      </c>
+      <c r="M24" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>41</v>
+      </c>
+      <c r="O24" s="1">
+        <v>13.2</v>
+      </c>
+      <c r="P24" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>-86.7</v>
+      </c>
+      <c r="R24" s="1">
+        <v>3</v>
+      </c>
+      <c r="S24" s="1">
+        <v>-150</v>
+      </c>
+      <c r="T24" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="U24" s="1">
+        <v>-8.9</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="W24" s="1">
+        <v>407.9</v>
+      </c>
+      <c r="X24" s="1">
+        <v>27.7</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>2482</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -2262,9 +2914,60 @@
       <c r="H25" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="23"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-95.8</v>
+      </c>
+      <c r="M25" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="N25" s="1">
+        <v>8</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P25" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>-81.3</v>
+      </c>
+      <c r="R25" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="S25" s="1">
+        <v>-214.9</v>
+      </c>
+      <c r="T25" s="1">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="U25" s="1">
+        <v>-10</v>
+      </c>
+      <c r="V25" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="W25" s="1">
+        <v>384.7</v>
+      </c>
+      <c r="X25" s="1">
+        <v>53</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>2418.1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>-2</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
@@ -2293,9 +2996,60 @@
       <c r="H26" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I26" s="23"/>
+      <c r="I26" s="35"/>
       <c r="J26" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-113.1</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="N26" s="1">
+        <v>101</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>-88.7</v>
+      </c>
+      <c r="R26" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>-216</v>
+      </c>
+      <c r="T26" s="1">
+        <v>28.2</v>
+      </c>
+      <c r="U26" s="1">
+        <v>-4.8</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="W26" s="1">
+        <v>236.5</v>
+      </c>
+      <c r="X26" s="1">
+        <v>84.2</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>2363</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>57.3</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2324,9 +3078,60 @@
       <c r="H27" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I27" s="23"/>
+      <c r="I27" s="35"/>
       <c r="J27" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-113.9</v>
+      </c>
+      <c r="M27" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="N27" s="1">
+        <v>40</v>
+      </c>
+      <c r="O27" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="P27" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>-74.3</v>
+      </c>
+      <c r="R27" s="1">
+        <v>10</v>
+      </c>
+      <c r="S27" s="1">
+        <v>-289.89999999999998</v>
+      </c>
+      <c r="T27" s="1">
+        <v>44.4</v>
+      </c>
+      <c r="U27" s="1">
+        <v>-16.8</v>
+      </c>
+      <c r="V27" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="W27" s="1">
+        <v>351.9</v>
+      </c>
+      <c r="X27" s="1">
+        <v>89.6</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>2122.1999999999998</v>
+      </c>
+      <c r="Z27" s="1">
+        <v>103.9</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="28" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -2355,9 +3160,60 @@
       <c r="H28" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I28" s="23"/>
+      <c r="I28" s="35"/>
       <c r="J28" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-110.5</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="1">
+        <v>99</v>
+      </c>
+      <c r="O28" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="P28" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>-83.1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-326.8</v>
+      </c>
+      <c r="T28" s="1">
+        <v>7.8</v>
+      </c>
+      <c r="U28" s="1">
+        <v>-9.1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="W28" s="1">
+        <v>470.5</v>
+      </c>
+      <c r="X28" s="1">
+        <v>26</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>2561.4</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2386,9 +3242,60 @@
       <c r="H29" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I29" s="23"/>
+      <c r="I29" s="35"/>
       <c r="J29" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-136.5</v>
+      </c>
+      <c r="M29" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="N29" s="1">
+        <v>49</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="P29" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>-98.1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="S29" s="1">
+        <v>302.10000000000002</v>
+      </c>
+      <c r="T29" s="1">
+        <v>46.4</v>
+      </c>
+      <c r="U29" s="1">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="W29" s="1">
+        <v>313</v>
+      </c>
+      <c r="X29" s="1">
+        <v>14.6</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>2775</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>99.4</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2417,9 +3324,60 @@
       <c r="H30" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I30" s="23"/>
+      <c r="I30" s="35"/>
       <c r="J30" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-129.80000000000001</v>
+      </c>
+      <c r="M30" s="1">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="N30" s="1">
+        <v>67</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="P30" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>-96</v>
+      </c>
+      <c r="R30" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-236.1</v>
+      </c>
+      <c r="T30" s="1">
+        <v>27</v>
+      </c>
+      <c r="U30" s="1">
+        <v>-18.8</v>
+      </c>
+      <c r="V30" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W30" s="1">
+        <v>322.10000000000002</v>
+      </c>
+      <c r="X30" s="1">
+        <v>45.1</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>2496.4</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="60" x14ac:dyDescent="0.25">
@@ -2448,9 +3406,60 @@
       <c r="H31" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I31" s="23"/>
+      <c r="I31" s="35"/>
       <c r="J31" s="1" t="b">
         <v>1</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-105.3</v>
+      </c>
+      <c r="M31" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="N31" s="1">
+        <v>42</v>
+      </c>
+      <c r="O31" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="P31" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>-95.3</v>
+      </c>
+      <c r="R31" s="1">
+        <v>6.1</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-148.69999999999999</v>
+      </c>
+      <c r="T31" s="1">
+        <v>14.1</v>
+      </c>
+      <c r="U31" s="1">
+        <v>-18.7</v>
+      </c>
+      <c r="V31" s="1">
+        <v>3.6</v>
+      </c>
+      <c r="W31" s="1">
+        <v>385.2</v>
+      </c>
+      <c r="X31" s="1">
+        <v>33.6</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>2462.9</v>
+      </c>
+      <c r="Z31" s="1">
+        <v>68</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>-1.9</v>
       </c>
     </row>
     <row r="32" spans="1:27" ht="45" x14ac:dyDescent="0.25">
@@ -2479,7 +3488,7 @@
       <c r="H32" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="I32" s="23"/>
+      <c r="I32" s="35"/>
       <c r="J32" s="1" t="b">
         <v>1</v>
       </c>
@@ -2561,7 +3570,7 @@
       <c r="H33" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I33" s="23"/>
+      <c r="I33" s="35"/>
       <c r="J33" s="1" t="b">
         <v>1</v>
       </c>
@@ -2643,7 +3652,7 @@
       <c r="H34" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I34" s="23"/>
+      <c r="I34" s="35"/>
       <c r="J34" s="1" t="b">
         <v>1</v>
       </c>
@@ -2725,7 +3734,7 @@
       <c r="H35" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I35" s="23"/>
+      <c r="I35" s="35"/>
       <c r="J35" s="1" t="b">
         <v>1</v>
       </c>
@@ -2807,7 +3816,7 @@
       <c r="H36" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I36" s="23"/>
+      <c r="I36" s="35"/>
       <c r="J36" s="1" t="b">
         <v>1</v>
       </c>
@@ -2889,7 +3898,7 @@
       <c r="H37" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="I37" s="23"/>
+      <c r="I37" s="35"/>
       <c r="J37" s="1" t="b">
         <v>1</v>
       </c>
@@ -2971,7 +3980,7 @@
       <c r="H38" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I38" s="23"/>
+      <c r="I38" s="35"/>
       <c r="J38" s="1" t="b">
         <v>1</v>
       </c>
@@ -3053,7 +4062,7 @@
       <c r="H39" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="23"/>
+      <c r="I39" s="35"/>
       <c r="J39" s="1" t="b">
         <v>1</v>
       </c>
@@ -3135,7 +4144,7 @@
       <c r="H40" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="I40" s="23"/>
+      <c r="I40" s="35"/>
       <c r="J40" s="1" t="b">
         <v>1</v>
       </c>
@@ -3217,7 +4226,7 @@
       <c r="H41" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="I41" s="23"/>
+      <c r="I41" s="35"/>
       <c r="J41" s="1" t="b">
         <v>1</v>
       </c>
@@ -3859,8 +4868,8 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B8" s="14" t="s">
@@ -3940,8 +4949,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="35"/>
+    <row r="9" spans="1:27" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -3968,8 +4977,8 @@
       <c r="Z9" s="14"/>
       <c r="AA9" s="14"/>
     </row>
-    <row r="10" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B10" s="14" t="s">
@@ -3978,17 +4987,17 @@
       <c r="C10" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="33" t="s">
         <v>70</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="F10" s="33" t="s">
         <v>71</v>
       </c>
       <c r="G10" s="14" t="str">
-        <f t="shared" ref="G10:G11" si="0">_xlfn.CONCAT(SUBSTITUTE(D10,".","_"),"__",A10)</f>
+        <f t="shared" ref="G10" si="0">_xlfn.CONCAT(SUBSTITUTE(D10,".","_"),"__",A10)</f>
         <v>B_1_1_529__Omi-9</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -4050,8 +5059,8 @@
       </c>
     </row>
     <row r="11" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+    <row r="12" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="14" t="s">
@@ -4131,7 +5140,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
@@ -4212,7 +5221,7 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>36</v>
       </c>
@@ -4293,8 +5302,8 @@
         <v>-2.4</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B15" s="14" t="s">
@@ -4374,8 +5383,8 @@
         <v>-1.4</v>
       </c>
     </row>
-    <row r="16" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+    <row r="16" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B16" s="14" t="s">
@@ -4455,8 +5464,8 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -4536,8 +5545,8 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
+    <row r="18" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -4617,8 +5626,8 @@
         <v>-1.1000000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B19" s="14" t="s">
@@ -4698,8 +5707,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+    <row r="20" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B20" s="14" t="s">
@@ -4779,8 +5788,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+    <row r="21" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B21" s="14" t="s">
@@ -4860,8 +5869,8 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="22" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+    <row r="22" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="14" t="s">
@@ -4941,8 +5950,8 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="24" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="14" t="s">
@@ -5022,7 +6031,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>35</v>
       </c>
@@ -5103,7 +6112,7 @@
         <v>-2.1</v>
       </c>
     </row>
-    <row r="26" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>36</v>
       </c>
@@ -5184,8 +6193,8 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+    <row r="27" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
         <v>57</v>
       </c>
       <c r="B27" s="14" t="s">
@@ -5265,8 +6274,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="28" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="14" t="s">
@@ -5346,8 +6355,8 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+    <row r="29" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>59</v>
       </c>
       <c r="B29" s="14" t="s">
@@ -5427,8 +6436,8 @@
         <v>-1.7</v>
       </c>
     </row>
-    <row r="30" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
+    <row r="30" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="28" t="s">
         <v>76</v>
       </c>
       <c r="B30" s="14" t="s">
@@ -5508,8 +6517,8 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
         <v>77</v>
       </c>
       <c r="B31" s="14" t="s">
@@ -5589,8 +6598,8 @@
         <v>-1.3</v>
       </c>
     </row>
-    <row r="32" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="31" t="s">
+    <row r="32" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B32" s="14" t="s">
@@ -5670,8 +6679,8 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+    <row r="33" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="14" t="s">
@@ -5751,8 +6760,8 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:27" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
+    <row r="34" spans="1:27" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="32" t="s">
         <v>90</v>
       </c>
       <c r="B34" s="14" t="s">
